--- a/BackTest/2019-11-01 BackTest DAC.xlsx
+++ b/BackTest/2019-11-01 BackTest DAC.xlsx
@@ -3624,7 +3624,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.28571428571428</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L68" t="n">
         <v>3.325999999999998</v>
@@ -3675,7 +3675,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>3.326999999999998</v>
@@ -3726,7 +3726,7 @@
         <v>0.1800000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>3.326999999999998</v>
@@ -3777,7 +3777,7 @@
         <v>0.1800000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L71" t="n">
         <v>3.328999999999998</v>
@@ -3828,7 +3828,7 @@
         <v>0.1800000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>-11.11111111111111</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L72" t="n">
         <v>3.326999999999998</v>
@@ -3879,7 +3879,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>-15.78947368421043</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>3.324999999999998</v>
@@ -3930,7 +3930,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>-15.78947368421043</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L74" t="n">
         <v>3.321999999999998</v>
@@ -3981,7 +3981,7 @@
         <v>0.1999999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>-10.00000000000002</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L75" t="n">
         <v>3.321999999999998</v>
@@ -4032,7 +4032,7 @@
         <v>0.1999999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>-10.00000000000002</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L76" t="n">
         <v>3.320999999999999</v>
@@ -4083,7 +4083,7 @@
         <v>0.2099999999999995</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.28571428571423</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L77" t="n">
         <v>3.318999999999999</v>
@@ -4185,7 +4185,7 @@
         <v>0.2499999999999991</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>14.28571428571483</v>
       </c>
       <c r="L79" t="n">
         <v>3.319999999999999</v>
@@ -4236,7 +4236,7 @@
         <v>0.2499999999999991</v>
       </c>
       <c r="K80" t="n">
-        <v>4.34782608695664</v>
+        <v>14.28571428571483</v>
       </c>
       <c r="L80" t="n">
         <v>3.320999999999999</v>
@@ -4287,7 +4287,7 @@
         <v>0.2599999999999993</v>
       </c>
       <c r="K81" t="n">
-        <v>9.090909090909127</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>3.320999999999999</v>
@@ -4338,7 +4338,7 @@
         <v>0.2599999999999993</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.11111111111117</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L82" t="n">
         <v>3.320999999999999</v>
@@ -4389,7 +4389,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L83" t="n">
         <v>3.322999999999998</v>
@@ -4440,7 +4440,7 @@
         <v>0.2799999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>3.323999999999998</v>
@@ -4491,7 +4491,7 @@
         <v>0.29</v>
       </c>
       <c r="K85" t="n">
-        <v>5.882352941176594</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L85" t="n">
         <v>3.324999999999998</v>
@@ -4542,7 +4542,7 @@
         <v>0.29</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L86" t="n">
         <v>3.325999999999998</v>
@@ -4593,7 +4593,7 @@
         <v>0.29</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L87" t="n">
         <v>3.327999999999997</v>
@@ -4644,7 +4644,7 @@
         <v>0.29</v>
       </c>
       <c r="K88" t="n">
-        <v>6.666666666666825</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>3.326999999999997</v>
@@ -4695,7 +4695,7 @@
         <v>0.3000000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L89" t="n">
         <v>3.325999999999997</v>
@@ -4746,7 +4746,7 @@
         <v>0.3100000000000005</v>
       </c>
       <c r="K90" t="n">
-        <v>7.69230769230785</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>3.325999999999997</v>
@@ -4797,7 +4797,7 @@
         <v>0.3100000000000005</v>
       </c>
       <c r="K91" t="n">
-        <v>7.69230769230785</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>3.326999999999997</v>
@@ -4848,7 +4848,7 @@
         <v>0.3200000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>3.326999999999997</v>
@@ -4899,7 +4899,7 @@
         <v>0.3200000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>3.325999999999997</v>
@@ -4950,7 +4950,7 @@
         <v>0.3200000000000007</v>
       </c>
       <c r="K94" t="n">
-        <v>7.692307692307482</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>3.325999999999997</v>
@@ -5001,7 +5001,7 @@
         <v>0.3200000000000007</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>3.324999999999997</v>
@@ -5052,7 +5052,7 @@
         <v>0.3200000000000007</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>3.323999999999997</v>
@@ -5103,7 +5103,7 @@
         <v>0.330000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>16.66666666666648</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>3.323999999999997</v>
@@ -5154,7 +5154,7 @@
         <v>0.330000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.11111111111067</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>3.323999999999997</v>
@@ -5205,7 +5205,7 @@
         <v>0.3400000000000012</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>3.323999999999997</v>
@@ -5307,7 +5307,7 @@
         <v>0.3500000000000014</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>3.323999999999997</v>
@@ -5409,7 +5409,7 @@
         <v>0.3700000000000019</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L103" t="n">
         <v>3.324999999999997</v>
@@ -5460,7 +5460,7 @@
         <v>0.3700000000000019</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L104" t="n">
         <v>3.325999999999997</v>
@@ -5511,7 +5511,7 @@
         <v>0.3700000000000019</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L105" t="n">
         <v>3.326999999999997</v>
@@ -5664,7 +5664,7 @@
         <v>0.3800000000000021</v>
       </c>
       <c r="K108" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>3.326999999999997</v>
@@ -5715,7 +5715,7 @@
         <v>0.3800000000000021</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>3.326999999999997</v>
@@ -5766,7 +5766,7 @@
         <v>0.3800000000000021</v>
       </c>
       <c r="K110" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>3.325999999999997</v>
@@ -5817,7 +5817,7 @@
         <v>0.3900000000000023</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>3.325999999999997</v>
@@ -5868,7 +5868,7 @@
         <v>0.3900000000000023</v>
       </c>
       <c r="K112" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>3.326999999999997</v>
@@ -5919,7 +5919,7 @@
         <v>0.4000000000000026</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>3.325999999999997</v>
@@ -5970,7 +5970,7 @@
         <v>0.4000000000000026</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>3.324999999999997</v>
@@ -6021,7 +6021,7 @@
         <v>0.4000000000000026</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>3.323999999999997</v>
@@ -6072,7 +6072,7 @@
         <v>0.4000000000000026</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>3.322999999999998</v>
@@ -6123,7 +6123,7 @@
         <v>0.4000000000000026</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>3.321999999999998</v>
@@ -6174,7 +6174,7 @@
         <v>0.4000000000000026</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>3.321999999999998</v>
@@ -6276,7 +6276,7 @@
         <v>0.4000000000000026</v>
       </c>
       <c r="K120" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L120" t="n">
         <v>3.321999999999998</v>
@@ -6327,7 +6327,7 @@
         <v>0.4100000000000024</v>
       </c>
       <c r="K121" t="n">
-        <v>-33.33333333333284</v>
+        <v>-100</v>
       </c>
       <c r="L121" t="n">
         <v>3.319999999999998</v>
@@ -6378,7 +6378,7 @@
         <v>0.4200000000000026</v>
       </c>
       <c r="K122" t="n">
-        <v>-33.33333333333284</v>
+        <v>-100</v>
       </c>
       <c r="L122" t="n">
         <v>3.316999999999998</v>
@@ -6429,7 +6429,7 @@
         <v>0.4200000000000026</v>
       </c>
       <c r="K123" t="n">
-        <v>-59.99999999999964</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>3.314999999999998</v>
@@ -6480,7 +6480,7 @@
         <v>0.4200000000000026</v>
       </c>
       <c r="K124" t="n">
-        <v>-59.99999999999964</v>
+        <v>-100</v>
       </c>
       <c r="L124" t="n">
         <v>3.312999999999998</v>
@@ -6531,7 +6531,7 @@
         <v>0.4200000000000026</v>
       </c>
       <c r="K125" t="n">
-        <v>-59.99999999999964</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>3.310999999999997</v>
@@ -6582,7 +6582,7 @@
         <v>0.4300000000000024</v>
       </c>
       <c r="K126" t="n">
-        <v>-66.66666666666617</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>3.307999999999997</v>
@@ -6633,7 +6633,7 @@
         <v>0.4600000000000026</v>
       </c>
       <c r="K127" t="n">
-        <v>-77.77777777777744</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>3.301999999999997</v>
@@ -6684,7 +6684,7 @@
         <v>0.4600000000000026</v>
       </c>
       <c r="K128" t="n">
-        <v>-74.99999999999959</v>
+        <v>-100</v>
       </c>
       <c r="L128" t="n">
         <v>3.295999999999997</v>
@@ -6735,7 +6735,7 @@
         <v>0.4600000000000026</v>
       </c>
       <c r="K129" t="n">
-        <v>-74.99999999999959</v>
+        <v>-100</v>
       </c>
       <c r="L129" t="n">
         <v>3.289999999999996</v>
@@ -6786,7 +6786,7 @@
         <v>0.4600000000000026</v>
       </c>
       <c r="K130" t="n">
-        <v>-74.99999999999959</v>
+        <v>-100</v>
       </c>
       <c r="L130" t="n">
         <v>3.283999999999996</v>
@@ -6939,7 +6939,7 @@
         <v>0.4800000000000026</v>
       </c>
       <c r="K133" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>3.272999999999996</v>
@@ -6990,7 +6990,7 @@
         <v>0.4900000000000029</v>
       </c>
       <c r="K134" t="n">
-        <v>-33.333333333333</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L134" t="n">
         <v>3.271999999999996</v>
@@ -7041,7 +7041,7 @@
         <v>0.4900000000000029</v>
       </c>
       <c r="K135" t="n">
-        <v>-33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>3.270999999999996</v>
@@ -7092,7 +7092,7 @@
         <v>0.5100000000000029</v>
       </c>
       <c r="K136" t="n">
-        <v>-45.45454545454516</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L136" t="n">
         <v>3.268999999999997</v>
@@ -7143,7 +7143,7 @@
         <v>0.5100000000000029</v>
       </c>
       <c r="K137" t="n">
-        <v>-45.45454545454516</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L137" t="n">
         <v>3.269999999999997</v>
@@ -7194,7 +7194,7 @@
         <v>0.5300000000000029</v>
       </c>
       <c r="K138" t="n">
-        <v>-23.07692307692287</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L138" t="n">
         <v>3.272999999999997</v>
@@ -7245,7 +7245,7 @@
         <v>0.5300000000000029</v>
       </c>
       <c r="K139" t="n">
-        <v>-23.07692307692287</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L139" t="n">
         <v>3.275999999999998</v>
@@ -7296,7 +7296,7 @@
         <v>0.5500000000000029</v>
       </c>
       <c r="K140" t="n">
-        <v>-33.33333333333314</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L140" t="n">
         <v>3.276999999999998</v>
@@ -7347,7 +7347,7 @@
         <v>0.5700000000000029</v>
       </c>
       <c r="K141" t="n">
-        <v>-12.49999999999996</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L141" t="n">
         <v>3.279999999999998</v>
@@ -7398,7 +7398,7 @@
         <v>0.5800000000000032</v>
       </c>
       <c r="K142" t="n">
-        <v>-12.49999999999996</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>3.281999999999999</v>
@@ -7449,7 +7449,7 @@
         <v>0.590000000000003</v>
       </c>
       <c r="K143" t="n">
-        <v>-17.64705882352926</v>
+        <v>-20</v>
       </c>
       <c r="L143" t="n">
         <v>3.280999999999999</v>
@@ -7500,7 +7500,7 @@
         <v>0.590000000000003</v>
       </c>
       <c r="K144" t="n">
-        <v>-17.64705882352926</v>
+        <v>-20</v>
       </c>
       <c r="L144" t="n">
         <v>3.278999999999999</v>
@@ -7551,7 +7551,7 @@
         <v>0.630000000000003</v>
       </c>
       <c r="K145" t="n">
-        <v>4.761904761904863</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>3.281</v>
@@ -7602,7 +7602,7 @@
         <v>0.650000000000003</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L146" t="n">
         <v>3.282999999999999</v>
@@ -7653,7 +7653,7 @@
         <v>0.650000000000003</v>
       </c>
       <c r="K147" t="n">
-        <v>15.78947368421063</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>3.284999999999999</v>
@@ -7704,7 +7704,7 @@
         <v>0.670000000000003</v>
       </c>
       <c r="K148" t="n">
-        <v>23.80952380952389</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L148" t="n">
         <v>3.286999999999999</v>
@@ -7755,7 +7755,7 @@
         <v>0.6900000000000031</v>
       </c>
       <c r="K149" t="n">
-        <v>30.43478260869572</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L149" t="n">
         <v>3.290999999999999</v>
@@ -7806,7 +7806,7 @@
         <v>0.6900000000000031</v>
       </c>
       <c r="K150" t="n">
-        <v>30.43478260869572</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>3.296999999999998</v>
@@ -7857,7 +7857,7 @@
         <v>0.7000000000000033</v>
       </c>
       <c r="K151" t="n">
-        <v>24.99999999999995</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>3.299999999999998</v>
@@ -7908,7 +7908,7 @@
         <v>0.7100000000000035</v>
       </c>
       <c r="K152" t="n">
-        <v>28.00000000000001</v>
+        <v>49.99999999999982</v>
       </c>
       <c r="L152" t="n">
         <v>3.304999999999998</v>
@@ -7959,7 +7959,7 @@
         <v>0.7300000000000035</v>
       </c>
       <c r="K153" t="n">
-        <v>28.00000000000001</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L153" t="n">
         <v>3.312999999999998</v>
@@ -8010,7 +8010,7 @@
         <v>0.7400000000000033</v>
       </c>
       <c r="K154" t="n">
-        <v>27.99999999999989</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L154" t="n">
         <v>3.321999999999998</v>
@@ -8061,7 +8061,7 @@
         <v>0.7400000000000033</v>
       </c>
       <c r="K155" t="n">
-        <v>27.99999999999989</v>
+        <v>77.77777777777733</v>
       </c>
       <c r="L155" t="n">
         <v>3.326999999999997</v>
@@ -8112,7 +8112,7 @@
         <v>0.7400000000000033</v>
       </c>
       <c r="K156" t="n">
-        <v>39.13043478260856</v>
+        <v>77.77777777777733</v>
       </c>
       <c r="L156" t="n">
         <v>3.333999999999997</v>
@@ -8163,7 +8163,7 @@
         <v>0.7500000000000036</v>
       </c>
       <c r="K157" t="n">
-        <v>41.66666666666659</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L157" t="n">
         <v>3.341999999999997</v>
@@ -8214,7 +8214,7 @@
         <v>0.7700000000000036</v>
       </c>
       <c r="K158" t="n">
-        <v>41.66666666666659</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L158" t="n">
         <v>3.349999999999997</v>
@@ -8265,7 +8265,7 @@
         <v>0.7700000000000036</v>
       </c>
       <c r="K159" t="n">
-        <v>41.66666666666659</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L159" t="n">
         <v>3.355999999999997</v>
@@ -8316,7 +8316,7 @@
         <v>0.7700000000000036</v>
       </c>
       <c r="K160" t="n">
-        <v>54.54545454545443</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>3.361999999999997</v>
@@ -8367,7 +8367,7 @@
         <v>0.8400000000000034</v>
       </c>
       <c r="K161" t="n">
-        <v>62.96296296296283</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>3.375999999999998</v>
@@ -8418,7 +8418,7 @@
         <v>0.8700000000000037</v>
       </c>
       <c r="K162" t="n">
-        <v>72.4137931034483</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
         <v>3.391999999999998</v>
@@ -8469,7 +8469,7 @@
         <v>0.8900000000000037</v>
       </c>
       <c r="K163" t="n">
-        <v>66.66666666666656</v>
+        <v>73.33333333333337</v>
       </c>
       <c r="L163" t="n">
         <v>3.403999999999998</v>
@@ -8520,7 +8520,7 @@
         <v>0.9100000000000037</v>
       </c>
       <c r="K164" t="n">
-        <v>68.7499999999999</v>
+        <v>76.47058823529414</v>
       </c>
       <c r="L164" t="n">
         <v>3.416999999999998</v>
@@ -8571,7 +8571,7 @@
         <v>0.9200000000000039</v>
       </c>
       <c r="K165" t="n">
-        <v>58.6206896551722</v>
+        <v>66.6666666666665</v>
       </c>
       <c r="L165" t="n">
         <v>3.428999999999998</v>
@@ -8622,7 +8622,7 @@
         <v>0.9300000000000037</v>
       </c>
       <c r="K166" t="n">
-        <v>64.28571428571418</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L166" t="n">
         <v>3.439999999999998</v>
@@ -8673,7 +8673,7 @@
         <v>0.9300000000000037</v>
       </c>
       <c r="K167" t="n">
-        <v>64.28571428571418</v>
+        <v>50</v>
       </c>
       <c r="L167" t="n">
         <v>3.449999999999998</v>
@@ -8724,7 +8724,7 @@
         <v>0.9400000000000035</v>
       </c>
       <c r="K168" t="n">
-        <v>62.96296296296283</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L168" t="n">
         <v>3.458999999999997</v>
@@ -8775,7 +8775,7 @@
         <v>0.9400000000000035</v>
       </c>
       <c r="K169" t="n">
-        <v>59.99999999999985</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L169" t="n">
         <v>3.467999999999997</v>
@@ -8826,7 +8826,7 @@
         <v>0.9500000000000037</v>
       </c>
       <c r="K170" t="n">
-        <v>61.53846153846143</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L170" t="n">
         <v>3.477999999999997</v>
@@ -8877,7 +8877,7 @@
         <v>0.9500000000000037</v>
       </c>
       <c r="K171" t="n">
-        <v>68.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>3.480999999999997</v>
@@ -8928,7 +8928,7 @@
         <v>0.9700000000000033</v>
       </c>
       <c r="K172" t="n">
-        <v>69.23076923076917</v>
+        <v>49.99999999999972</v>
       </c>
       <c r="L172" t="n">
         <v>3.482999999999997</v>
@@ -8979,7 +8979,7 @@
         <v>1.000000000000004</v>
       </c>
       <c r="K173" t="n">
-        <v>70.37037037037035</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L173" t="n">
         <v>3.489999999999997</v>
@@ -9030,7 +9030,7 @@
         <v>1.010000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>70.37037037037035</v>
+        <v>77.77777777777811</v>
       </c>
       <c r="L174" t="n">
         <v>3.495999999999996</v>
@@ -9081,7 +9081,7 @@
         <v>1.090000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>77.14285714285712</v>
+        <v>100</v>
       </c>
       <c r="L175" t="n">
         <v>3.510999999999997</v>
@@ -9132,7 +9132,7 @@
         <v>1.220000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>29.1666666666667</v>
+        <v>10.34482758620684</v>
       </c>
       <c r="L176" t="n">
         <v>3.513999999999997</v>
@@ -9183,7 +9183,7 @@
         <v>1.390000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>46.87499999999999</v>
+        <v>42.22222222222224</v>
       </c>
       <c r="L177" t="n">
         <v>3.533999999999998</v>
@@ -9234,7 +9234,7 @@
         <v>1.450000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>32.35294117647057</v>
+        <v>25.49019607843136</v>
       </c>
       <c r="L178" t="n">
         <v>3.546999999999998</v>
@@ -9285,7 +9285,7 @@
         <v>1.580000000000004</v>
       </c>
       <c r="K179" t="n">
-        <v>43.20987654320989</v>
+        <v>39.68253968253969</v>
       </c>
       <c r="L179" t="n">
         <v>3.572999999999998</v>
@@ -9336,7 +9336,7 @@
         <v>1.580000000000004</v>
       </c>
       <c r="K180" t="n">
-        <v>43.20987654320989</v>
+        <v>39.68253968253969</v>
       </c>
       <c r="L180" t="n">
         <v>3.597999999999998</v>
@@ -9387,7 +9387,7 @@
         <v>1.740000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>48.88888888888889</v>
+        <v>50.64935064935067</v>
       </c>
       <c r="L181" t="n">
         <v>3.638999999999998</v>
@@ -9438,7 +9438,7 @@
         <v>1.840000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>31.95876288659791</v>
+        <v>30.95238095238093</v>
       </c>
       <c r="L182" t="n">
         <v>3.667999999999998</v>
@@ -9489,7 +9489,7 @@
         <v>2.060000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>47.00854700854698</v>
+        <v>44.76190476190474</v>
       </c>
       <c r="L183" t="n">
         <v>3.715999999999998</v>
@@ -9540,7 +9540,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>30.23255813953488</v>
+        <v>22.52252252252253</v>
       </c>
       <c r="L184" t="n">
         <v>3.748999999999998</v>
@@ -9591,7 +9591,7 @@
         <v>2.330000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>37.58865248226952</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L185" t="n">
         <v>3.786999999999998</v>
@@ -9642,7 +9642,7 @@
         <v>2.540000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>20.49689440993788</v>
+        <v>11.30434782608695</v>
       </c>
       <c r="L186" t="n">
         <v>3.816999999999998</v>
@@ -9693,7 +9693,7 @@
         <v>2.610000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>23.80952380952381</v>
+        <v>22.4137931034483</v>
       </c>
       <c r="L187" t="n">
         <v>3.836999999999997</v>
@@ -9744,7 +9744,7 @@
         <v>2.730000000000003</v>
       </c>
       <c r="K188" t="n">
-        <v>28.49162011173186</v>
+        <v>21.73913043478262</v>
       </c>
       <c r="L188" t="n">
         <v>3.874999999999997</v>
@@ -9795,7 +9795,7 @@
         <v>2.780000000000003</v>
       </c>
       <c r="K189" t="n">
-        <v>30.43478260869567</v>
+        <v>25</v>
       </c>
       <c r="L189" t="n">
         <v>3.904999999999997</v>
@@ -9846,7 +9846,7 @@
         <v>2.880000000000003</v>
       </c>
       <c r="K190" t="n">
-        <v>33.67875647668393</v>
+        <v>21.05263157894736</v>
       </c>
       <c r="L190" t="n">
         <v>3.944999999999997</v>
@@ -9897,7 +9897,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K191" t="n">
-        <v>32.30769230769233</v>
+        <v>30.18867924528308</v>
       </c>
       <c r="L191" t="n">
         <v>3.966999999999997</v>
@@ -9948,7 +9948,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K192" t="n">
-        <v>31.60621761658035</v>
+        <v>11.90476190476198</v>
       </c>
       <c r="L192" t="n">
         <v>3.998999999999997</v>
@@ -9999,7 +9999,7 @@
         <v>2.950000000000002</v>
       </c>
       <c r="K193" t="n">
-        <v>32.30769230769233</v>
+        <v>38.66666666666671</v>
       </c>
       <c r="L193" t="n">
         <v>4.013999999999998</v>
@@ -10050,7 +10050,7 @@
         <v>3.000000000000002</v>
       </c>
       <c r="K194" t="n">
-        <v>28.64321608040204</v>
+        <v>16.41791044776127</v>
       </c>
       <c r="L194" t="n">
         <v>4.037999999999997</v>
@@ -10101,7 +10101,7 @@
         <v>3.000000000000002</v>
       </c>
       <c r="K195" t="n">
-        <v>25.65445026178014</v>
+        <v>69.56521739130454</v>
       </c>
       <c r="L195" t="n">
         <v>4.048999999999997</v>
@@ -10152,7 +10152,7 @@
         <v>3.050000000000002</v>
       </c>
       <c r="K196" t="n">
-        <v>31.1475409836066</v>
+        <v>45.45454545454564</v>
       </c>
       <c r="L196" t="n">
         <v>4.075999999999997</v>
@@ -10203,7 +10203,7 @@
         <v>3.170000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>15.73033707865171</v>
+        <v>-9.090909090909127</v>
       </c>
       <c r="L197" t="n">
         <v>4.083999999999998</v>
@@ -10254,7 +10254,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>27.36842105263161</v>
+        <v>15.78947368421054</v>
       </c>
       <c r="L198" t="n">
         <v>4.097999999999997</v>
@@ -10305,7 +10305,7 @@
         <v>3.390000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>19.33701657458564</v>
+        <v>-9.803921568627437</v>
       </c>
       <c r="L199" t="n">
         <v>4.102999999999998</v>
@@ -10356,7 +10356,7 @@
         <v>3.500000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>12.5</v>
+        <v>-23.33333333333339</v>
       </c>
       <c r="L200" t="n">
         <v>4.086999999999998</v>
@@ -10407,7 +10407,7 @@
         <v>3.550000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>7.182320441988976</v>
+        <v>-13.84615384615384</v>
       </c>
       <c r="L201" t="n">
         <v>4.077999999999998</v>
@@ -10458,7 +10458,7 @@
         <v>3.550000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>13.45029239766086</v>
+        <v>-23.33333333333329</v>
       </c>
       <c r="L202" t="n">
         <v>4.068999999999998</v>
@@ -10509,7 +10509,7 @@
         <v>3.570000000000002</v>
       </c>
       <c r="K203" t="n">
-        <v>-0.6622516556291255</v>
+        <v>-19.29824561403514</v>
       </c>
       <c r="L203" t="n">
         <v>4.052999999999998</v>
@@ -10560,7 +10560,7 @@
         <v>3.580000000000002</v>
       </c>
       <c r="K204" t="n">
-        <v>8.695652173913057</v>
+        <v>-20.68965517241381</v>
       </c>
       <c r="L204" t="n">
         <v>4.040999999999999</v>
@@ -10611,7 +10611,7 @@
         <v>3.680000000000002</v>
       </c>
       <c r="K205" t="n">
-        <v>-8.148148148148143</v>
+        <v>-26.98412698412703</v>
       </c>
       <c r="L205" t="n">
         <v>4.018999999999998</v>
@@ -10662,7 +10662,7 @@
         <v>3.750000000000002</v>
       </c>
       <c r="K206" t="n">
-        <v>14.04958677685954</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L206" t="n">
         <v>4.008999999999999</v>
@@ -10713,7 +10713,7 @@
         <v>3.750000000000002</v>
       </c>
       <c r="K207" t="n">
-        <v>8.771929824561417</v>
+        <v>-39.99999999999984</v>
       </c>
       <c r="L207" t="n">
         <v>4.010999999999997</v>
@@ -10764,7 +10764,7 @@
         <v>3.760000000000002</v>
       </c>
       <c r="K208" t="n">
-        <v>-2.912621359223327</v>
+        <v>-35.13513513513501</v>
       </c>
       <c r="L208" t="n">
         <v>3.993999999999998</v>
@@ -10815,7 +10815,7 @@
         <v>3.770000000000002</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.090909090909083</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L209" t="n">
         <v>3.979999999999998</v>
@@ -10866,7 +10866,7 @@
         <v>3.780000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>-19.99999999999998</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L210" t="n">
         <v>3.977999999999999</v>
@@ -10917,7 +10917,7 @@
         <v>3.800000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>-15.55555555555557</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L211" t="n">
         <v>3.972999999999998</v>
@@ -10968,7 +10968,7 @@
         <v>3.830000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>-18.27956989247312</v>
+        <v>-23.07692307692295</v>
       </c>
       <c r="L212" t="n">
         <v>3.964999999999999</v>
@@ -11019,7 +11019,7 @@
         <v>3.870000000000002</v>
       </c>
       <c r="K213" t="n">
-        <v>-19.56521739130432</v>
+        <v>-3.448275862068892</v>
       </c>
       <c r="L213" t="n">
         <v>3.962999999999999</v>
@@ -11070,7 +11070,7 @@
         <v>3.870000000000002</v>
       </c>
       <c r="K214" t="n">
-        <v>-14.94252873563217</v>
+        <v>47.36842105263175</v>
       </c>
       <c r="L214" t="n">
         <v>3.961999999999999</v>
@@ -11121,7 +11121,7 @@
         <v>3.900000000000002</v>
       </c>
       <c r="K215" t="n">
-        <v>-17.77777777777779</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L215" t="n">
         <v>3.967999999999999</v>
@@ -11172,7 +11172,7 @@
         <v>3.960000000000002</v>
       </c>
       <c r="K216" t="n">
-        <v>-5.494505494505572</v>
+        <v>23.80952380952357</v>
       </c>
       <c r="L216" t="n">
         <v>3.972999999999999</v>
@@ -11223,7 +11223,7 @@
         <v>3.970000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>10</v>
+        <v>33.33333333333348</v>
       </c>
       <c r="L217" t="n">
         <v>3.978999999999999</v>
@@ -11274,7 +11274,7 @@
         <v>4.060000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>-1.40845070422532</v>
+        <v>58.62068965517238</v>
       </c>
       <c r="L218" t="n">
         <v>3.994999999999999</v>
@@ -11325,7 +11325,7 @@
         <v>4.080000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>7.246376811594173</v>
+        <v>59.99999999999994</v>
       </c>
       <c r="L219" t="n">
         <v>4.013999999999998</v>
@@ -11376,7 +11376,7 @@
         <v>4.080000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>27.58620689655164</v>
+        <v>57.14285714285707</v>
       </c>
       <c r="L220" t="n">
         <v>4.031999999999998</v>
@@ -11427,7 +11427,7 @@
         <v>4.110000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>14.28571428571431</v>
+        <v>57.14285714285733</v>
       </c>
       <c r="L221" t="n">
         <v>4.044999999999999</v>
@@ -11478,7 +11478,7 @@
         <v>4.120000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>15.78947368421052</v>
+        <v>52.00000000000015</v>
       </c>
       <c r="L222" t="n">
         <v>4.061999999999999</v>
@@ -11529,7 +11529,7 @@
         <v>4.150000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>24.13793103448289</v>
+        <v>57.14285714285733</v>
       </c>
       <c r="L223" t="n">
         <v>4.077999999999998</v>
@@ -11580,7 +11580,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>41.66666666666671</v>
+        <v>85.00000000000027</v>
       </c>
       <c r="L224" t="n">
         <v>4.108999999999997</v>
@@ -11631,7 +11631,7 @@
         <v>4.31</v>
       </c>
       <c r="K225" t="n">
-        <v>61.90476190476206</v>
+        <v>77.14285714285755</v>
       </c>
       <c r="L225" t="n">
         <v>4.141999999999998</v>
@@ -11682,7 +11682,7 @@
         <v>4.32</v>
       </c>
       <c r="K226" t="n">
-        <v>57.8947368421054</v>
+        <v>77.14285714285749</v>
       </c>
       <c r="L226" t="n">
         <v>4.169999999999997</v>
@@ -11733,7 +11733,7 @@
         <v>4.34</v>
       </c>
       <c r="K227" t="n">
-        <v>52.54237288135614</v>
+        <v>57.14285714285769</v>
       </c>
       <c r="L227" t="n">
         <v>4.194999999999998</v>
@@ -11784,7 +11784,7 @@
         <v>4.34</v>
       </c>
       <c r="K228" t="n">
-        <v>55.17241379310375</v>
+        <v>53.84615384615448</v>
       </c>
       <c r="L228" t="n">
         <v>4.210999999999998</v>
@@ -11835,7 +11835,7 @@
         <v>4.34</v>
       </c>
       <c r="K229" t="n">
-        <v>57.89473684210552</v>
+        <v>53.84615384615448</v>
       </c>
       <c r="L229" t="n">
         <v>4.224999999999998</v>
@@ -11886,7 +11886,7 @@
         <v>4.36</v>
       </c>
       <c r="K230" t="n">
-        <v>51.7241379310346</v>
+        <v>60</v>
       </c>
       <c r="L230" t="n">
         <v>4.236999999999997</v>
@@ -11937,7 +11937,7 @@
         <v>4.4</v>
       </c>
       <c r="K231" t="n">
-        <v>53.33333333333346</v>
+        <v>64.28571428571433</v>
       </c>
       <c r="L231" t="n">
         <v>4.255999999999998</v>
@@ -11988,7 +11988,7 @@
         <v>4.4</v>
       </c>
       <c r="K232" t="n">
-        <v>61.40350877192993</v>
+        <v>60</v>
       </c>
       <c r="L232" t="n">
         <v>4.273999999999997</v>
@@ -12039,7 +12039,7 @@
         <v>4.430000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>60.71428571428583</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L233" t="n">
         <v>4.291999999999997</v>
@@ -12090,7 +12090,7 @@
         <v>4.44</v>
       </c>
       <c r="K234" t="n">
-        <v>61.40350877192993</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L234" t="n">
         <v>4.295999999999998</v>
@@ -12141,7 +12141,7 @@
         <v>4.53</v>
       </c>
       <c r="K235" t="n">
-        <v>74.60317460317478</v>
+        <v>61.90476190476186</v>
       </c>
       <c r="L235" t="n">
         <v>4.309999999999998</v>
@@ -12192,7 +12192,7 @@
         <v>4.61</v>
       </c>
       <c r="K236" t="n">
-        <v>50.76923076923089</v>
+        <v>25.92592592592566</v>
       </c>
       <c r="L236" t="n">
         <v>4.314999999999999</v>
@@ -12243,7 +12243,7 @@
         <v>4.640000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>52.23880597014935</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L237" t="n">
         <v>4.324999999999998</v>
@@ -12294,7 +12294,7 @@
         <v>4.760000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>20</v>
+        <v>-4.761904761904863</v>
       </c>
       <c r="L238" t="n">
         <v>4.322999999999999</v>
@@ -12345,7 +12345,7 @@
         <v>4.840000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>26.31578947368427</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L239" t="n">
         <v>4.328999999999998</v>
@@ -12396,7 +12396,7 @@
         <v>4.99</v>
       </c>
       <c r="K240" t="n">
-        <v>5.494505494505582</v>
+        <v>-18.64406779661008</v>
       </c>
       <c r="L240" t="n">
         <v>4.321999999999997</v>
@@ -12447,7 +12447,7 @@
         <v>4.99</v>
       </c>
       <c r="K241" t="n">
-        <v>9.090909090909109</v>
+        <v>-18.64406779661008</v>
       </c>
       <c r="L241" t="n">
         <v>4.310999999999998</v>
@@ -12498,7 +12498,7 @@
         <v>4.99</v>
       </c>
       <c r="K242" t="n">
-        <v>8.045977011494292</v>
+        <v>-24.99999999999996</v>
       </c>
       <c r="L242" t="n">
         <v>4.299999999999998</v>
@@ -12549,7 +12549,7 @@
         <v>5.03</v>
       </c>
       <c r="K243" t="n">
-        <v>9.090909090909109</v>
+        <v>-18.64406779661008</v>
       </c>
       <c r="L243" t="n">
         <v>4.289999999999997</v>
@@ -12600,7 +12600,7 @@
         <v>5.080000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>-15.38461538461539</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L244" t="n">
         <v>4.273999999999998</v>
@@ -12651,7 +12651,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>-16.45569620253163</v>
+        <v>-38.77551020408151</v>
       </c>
       <c r="L245" t="n">
         <v>4.246999999999998</v>
@@ -12702,7 +12702,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>-17.9487179487179</v>
+        <v>-47.82608695652169</v>
       </c>
       <c r="L246" t="n">
         <v>4.227999999999998</v>
@@ -12753,7 +12753,7 @@
         <v>5.12</v>
       </c>
       <c r="K247" t="n">
-        <v>-12.82051282051289</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L247" t="n">
         <v>4.207999999999998</v>
@@ -12804,7 +12804,7 @@
         <v>5.18</v>
       </c>
       <c r="K248" t="n">
-        <v>-19.04761904761907</v>
+        <v>-64.7058823529413</v>
       </c>
       <c r="L248" t="n">
         <v>4.193999999999997</v>
@@ -12855,7 +12855,7 @@
         <v>5.29</v>
       </c>
       <c r="K249" t="n">
-        <v>-28.42105263157899</v>
+        <v>-60.00000000000024</v>
       </c>
       <c r="L249" t="n">
         <v>4.160999999999997</v>
@@ -12906,7 +12906,7 @@
         <v>5.390000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>-14.56310679611645</v>
+        <v>-20</v>
       </c>
       <c r="L250" t="n">
         <v>4.152999999999997</v>
@@ -12957,7 +12957,7 @@
         <v>5.400000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>-20</v>
+        <v>-21.95121951219525</v>
       </c>
       <c r="L251" t="n">
         <v>4.143999999999997</v>
@@ -13008,7 +13008,7 @@
         <v>5.400000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>-20</v>
+        <v>-35.13513513513525</v>
       </c>
       <c r="L252" t="n">
         <v>4.134999999999998</v>
@@ -13059,7 +13059,7 @@
         <v>5.500000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>-30.8411214953271</v>
+        <v>-42.8571428571428</v>
       </c>
       <c r="L253" t="n">
         <v>4.111999999999997</v>
@@ -13110,7 +13110,7 @@
         <v>5.56</v>
       </c>
       <c r="K254" t="n">
-        <v>-25.00000000000002</v>
+        <v>-21.73913043478273</v>
       </c>
       <c r="L254" t="n">
         <v>4.099999999999998</v>
@@ -13161,7 +13161,7 @@
         <v>5.56</v>
       </c>
       <c r="K255" t="n">
-        <v>-35.92233009708738</v>
+        <v>-21.73913043478273</v>
       </c>
       <c r="L255" t="n">
         <v>4.089999999999998</v>
@@ -13263,7 +13263,7 @@
         <v>5.620000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>-34.69387755102038</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L257" t="n">
         <v>4.061999999999998</v>
@@ -13314,7 +13314,7 @@
         <v>5.670000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>-29.67032967032962</v>
+        <v>-5.263157894736719</v>
       </c>
       <c r="L258" t="n">
         <v>4.048999999999998</v>
@@ -13365,7 +13365,7 @@
         <v>5.74</v>
       </c>
       <c r="K259" t="n">
-        <v>-31.11111111111116</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L259" t="n">
         <v>4.053999999999998</v>
@@ -13416,7 +13416,7 @@
         <v>5.830000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.62790697674436</v>
       </c>
       <c r="L260" t="n">
         <v>4.057999999999998</v>
@@ -13467,7 +13467,7 @@
         <v>5.830000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.62790697674436</v>
       </c>
       <c r="L261" t="n">
         <v>4.062999999999998</v>
@@ -13518,7 +13518,7 @@
         <v>5.850000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>-6.97674418604656</v>
+        <v>37.14285714285705</v>
       </c>
       <c r="L262" t="n">
         <v>4.065999999999998</v>
@@ -13569,7 +13569,7 @@
         <v>5.850000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>-12.19512195121956</v>
+        <v>24.13793103448278</v>
       </c>
       <c r="L263" t="n">
         <v>4.078999999999999</v>
@@ -13620,7 +13620,7 @@
         <v>5.860000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-7.69230769230764</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L264" t="n">
         <v>4.084999999999998</v>
@@ -13671,7 +13671,7 @@
         <v>5.900000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-10</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L265" t="n">
         <v>4.086999999999998</v>
@@ -13722,7 +13722,7 @@
         <v>5.900000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>-10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L266" t="n">
         <v>4.092999999999998</v>
@@ -13773,7 +13773,7 @@
         <v>5.930000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>-8.641975308641886</v>
+        <v>46.15384615384608</v>
       </c>
       <c r="L267" t="n">
         <v>4.099999999999998</v>
@@ -13824,7 +13824,7 @@
         <v>5.960000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>-5.12820512820512</v>
+        <v>9.090909090909239</v>
       </c>
       <c r="L268" t="n">
         <v>4.108999999999997</v>
@@ -13875,7 +13875,7 @@
         <v>5.980000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>13.04347826086952</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L269" t="n">
         <v>4.112999999999998</v>
@@ -13926,7 +13926,7 @@
         <v>6.050000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>9.090909090909017</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L270" t="n">
         <v>4.114999999999998</v>
@@ -13977,7 +13977,7 @@
         <v>6.060000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>9.090909090909165</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L271" t="n">
         <v>4.115999999999998</v>
@@ -14028,7 +14028,7 @@
         <v>6.070000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>10.44776119402989</v>
+        <v>18.18181818181822</v>
       </c>
       <c r="L272" t="n">
         <v>4.119999999999997</v>
@@ -14079,7 +14079,7 @@
         <v>6.070000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>29.82456140350874</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L273" t="n">
         <v>4.123999999999997</v>
@@ -14130,7 +14130,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>6.896551724137925</v>
+        <v>8.333333333333147</v>
       </c>
       <c r="L274" t="n">
         <v>4.121999999999998</v>
@@ -14181,7 +14181,7 @@
         <v>6.150000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>5.0847457627119</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L275" t="n">
         <v>4.122999999999998</v>
@@ -14232,7 +14232,7 @@
         <v>6.150000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>12.72727272727276</v>
+        <v>-9.09090909090931</v>
       </c>
       <c r="L276" t="n">
         <v>4.123999999999998</v>
@@ -14283,7 +14283,7 @@
         <v>6.190000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>1.754385964912242</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L277" t="n">
         <v>4.117999999999998</v>
@@ -14334,7 +14334,7 @@
         <v>6.260000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-1.694915254237325</v>
+        <v>-42.8571428571427</v>
       </c>
       <c r="L278" t="n">
         <v>4.107999999999998</v>
@@ -14385,7 +14385,7 @@
         <v>6.290000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>-19.99999999999987</v>
+        <v>-91.66666666666681</v>
       </c>
       <c r="L279" t="n">
         <v>4.092999999999998</v>
@@ -14436,7 +14436,7 @@
         <v>6.290000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-43.47826086956526</v>
+        <v>-91.30434782608712</v>
       </c>
       <c r="L280" t="n">
         <v>4.070999999999998</v>
@@ -14487,7 +14487,7 @@
         <v>6.330000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>-48.00000000000004</v>
+        <v>-100</v>
       </c>
       <c r="L281" t="n">
         <v>4.045999999999998</v>
@@ -14538,7 +14538,7 @@
         <v>6.380000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>-50.94339622641516</v>
+        <v>-100.0000000000001</v>
       </c>
       <c r="L282" t="n">
         <v>4.014999999999998</v>
@@ -14589,7 +14589,7 @@
         <v>6.420000000000001</v>
       </c>
       <c r="K283" t="n">
-        <v>-40.3508771929825</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L283" t="n">
         <v>3.987999999999997</v>
@@ -14640,7 +14640,7 @@
         <v>6.440000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>-41.37931034482762</v>
+        <v>-72.41379310344826</v>
       </c>
       <c r="L284" t="n">
         <v>3.965999999999998</v>
@@ -14691,7 +14691,7 @@
         <v>6.440000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>-37.03703703703707</v>
+        <v>-72.41379310344826</v>
       </c>
       <c r="L285" t="n">
         <v>3.944999999999998</v>
@@ -14742,7 +14742,7 @@
         <v>6.450000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>-38.18181818181819</v>
+        <v>-69.23076923076917</v>
       </c>
       <c r="L286" t="n">
         <v>3.922999999999997</v>
@@ -14793,7 +14793,7 @@
         <v>6.550000000000001</v>
       </c>
       <c r="K287" t="n">
-        <v>-54.83870967741947</v>
+        <v>-72.41379310344847</v>
       </c>
       <c r="L287" t="n">
         <v>3.894999999999998</v>
@@ -14844,7 +14844,7 @@
         <v>6.550000000000001</v>
       </c>
       <c r="K288" t="n">
-        <v>-52.54237288135604</v>
+        <v>-69.23076923076935</v>
       </c>
       <c r="L288" t="n">
         <v>3.873999999999999</v>
@@ -14895,7 +14895,7 @@
         <v>6.57</v>
       </c>
       <c r="K289" t="n">
-        <v>-52.54237288135596</v>
+        <v>-57.14285714285733</v>
       </c>
       <c r="L289" t="n">
         <v>3.857999999999998</v>
@@ -14946,7 +14946,7 @@
         <v>6.61</v>
       </c>
       <c r="K290" t="n">
-        <v>-75.00000000000016</v>
+        <v>-57.14285714285733</v>
       </c>
       <c r="L290" t="n">
         <v>3.837999999999998</v>
@@ -14997,7 +14997,7 @@
         <v>6.630000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>-75.43859649122818</v>
+        <v>-51.99999999999996</v>
       </c>
       <c r="L291" t="n">
         <v>3.819999999999998</v>
@@ -15048,7 +15048,7 @@
         <v>6.65</v>
       </c>
       <c r="K292" t="n">
-        <v>-79.31034482758631</v>
+        <v>-82.60869565217406</v>
       </c>
       <c r="L292" t="n">
         <v>3.804999999999997</v>
@@ -15099,7 +15099,7 @@
         <v>6.69</v>
       </c>
       <c r="K293" t="n">
-        <v>-67.74193548387105</v>
+        <v>-52.00000000000015</v>
       </c>
       <c r="L293" t="n">
         <v>3.789999999999998</v>
@@ -15150,7 +15150,7 @@
         <v>6.720000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>-55.1724137931035</v>
+        <v>-35.71428571428583</v>
       </c>
       <c r="L294" t="n">
         <v>3.779999999999998</v>
@@ -15201,7 +15201,7 @@
         <v>6.73</v>
       </c>
       <c r="K295" t="n">
-        <v>-55.1724137931035</v>
+        <v>-35.71428571428583</v>
       </c>
       <c r="L295" t="n">
         <v>3.768999999999997</v>
@@ -15252,7 +15252,7 @@
         <v>6.74</v>
       </c>
       <c r="K296" t="n">
-        <v>-52.54237288135604</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L296" t="n">
         <v>3.759999999999998</v>
@@ -15303,7 +15303,7 @@
         <v>6.76</v>
       </c>
       <c r="K297" t="n">
-        <v>-43.85964912280713</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L297" t="n">
         <v>3.762999999999997</v>
@@ -15354,7 +15354,7 @@
         <v>6.8</v>
       </c>
       <c r="K298" t="n">
-        <v>-25.92592592592603</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L298" t="n">
         <v>3.769999999999997</v>
@@ -15405,7 +15405,7 @@
         <v>6.84</v>
       </c>
       <c r="K299" t="n">
-        <v>-27.27272727272739</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L299" t="n">
         <v>3.770999999999996</v>
@@ -15456,7 +15456,7 @@
         <v>6.84</v>
       </c>
       <c r="K300" t="n">
-        <v>-27.27272727272739</v>
+        <v>33.33333333333341</v>
       </c>
       <c r="L300" t="n">
         <v>3.775999999999996</v>
@@ -15507,7 +15507,7 @@
         <v>6.89</v>
       </c>
       <c r="K301" t="n">
-        <v>-28.57142857142867</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L301" t="n">
         <v>3.777999999999996</v>
@@ -15558,7 +15558,7 @@
         <v>6.93</v>
       </c>
       <c r="K302" t="n">
-        <v>-12.72727272727272</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L302" t="n">
         <v>3.785999999999996</v>
@@ -15609,7 +15609,7 @@
         <v>6.97</v>
       </c>
       <c r="K303" t="n">
-        <v>-27.27272727272731</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L303" t="n">
         <v>3.785999999999996</v>
@@ -15660,7 +15660,7 @@
         <v>7.01</v>
       </c>
       <c r="K304" t="n">
-        <v>-15.78947368421054</v>
+        <v>7.142857142857166</v>
       </c>
       <c r="L304" t="n">
         <v>3.786999999999996</v>
@@ -15711,7 +15711,7 @@
         <v>7.01</v>
       </c>
       <c r="K305" t="n">
-        <v>-15.78947368421054</v>
+        <v>3.703703703703795</v>
       </c>
       <c r="L305" t="n">
         <v>3.788999999999996</v>
@@ -15762,7 +15762,7 @@
         <v>7.01</v>
       </c>
       <c r="K306" t="n">
-        <v>-14.28571428571433</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L306" t="n">
         <v>3.789999999999996</v>
@@ -15813,7 +15813,7 @@
         <v>7.01</v>
       </c>
       <c r="K307" t="n">
-        <v>4.347826086956534</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L307" t="n">
         <v>3.788999999999996</v>
@@ -15864,7 +15864,7 @@
         <v>7.05</v>
       </c>
       <c r="K308" t="n">
-        <v>-4.000000000000011</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L308" t="n">
         <v>3.779999999999995</v>
@@ -15915,7 +15915,7 @@
         <v>7.06</v>
       </c>
       <c r="K309" t="n">
-        <v>-10.20408163265304</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L309" t="n">
         <v>3.773999999999996</v>
@@ -15966,7 +15966,7 @@
         <v>7.08</v>
       </c>
       <c r="K310" t="n">
-        <v>-6.382978723404217</v>
+        <v>-15.78947368421039</v>
       </c>
       <c r="L310" t="n">
         <v>3.765999999999996</v>
@@ -16017,7 +16017,7 @@
         <v>7.1</v>
       </c>
       <c r="K311" t="n">
-        <v>2.12765957446814</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L311" t="n">
         <v>3.764999999999996</v>
@@ -16068,7 +16068,7 @@
         <v>7.1</v>
       </c>
       <c r="K312" t="n">
-        <v>6.666666666666732</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L312" t="n">
         <v>3.759999999999997</v>
@@ -16119,7 +16119,7 @@
         <v>7.1</v>
       </c>
       <c r="K313" t="n">
-        <v>-2.439024390243855</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L313" t="n">
         <v>3.758999999999997</v>
@@ -16170,7 +16170,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>-12.82051282051281</v>
+        <v>-60.00000000000026</v>
       </c>
       <c r="L314" t="n">
         <v>3.752999999999997</v>
@@ -16221,7 +16221,7 @@
         <v>7.129999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>-5.000000000000022</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L315" t="n">
         <v>3.748999999999997</v>
@@ -16272,7 +16272,7 @@
         <v>7.149999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>-12.19512195121952</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L316" t="n">
         <v>3.742999999999996</v>
@@ -16323,7 +16323,7 @@
         <v>7.159999999999998</v>
       </c>
       <c r="K317" t="n">
-        <v>-14.99999999999996</v>
+        <v>-9.090909090909017</v>
       </c>
       <c r="L317" t="n">
         <v>3.737999999999997</v>
@@ -16374,7 +16374,7 @@
         <v>7.169999999999998</v>
       </c>
       <c r="K318" t="n">
-        <v>-24.32432432432439</v>
+        <v>9.090909090909017</v>
       </c>
       <c r="L318" t="n">
         <v>3.737999999999997</v>
@@ -16425,7 +16425,7 @@
         <v>7.209999999999998</v>
       </c>
       <c r="K319" t="n">
-        <v>-24.32432432432439</v>
+        <v>-7.692307692307981</v>
       </c>
       <c r="L319" t="n">
         <v>3.734999999999997</v>
@@ -16476,7 +16476,7 @@
         <v>7.209999999999998</v>
       </c>
       <c r="K320" t="n">
-        <v>-24.32432432432439</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L320" t="n">
         <v>3.733999999999997</v>
@@ -16527,7 +16527,7 @@
         <v>7.229999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>-17.64705882352948</v>
+        <v>-38.46153846153896</v>
       </c>
       <c r="L321" t="n">
         <v>3.728999999999997</v>
@@ -16578,7 +16578,7 @@
         <v>7.229999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>-33.33333333333348</v>
+        <v>-38.46153846153896</v>
       </c>
       <c r="L322" t="n">
         <v>3.723999999999996</v>
@@ -16629,7 +16629,7 @@
         <v>7.239999999999998</v>
       </c>
       <c r="K323" t="n">
-        <v>-18.51851851851854</v>
+        <v>-23.0769230769231</v>
       </c>
       <c r="L323" t="n">
         <v>3.719999999999996</v>
@@ -16680,7 +16680,7 @@
         <v>7.279999999999998</v>
       </c>
       <c r="K324" t="n">
-        <v>-18.51851851851854</v>
+        <v>-6.666666666666549</v>
       </c>
       <c r="L324" t="n">
         <v>3.720999999999997</v>
@@ -16731,7 +16731,7 @@
         <v>7.279999999999998</v>
       </c>
       <c r="K325" t="n">
-        <v>-18.51851851851854</v>
+        <v>7.692307692307876</v>
       </c>
       <c r="L325" t="n">
         <v>3.719999999999997</v>
@@ -16782,7 +16782,7 @@
         <v>7.289999999999998</v>
       </c>
       <c r="K326" t="n">
-        <v>-14.28571428571438</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L326" t="n">
         <v>3.721999999999997</v>
@@ -16833,7 +16833,7 @@
         <v>7.289999999999998</v>
       </c>
       <c r="K327" t="n">
-        <v>-14.28571428571438</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>3.722999999999997</v>
@@ -16884,7 +16884,7 @@
         <v>7.289999999999998</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L328" t="n">
         <v>3.722999999999997</v>
@@ -16935,7 +16935,7 @@
         <v>7.289999999999998</v>
       </c>
       <c r="K329" t="n">
-        <v>4.347826086956454</v>
+        <v>50</v>
       </c>
       <c r="L329" t="n">
         <v>3.726999999999997</v>
@@ -16986,7 +16986,7 @@
         <v>7.299999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>9.090909090909182</v>
+        <v>71.42857142857243</v>
       </c>
       <c r="L330" t="n">
         <v>3.729999999999997</v>
@@ -17037,7 +17037,7 @@
         <v>7.309999999999998</v>
       </c>
       <c r="K331" t="n">
-        <v>4.761904761904701</v>
+        <v>75.00000000000084</v>
       </c>
       <c r="L331" t="n">
         <v>3.735999999999997</v>
@@ -17088,7 +17088,7 @@
         <v>7.329999999999998</v>
       </c>
       <c r="K332" t="n">
-        <v>-4.347826086956648</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L332" t="n">
         <v>3.739999999999997</v>
@@ -17139,7 +17139,7 @@
         <v>7.369999999999998</v>
       </c>
       <c r="K333" t="n">
-        <v>-18.51851851851871</v>
+        <v>-55.55555555555593</v>
       </c>
       <c r="L333" t="n">
         <v>3.738999999999996</v>
@@ -17190,7 +17190,7 @@
         <v>7.389999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>-7.142857142857166</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L334" t="n">
         <v>3.735999999999996</v>
@@ -17241,7 +17241,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>-11.11111111111106</v>
+        <v>-27.27272727272701</v>
       </c>
       <c r="L335" t="n">
         <v>3.733999999999996</v>
@@ -17292,7 +17292,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>-3.999999999999915</v>
+        <v>-27.27272727272701</v>
       </c>
       <c r="L336" t="n">
         <v>3.730999999999996</v>
@@ -17343,7 +17343,7 @@
         <v>7.409999999999998</v>
       </c>
       <c r="K337" t="n">
-        <v>-4.000000000000092</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L337" t="n">
         <v>3.728999999999996</v>
@@ -17394,7 +17394,7 @@
         <v>7.449999999999998</v>
       </c>
       <c r="K338" t="n">
-        <v>-21.42857142857143</v>
+        <v>-37.5</v>
       </c>
       <c r="L338" t="n">
         <v>3.722999999999995</v>
@@ -17445,7 +17445,7 @@
         <v>7.479999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>3.703703703703783</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L339" t="n">
         <v>3.719999999999995</v>
@@ -17496,7 +17496,7 @@
         <v>7.479999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>3.703703703703783</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L340" t="n">
         <v>3.717999999999995</v>
@@ -17547,7 +17547,7 @@
         <v>7.489999999999998</v>
       </c>
       <c r="K341" t="n">
-        <v>7.692307692307705</v>
+        <v>-12.5</v>
       </c>
       <c r="L341" t="n">
         <v>3.713999999999995</v>
@@ -17598,7 +17598,7 @@
         <v>7.499999999999998</v>
       </c>
       <c r="K342" t="n">
-        <v>11.11111111111122</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L342" t="n">
         <v>3.712999999999995</v>
@@ -17649,7 +17649,7 @@
         <v>7.509999999999998</v>
       </c>
       <c r="K343" t="n">
-        <v>3.70370370370363</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>3.714999999999995</v>
@@ -17700,7 +17700,7 @@
         <v>7.549999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>3.70370370370363</v>
+        <v>19.99999999999994</v>
       </c>
       <c r="L344" t="n">
         <v>3.718999999999995</v>
@@ -17751,7 +17751,7 @@
         <v>7.559999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>7.142857142857006</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L345" t="n">
         <v>3.722999999999995</v>
@@ -17802,7 +17802,7 @@
         <v>7.579999999999997</v>
       </c>
       <c r="K346" t="n">
-        <v>-3.448275862068902</v>
+        <v>5.88235294117664</v>
       </c>
       <c r="L346" t="n">
         <v>3.724999999999996</v>
@@ -17853,7 +17853,7 @@
         <v>7.589999999999997</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L347" t="n">
         <v>3.726999999999996</v>
@@ -17904,7 +17904,7 @@
         <v>7.589999999999997</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>27.27272727272745</v>
       </c>
       <c r="L348" t="n">
         <v>3.732999999999996</v>
@@ -17955,7 +17955,7 @@
         <v>7.589999999999997</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>27.27272727272745</v>
       </c>
       <c r="L349" t="n">
         <v>3.735999999999996</v>
@@ -18006,7 +18006,7 @@
         <v>7.589999999999997</v>
       </c>
       <c r="K350" t="n">
-        <v>3.448275862068902</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L350" t="n">
         <v>3.738999999999996</v>
@@ -18057,7 +18057,7 @@
         <v>7.609999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>-6.666666666666677</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L351" t="n">
         <v>3.740999999999996</v>
@@ -18108,7 +18108,7 @@
         <v>7.629999999999997</v>
       </c>
       <c r="K352" t="n">
-        <v>6.666666666666695</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L352" t="n">
         <v>3.743999999999996</v>
@@ -18159,7 +18159,7 @@
         <v>7.639999999999997</v>
       </c>
       <c r="K353" t="n">
-        <v>18.51851851851871</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L353" t="n">
         <v>3.746999999999996</v>
@@ -18210,7 +18210,7 @@
         <v>7.639999999999997</v>
       </c>
       <c r="K354" t="n">
-        <v>12.00000000000018</v>
+        <v>-24.99999999999972</v>
       </c>
       <c r="L354" t="n">
         <v>3.745999999999996</v>
@@ -18261,7 +18261,7 @@
         <v>7.699999999999998</v>
       </c>
       <c r="K355" t="n">
-        <v>-13.33333333333339</v>
+        <v>-50</v>
       </c>
       <c r="L355" t="n">
         <v>3.737999999999997</v>
@@ -18312,7 +18312,7 @@
         <v>7.719999999999997</v>
       </c>
       <c r="K356" t="n">
-        <v>-6.250000000000035</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L356" t="n">
         <v>3.733999999999997</v>
@@ -18363,7 +18363,7 @@
         <v>7.749999999999996</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>-12.50000000000007</v>
       </c>
       <c r="L357" t="n">
         <v>3.731999999999997</v>
@@ -18414,7 +18414,7 @@
         <v>7.789999999999996</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L358" t="n">
         <v>3.725999999999996</v>
@@ -18465,7 +18465,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K359" t="n">
-        <v>-6.250000000000035</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L359" t="n">
         <v>3.720999999999997</v>
@@ -18516,7 +18516,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K360" t="n">
-        <v>-6.250000000000035</v>
+        <v>-15.78947368421046</v>
       </c>
       <c r="L360" t="n">
         <v>3.715999999999997</v>
@@ -18567,7 +18567,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K361" t="n">
-        <v>-3.225806451612848</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L361" t="n">
         <v>3.712999999999997</v>
@@ -18618,7 +18618,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>-6.666666666666695</v>
+        <v>-25</v>
       </c>
       <c r="L362" t="n">
         <v>3.707999999999998</v>
@@ -18669,7 +18669,7 @@
         <v>7.809999999999997</v>
       </c>
       <c r="K363" t="n">
-        <v>-6.666666666666695</v>
+        <v>-29.41176470588252</v>
       </c>
       <c r="L363" t="n">
         <v>3.702999999999997</v>
@@ -18720,7 +18720,7 @@
         <v>7.839999999999997</v>
       </c>
       <c r="K364" t="n">
-        <v>-10.34482758620686</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L364" t="n">
         <v>3.700999999999997</v>
@@ -18771,7 +18771,7 @@
         <v>7.839999999999997</v>
       </c>
       <c r="K365" t="n">
-        <v>-14.28571428571417</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L365" t="n">
         <v>3.704999999999997</v>
@@ -18822,7 +18822,7 @@
         <v>7.869999999999997</v>
       </c>
       <c r="K366" t="n">
-        <v>-17.24137931034492</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L366" t="n">
         <v>3.703999999999996</v>
@@ -18873,7 +18873,7 @@
         <v>7.889999999999997</v>
       </c>
       <c r="K367" t="n">
-        <v>-26.66666666666671</v>
+        <v>-19.99999999999991</v>
       </c>
       <c r="L367" t="n">
         <v>3.697999999999997</v>
@@ -18924,7 +18924,7 @@
         <v>7.959999999999997</v>
       </c>
       <c r="K368" t="n">
-        <v>-40.5405405405405</v>
+        <v>-62.5</v>
       </c>
       <c r="L368" t="n">
         <v>3.688999999999997</v>
@@ -18975,7 +18975,7 @@
         <v>8.029999999999998</v>
       </c>
       <c r="K369" t="n">
-        <v>-18.18181818181818</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L369" t="n">
         <v>3.685999999999997</v>
@@ -19026,7 +19026,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K370" t="n">
-        <v>-29.4117647058823</v>
+        <v>-33.33333333333328</v>
       </c>
       <c r="L370" t="n">
         <v>3.675999999999997</v>
@@ -19077,7 +19077,7 @@
         <v>8.159999999999998</v>
       </c>
       <c r="K371" t="n">
-        <v>-12.72727272727268</v>
+        <v>-11.11111111111108</v>
       </c>
       <c r="L371" t="n">
         <v>3.671999999999997</v>
@@ -19128,7 +19128,7 @@
         <v>8.189999999999998</v>
       </c>
       <c r="K372" t="n">
-        <v>-21.42857142857143</v>
+        <v>-15.78947368421051</v>
       </c>
       <c r="L372" t="n">
         <v>3.664999999999997</v>
@@ -19179,7 +19179,7 @@
         <v>8.209999999999997</v>
       </c>
       <c r="K373" t="n">
-        <v>-22.8070175438597</v>
+        <v>-29.72972972972981</v>
       </c>
       <c r="L373" t="n">
         <v>3.656999999999997</v>
@@ -19230,7 +19230,7 @@
         <v>8.269999999999998</v>
       </c>
       <c r="K374" t="n">
-        <v>-11.11111111111114</v>
+        <v>-11.62790697674423</v>
       </c>
       <c r="L374" t="n">
         <v>3.651999999999997</v>
@@ -19281,7 +19281,7 @@
         <v>8.279999999999998</v>
       </c>
       <c r="K375" t="n">
-        <v>-3.448275862068968</v>
+        <v>-7.317073170731657</v>
       </c>
       <c r="L375" t="n">
         <v>3.645999999999998</v>
@@ -19332,7 +19332,7 @@
         <v>8.309999999999999</v>
       </c>
       <c r="K376" t="n">
-        <v>-11.86440677966103</v>
+        <v>-9.523809523809494</v>
       </c>
       <c r="L376" t="n">
         <v>3.639999999999998</v>
@@ -19383,7 +19383,7 @@
         <v>8.349999999999998</v>
       </c>
       <c r="K377" t="n">
-        <v>-23.3333333333333</v>
+        <v>-2.564102564102619</v>
       </c>
       <c r="L377" t="n">
         <v>3.631999999999998</v>
@@ -19434,7 +19434,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="K378" t="n">
-        <v>-8.196721311475352</v>
+        <v>-8.108108108108034</v>
       </c>
       <c r="L378" t="n">
         <v>3.635999999999998</v>
@@ -19485,7 +19485,7 @@
         <v>8.409999999999998</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.4754098360656</v>
+        <v>9.677419354838632</v>
       </c>
       <c r="L379" t="n">
         <v>3.631999999999998</v>
@@ -19536,7 +19536,7 @@
         <v>8.429999999999998</v>
       </c>
       <c r="K380" t="n">
-        <v>-7.93650793650797</v>
+        <v>-3.703703703703795</v>
       </c>
       <c r="L380" t="n">
         <v>3.636999999999998</v>
@@ -19587,7 +19587,7 @@
         <v>8.479999999999997</v>
       </c>
       <c r="K381" t="n">
-        <v>-14.7058823529412</v>
+        <v>-10.34482758620686</v>
       </c>
       <c r="L381" t="n">
         <v>3.630999999999998</v>
@@ -19638,7 +19638,7 @@
         <v>8.499999999999996</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.42857142857145</v>
+        <v>3.448275862069055</v>
       </c>
       <c r="L382" t="n">
         <v>3.629999999999997</v>
@@ -19689,7 +19689,7 @@
         <v>8.509999999999996</v>
       </c>
       <c r="K383" t="n">
-        <v>-11.42857142857145</v>
+        <v>-25.00000000000018</v>
       </c>
       <c r="L383" t="n">
         <v>3.629999999999997</v>
@@ -19740,7 +19740,7 @@
         <v>8.529999999999996</v>
       </c>
       <c r="K384" t="n">
-        <v>-13.04347826086963</v>
+        <v>-12.00000000000018</v>
       </c>
       <c r="L384" t="n">
         <v>3.625999999999997</v>
@@ -19791,7 +19791,7 @@
         <v>8.579999999999995</v>
       </c>
       <c r="K385" t="n">
-        <v>-18.918918918919</v>
+        <v>-18.51851851851873</v>
       </c>
       <c r="L385" t="n">
         <v>3.617999999999996</v>
@@ -19842,7 +19842,7 @@
         <v>8.579999999999995</v>
       </c>
       <c r="K386" t="n">
-        <v>-15.49295774647891</v>
+        <v>-4.347826086956489</v>
       </c>
       <c r="L386" t="n">
         <v>3.612999999999996</v>
@@ -19893,7 +19893,7 @@
         <v>8.599999999999994</v>
       </c>
       <c r="K387" t="n">
-        <v>-9.85915492957748</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L387" t="n">
         <v>3.613999999999996</v>
@@ -19944,7 +19944,7 @@
         <v>8.609999999999994</v>
       </c>
       <c r="K388" t="n">
-        <v>1.538461538461513</v>
+        <v>-10.00000000000022</v>
       </c>
       <c r="L388" t="n">
         <v>3.610999999999996</v>
@@ -19995,7 +19995,7 @@
         <v>8.609999999999994</v>
       </c>
       <c r="K389" t="n">
-        <v>-10.34482758620697</v>
+        <v>-22.22222222222272</v>
       </c>
       <c r="L389" t="n">
         <v>3.608999999999996</v>
@@ -20046,7 +20046,7 @@
         <v>8.609999999999994</v>
       </c>
       <c r="K390" t="n">
-        <v>1.960784313725463</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L390" t="n">
         <v>3.604999999999996</v>
@@ -20097,7 +20097,7 @@
         <v>8.609999999999994</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.11111111111128</v>
+        <v>-9.090909090909495</v>
       </c>
       <c r="L391" t="n">
         <v>3.605999999999995</v>
@@ -20148,7 +20148,7 @@
         <v>8.609999999999994</v>
       </c>
       <c r="K392" t="n">
-        <v>-4.761904761904807</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>3.604999999999996</v>
@@ -20199,7 +20199,7 @@
         <v>8.619999999999994</v>
       </c>
       <c r="K393" t="n">
-        <v>-2.43902439024387</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L393" t="n">
         <v>3.603999999999996</v>
@@ -20250,7 +20250,7 @@
         <v>8.649999999999993</v>
       </c>
       <c r="K394" t="n">
-        <v>-10.52631578947382</v>
+        <v>71.4285714285727</v>
       </c>
       <c r="L394" t="n">
         <v>3.603999999999996</v>
@@ -20301,7 +20301,7 @@
         <v>8.699999999999992</v>
       </c>
       <c r="K395" t="n">
-        <v>-19.04761904761931</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>3.603999999999996</v>
@@ -20352,7 +20352,7 @@
         <v>8.729999999999992</v>
       </c>
       <c r="K396" t="n">
-        <v>-4.761904761904848</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L396" t="n">
         <v>3.606999999999996</v>
@@ -20403,7 +20403,7 @@
         <v>8.739999999999991</v>
       </c>
       <c r="K397" t="n">
-        <v>7.692307692307885</v>
+        <v>7.692307692308034</v>
       </c>
       <c r="L397" t="n">
         <v>3.608999999999996</v>
@@ -20454,7 +20454,7 @@
         <v>8.739999999999991</v>
       </c>
       <c r="K398" t="n">
-        <v>-5.882352941176601</v>
+        <v>7.692307692308034</v>
       </c>
       <c r="L398" t="n">
         <v>3.609999999999995</v>
@@ -20505,7 +20505,7 @@
         <v>8.77999999999999</v>
       </c>
       <c r="K399" t="n">
-        <v>8.108108108108349</v>
+        <v>29.41176470588314</v>
       </c>
       <c r="L399" t="n">
         <v>3.614999999999995</v>
@@ -20556,7 +20556,7 @@
         <v>8.81999999999999</v>
       </c>
       <c r="K400" t="n">
-        <v>12.82051282051316</v>
+        <v>42.85714285714391</v>
       </c>
       <c r="L400" t="n">
         <v>3.623999999999995</v>
@@ -20607,7 +20607,7 @@
         <v>8.86999999999999</v>
       </c>
       <c r="K401" t="n">
-        <v>38.46153846153909</v>
+        <v>53.84615384615468</v>
       </c>
       <c r="L401" t="n">
         <v>3.637999999999995</v>
@@ -20658,7 +20658,7 @@
         <v>8.89999999999999</v>
       </c>
       <c r="K402" t="n">
-        <v>25.00000000000044</v>
+        <v>42.85714285714354</v>
       </c>
       <c r="L402" t="n">
         <v>3.648999999999995</v>
@@ -20709,7 +20709,7 @@
         <v>8.909999999999989</v>
       </c>
       <c r="K403" t="n">
-        <v>25.00000000000044</v>
+        <v>30.76923076923124</v>
       </c>
       <c r="L403" t="n">
         <v>3.659999999999995</v>
@@ -20760,7 +20760,7 @@
         <v>8.909999999999989</v>
       </c>
       <c r="K404" t="n">
-        <v>21.05263157894774</v>
+        <v>61.90476190476265</v>
       </c>
       <c r="L404" t="n">
         <v>3.667999999999995</v>
@@ -20811,7 +20811,7 @@
         <v>8.949999999999989</v>
       </c>
       <c r="K405" t="n">
-        <v>45.94594594594669</v>
+        <v>63.63636363636454</v>
       </c>
       <c r="L405" t="n">
         <v>3.684999999999995</v>
@@ -20862,7 +20862,7 @@
         <v>8.949999999999989</v>
       </c>
       <c r="K406" t="n">
-        <v>45.94594594594669</v>
+        <v>61.90476190476265</v>
       </c>
       <c r="L406" t="n">
         <v>3.698999999999995</v>
@@ -20913,7 +20913,7 @@
         <v>8.969999999999988</v>
       </c>
       <c r="K407" t="n">
-        <v>45.94594594594669</v>
+        <v>65.21739130434867</v>
       </c>
       <c r="L407" t="n">
         <v>3.713999999999996</v>
@@ -20964,7 +20964,7 @@
         <v>8.989999999999988</v>
       </c>
       <c r="K408" t="n">
-        <v>36.84210526315854</v>
+        <v>42.85714285714334</v>
       </c>
       <c r="L408" t="n">
         <v>3.726999999999996</v>
@@ -21015,7 +21015,7 @@
         <v>9.039999999999988</v>
       </c>
       <c r="K409" t="n">
-        <v>44.18604651162848</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L409" t="n">
         <v>3.740999999999995</v>
@@ -21066,7 +21066,7 @@
         <v>9.089999999999989</v>
       </c>
       <c r="K410" t="n">
-        <v>50.00000000000055</v>
+        <v>45.45454545454573</v>
       </c>
       <c r="L410" t="n">
         <v>3.755999999999995</v>
@@ -21117,7 +21117,7 @@
         <v>9.099999999999989</v>
       </c>
       <c r="K411" t="n">
-        <v>51.02040816326584</v>
+        <v>70.00000000000009</v>
       </c>
       <c r="L411" t="n">
         <v>3.766999999999995</v>
@@ -21168,7 +21168,7 @@
         <v>9.129999999999988</v>
       </c>
       <c r="K412" t="n">
-        <v>53.84615384615449</v>
+        <v>81.81818181818231</v>
       </c>
       <c r="L412" t="n">
         <v>3.783999999999995</v>
@@ -21219,7 +21219,7 @@
         <v>9.129999999999988</v>
       </c>
       <c r="K413" t="n">
-        <v>56.86274509803984</v>
+        <v>81.81818181818231</v>
       </c>
       <c r="L413" t="n">
         <v>3.801999999999995</v>
@@ -21270,7 +21270,7 @@
         <v>9.159999999999988</v>
       </c>
       <c r="K414" t="n">
-        <v>56.86274509803984</v>
+        <v>80.95238095238128</v>
       </c>
       <c r="L414" t="n">
         <v>3.822999999999996</v>
@@ -21321,7 +21321,7 @@
         <v>9.179999999999987</v>
       </c>
       <c r="K415" t="n">
-        <v>66.66666666666731</v>
+        <v>65.21739130434817</v>
       </c>
       <c r="L415" t="n">
         <v>3.837999999999995</v>
@@ -21372,7 +21372,7 @@
         <v>9.249999999999988</v>
       </c>
       <c r="K416" t="n">
-        <v>42.30769230769267</v>
+        <v>21.4285714285715</v>
       </c>
       <c r="L416" t="n">
         <v>3.845999999999995</v>
@@ -21423,7 +21423,7 @@
         <v>9.289999999999988</v>
       </c>
       <c r="K417" t="n">
-        <v>30.90909090909106</v>
+        <v>13.33333333333331</v>
       </c>
       <c r="L417" t="n">
         <v>3.847999999999995</v>
@@ -21474,7 +21474,7 @@
         <v>9.309999999999988</v>
       </c>
       <c r="K418" t="n">
-        <v>26.31578947368435</v>
+        <v>-11.11111111111106</v>
       </c>
       <c r="L418" t="n">
         <v>3.849999999999995</v>
@@ -21525,7 +21525,7 @@
         <v>9.339999999999987</v>
       </c>
       <c r="K419" t="n">
-        <v>14.28571428571438</v>
+        <v>-44.00000000000026</v>
       </c>
       <c r="L419" t="n">
         <v>3.843999999999995</v>
@@ -21576,7 +21576,7 @@
         <v>9.349999999999987</v>
       </c>
       <c r="K420" t="n">
-        <v>5.660377358490555</v>
+        <v>-52.00000000000033</v>
       </c>
       <c r="L420" t="n">
         <v>3.831999999999995</v>
@@ -21627,7 +21627,7 @@
         <v>9.399999999999988</v>
       </c>
       <c r="K421" t="n">
-        <v>5.660377358490555</v>
+        <v>-40.74074074074092</v>
       </c>
       <c r="L421" t="n">
         <v>3.823999999999995</v>
@@ -21678,7 +21678,7 @@
         <v>9.429999999999987</v>
       </c>
       <c r="K422" t="n">
-        <v>5.660377358490555</v>
+        <v>-46.66666666666687</v>
       </c>
       <c r="L422" t="n">
         <v>3.809999999999995</v>
@@ -21729,7 +21729,7 @@
         <v>9.439999999999987</v>
       </c>
       <c r="K423" t="n">
-        <v>5.660377358490639</v>
+        <v>-64.28571428571433</v>
       </c>
       <c r="L423" t="n">
         <v>3.794999999999995</v>
@@ -21780,7 +21780,7 @@
         <v>9.439999999999987</v>
       </c>
       <c r="K424" t="n">
-        <v>5.660377358490639</v>
+        <v>-61.53846153846148</v>
       </c>
       <c r="L424" t="n">
         <v>3.776999999999995</v>
@@ -21831,7 +21831,7 @@
         <v>9.439999999999987</v>
       </c>
       <c r="K425" t="n">
-        <v>-2.040816326530575</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L425" t="n">
         <v>3.760999999999996</v>
@@ -21882,7 +21882,7 @@
         <v>9.459999999999987</v>
       </c>
       <c r="K426" t="n">
-        <v>1.960784313725456</v>
+        <v>-17.64705882352975</v>
       </c>
       <c r="L426" t="n">
         <v>3.753999999999996</v>
@@ -21984,7 +21984,7 @@
         <v>9.469999999999986</v>
       </c>
       <c r="K428" t="n">
-        <v>4.166666666666682</v>
+        <v>23.0769230769231</v>
       </c>
       <c r="L428" t="n">
         <v>3.751999999999996</v>
@@ -22035,7 +22035,7 @@
         <v>9.479999999999986</v>
       </c>
       <c r="K429" t="n">
-        <v>-9.090909090909145</v>
+        <v>23.0769230769231</v>
       </c>
       <c r="L429" t="n">
         <v>3.753999999999996</v>
@@ -22086,7 +22086,7 @@
         <v>9.509999999999987</v>
       </c>
       <c r="K430" t="n">
-        <v>-14.28571428571436</v>
+        <v>9.090909090909348</v>
       </c>
       <c r="L430" t="n">
         <v>3.759999999999996</v>
@@ -22137,7 +22137,7 @@
         <v>9.539999999999988</v>
       </c>
       <c r="K431" t="n">
-        <v>-22.72727272727277</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L431" t="n">
         <v>3.757999999999996</v>
@@ -22188,7 +22188,7 @@
         <v>9.539999999999988</v>
       </c>
       <c r="K432" t="n">
-        <v>-31.70731707317081</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L432" t="n">
         <v>3.758999999999995</v>
@@ -22239,7 +22239,7 @@
         <v>9.549999999999988</v>
       </c>
       <c r="K433" t="n">
-        <v>-28.5714285714286</v>
+        <v>27.27272727272679</v>
       </c>
       <c r="L433" t="n">
         <v>3.761999999999996</v>
@@ -22290,7 +22290,7 @@
         <v>9.549999999999988</v>
       </c>
       <c r="K434" t="n">
-        <v>-38.46153846153838</v>
+        <v>27.27272727272679</v>
       </c>
       <c r="L434" t="n">
         <v>3.764999999999996</v>
@@ -22341,7 +22341,7 @@
         <v>9.559999999999988</v>
       </c>
       <c r="K435" t="n">
-        <v>-36.84210526315785</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>3.766999999999995</v>
@@ -22392,7 +22392,7 @@
         <v>9.569999999999988</v>
       </c>
       <c r="K436" t="n">
-        <v>-18.75</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>3.767999999999996</v>
@@ -22443,7 +22443,7 @@
         <v>9.579999999999988</v>
       </c>
       <c r="K437" t="n">
-        <v>-10.34482758620701</v>
+        <v>-9.0909090909092</v>
       </c>
       <c r="L437" t="n">
         <v>3.766999999999995</v>
@@ -22494,7 +22494,7 @@
         <v>9.609999999999987</v>
       </c>
       <c r="K438" t="n">
-        <v>-13.33333333333339</v>
+        <v>-23.07692307692279</v>
       </c>
       <c r="L438" t="n">
         <v>3.762999999999995</v>
@@ -22545,7 +22545,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K439" t="n">
-        <v>-7.142857142857166</v>
+        <v>-63.63636363636382</v>
       </c>
       <c r="L439" t="n">
         <v>3.758999999999995</v>
@@ -22596,7 +22596,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K440" t="n">
-        <v>-3.70370370370363</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L440" t="n">
         <v>3.751999999999994</v>
@@ -22647,7 +22647,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K441" t="n">
-        <v>-27.27272727272724</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L441" t="n">
         <v>3.747999999999995</v>
@@ -22698,7 +22698,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K442" t="n">
-        <v>-15.78947368421046</v>
+        <v>-71.4285714285727</v>
       </c>
       <c r="L442" t="n">
         <v>3.743999999999995</v>
@@ -22749,7 +22749,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K443" t="n">
-        <v>-11.11111111111114</v>
+        <v>-71.4285714285727</v>
       </c>
       <c r="L443" t="n">
         <v>3.738999999999995</v>
@@ -22800,7 +22800,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K444" t="n">
-        <v>-11.11111111111114</v>
+        <v>-66.66666666666741</v>
       </c>
       <c r="L444" t="n">
         <v>3.733999999999994</v>
@@ -22851,7 +22851,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K445" t="n">
-        <v>-11.11111111111114</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L445" t="n">
         <v>3.729999999999994</v>
@@ -22902,7 +22902,7 @@
         <v>9.619999999999987</v>
       </c>
       <c r="K446" t="n">
-        <v>-24.99999999999972</v>
+        <v>-100.0000000000011</v>
       </c>
       <c r="L446" t="n">
         <v>3.724999999999993</v>
@@ -22953,7 +22953,7 @@
         <v>9.639999999999986</v>
       </c>
       <c r="K447" t="n">
-        <v>-41.17647058823522</v>
+        <v>-100.0000000000015</v>
       </c>
       <c r="L447" t="n">
         <v>3.718999999999994</v>
@@ -23004,7 +23004,7 @@
         <v>9.639999999999986</v>
       </c>
       <c r="K448" t="n">
-        <v>-41.17647058823522</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L448" t="n">
         <v>3.715999999999995</v>
@@ -23055,7 +23055,7 @@
         <v>9.679999999999986</v>
       </c>
       <c r="K449" t="n">
-        <v>-50</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L449" t="n">
         <v>3.709999999999995</v>
@@ -23106,7 +23106,7 @@
         <v>9.679999999999986</v>
       </c>
       <c r="K450" t="n">
-        <v>-76.47058823529488</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L450" t="n">
         <v>3.703999999999995</v>
@@ -23157,7 +23157,7 @@
         <v>9.729999999999986</v>
       </c>
       <c r="K451" t="n">
-        <v>-26.31578947368443</v>
+        <v>-9.090909090909348</v>
       </c>
       <c r="L451" t="n">
         <v>3.702999999999995</v>
@@ -23208,7 +23208,7 @@
         <v>9.739999999999986</v>
       </c>
       <c r="K452" t="n">
-        <v>-30.00000000000018</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L452" t="n">
         <v>3.700999999999996</v>
@@ -23259,7 +23259,7 @@
         <v>9.749999999999986</v>
       </c>
       <c r="K453" t="n">
-        <v>-40.00000000000053</v>
+        <v>-23.07692307692345</v>
       </c>
       <c r="L453" t="n">
         <v>3.697999999999996</v>
@@ -23310,7 +23310,7 @@
         <v>9.759999999999986</v>
       </c>
       <c r="K454" t="n">
-        <v>-33.33333333333368</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L454" t="n">
         <v>3.695999999999996</v>
@@ -23361,7 +23361,7 @@
         <v>9.799999999999986</v>
       </c>
       <c r="K455" t="n">
-        <v>-41.66666666666679</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L455" t="n">
         <v>3.689999999999996</v>
@@ -23412,7 +23412,7 @@
         <v>9.819999999999986</v>
       </c>
       <c r="K456" t="n">
-        <v>-52.00000000000033</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L456" t="n">
         <v>3.681999999999996</v>
@@ -23463,7 +23463,7 @@
         <v>9.819999999999986</v>
       </c>
       <c r="K457" t="n">
-        <v>-50.00000000000019</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L457" t="n">
         <v>3.675999999999996</v>
@@ -23514,7 +23514,7 @@
         <v>9.829999999999986</v>
       </c>
       <c r="K458" t="n">
-        <v>-45.45454545454573</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L458" t="n">
         <v>3.668999999999996</v>
@@ -23565,7 +23565,7 @@
         <v>9.839999999999986</v>
       </c>
       <c r="K459" t="n">
-        <v>-36.36363636363658</v>
+        <v>-12.5</v>
       </c>
       <c r="L459" t="n">
         <v>3.666999999999996</v>
@@ -23616,7 +23616,7 @@
         <v>9.849999999999985</v>
       </c>
       <c r="K460" t="n">
-        <v>-30.43478260869595</v>
+        <v>-50.00000000000037</v>
       </c>
       <c r="L460" t="n">
         <v>3.665999999999995</v>
@@ -23667,7 +23667,7 @@
         <v>9.859999999999985</v>
       </c>
       <c r="K461" t="n">
-        <v>-25.00000000000018</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L461" t="n">
         <v>3.660999999999995</v>
@@ -23718,7 +23718,7 @@
         <v>9.859999999999985</v>
       </c>
       <c r="K462" t="n">
-        <v>-25.00000000000018</v>
+        <v>-27.27272727272724</v>
       </c>
       <c r="L462" t="n">
         <v>3.656999999999995</v>
@@ -23769,7 +23769,7 @@
         <v>9.859999999999985</v>
       </c>
       <c r="K463" t="n">
-        <v>-25.00000000000018</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L463" t="n">
         <v>3.653999999999995</v>
@@ -23820,7 +23820,7 @@
         <v>9.869999999999985</v>
       </c>
       <c r="K464" t="n">
-        <v>-28.00000000000031</v>
+        <v>-14.28571428571492</v>
       </c>
       <c r="L464" t="n">
         <v>3.648999999999995</v>
@@ -23871,7 +23871,7 @@
         <v>9.879999999999985</v>
       </c>
       <c r="K465" t="n">
-        <v>-23.07692307692328</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L465" t="n">
         <v>3.648999999999995</v>
@@ -23922,7 +23922,7 @@
         <v>9.889999999999985</v>
       </c>
       <c r="K466" t="n">
-        <v>-18.51851851851877</v>
+        <v>42.85714285714349</v>
       </c>
       <c r="L466" t="n">
         <v>3.651999999999995</v>
@@ -23973,7 +23973,7 @@
         <v>9.889999999999985</v>
       </c>
       <c r="K467" t="n">
-        <v>-12.00000000000018</v>
+        <v>66.66666666666815</v>
       </c>
       <c r="L467" t="n">
         <v>3.654999999999995</v>
@@ -24024,7 +24024,7 @@
         <v>9.889999999999985</v>
       </c>
       <c r="K468" t="n">
-        <v>-12.00000000000018</v>
+        <v>60.00000000000089</v>
       </c>
       <c r="L468" t="n">
         <v>3.658999999999995</v>
@@ -24075,7 +24075,7 @@
         <v>9.889999999999985</v>
       </c>
       <c r="K469" t="n">
-        <v>4.761904761904681</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L469" t="n">
         <v>3.661999999999995</v>
@@ -24126,7 +24126,7 @@
         <v>9.889999999999985</v>
       </c>
       <c r="K470" t="n">
-        <v>4.761904761904681</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L470" t="n">
         <v>3.663999999999996</v>
@@ -24177,7 +24177,7 @@
         <v>9.889999999999985</v>
       </c>
       <c r="K471" t="n">
-        <v>-25.00000000000028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L471" t="n">
         <v>3.664999999999996</v>
@@ -24228,7 +24228,7 @@
         <v>9.899999999999984</v>
       </c>
       <c r="K472" t="n">
-        <v>-25.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>3.664999999999996</v>
@@ -24279,7 +24279,7 @@
         <v>9.909999999999984</v>
       </c>
       <c r="K473" t="n">
-        <v>-25.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>3.663999999999996</v>
@@ -24330,7 +24330,7 @@
         <v>9.919999999999984</v>
       </c>
       <c r="K474" t="n">
-        <v>-25.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>3.664999999999996</v>
@@ -24381,7 +24381,7 @@
         <v>9.919999999999984</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L475" t="n">
         <v>3.664999999999996</v>
@@ -24432,7 +24432,7 @@
         <v>9.949999999999985</v>
       </c>
       <c r="K476" t="n">
-        <v>-7.692307692307929</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L476" t="n">
         <v>3.660999999999996</v>
@@ -24483,7 +24483,7 @@
         <v>9.969999999999985</v>
       </c>
       <c r="K477" t="n">
-        <v>6.666666666666588</v>
+        <v>-25</v>
       </c>
       <c r="L477" t="n">
         <v>3.658999999999996</v>
@@ -24534,7 +24534,7 @@
         <v>9.979999999999984</v>
       </c>
       <c r="K478" t="n">
-        <v>6.666666666666885</v>
+        <v>-33.33333333333317</v>
       </c>
       <c r="L478" t="n">
         <v>3.655999999999996</v>
@@ -24585,7 +24585,7 @@
         <v>9.979999999999984</v>
       </c>
       <c r="K479" t="n">
-        <v>0</v>
+        <v>-33.33333333333317</v>
       </c>
       <c r="L479" t="n">
         <v>3.652999999999996</v>
@@ -24636,7 +24636,7 @@
         <v>9.979999999999984</v>
       </c>
       <c r="K480" t="n">
-        <v>-7.692307692307587</v>
+        <v>-33.33333333333317</v>
       </c>
       <c r="L480" t="n">
         <v>3.649999999999996</v>
@@ -24687,7 +24687,7 @@
         <v>9.979999999999984</v>
       </c>
       <c r="K481" t="n">
-        <v>-16.66666666666679</v>
+        <v>-25</v>
       </c>
       <c r="L481" t="n">
         <v>3.646999999999996</v>
@@ -24738,7 +24738,7 @@
         <v>9.989999999999984</v>
       </c>
       <c r="K482" t="n">
-        <v>-23.07692307692345</v>
+        <v>-25</v>
       </c>
       <c r="L482" t="n">
         <v>3.643999999999996</v>
@@ -24789,7 +24789,7 @@
         <v>9.999999999999984</v>
       </c>
       <c r="K483" t="n">
-        <v>-28.57142857142884</v>
+        <v>-50</v>
       </c>
       <c r="L483" t="n">
         <v>3.640999999999996</v>
@@ -24840,7 +24840,7 @@
         <v>10.02999999999998</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>-9.090909090909348</v>
       </c>
       <c r="L484" t="n">
         <v>3.639999999999995</v>
@@ -24891,7 +24891,7 @@
         <v>10.04999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>-17.64705882352975</v>
+        <v>0</v>
       </c>
       <c r="L485" t="n">
         <v>3.636999999999995</v>
@@ -24942,7 +24942,7 @@
         <v>10.04999999999998</v>
       </c>
       <c r="K486" t="n">
-        <v>-25.00000000000028</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L486" t="n">
         <v>3.636999999999995</v>
@@ -24993,7 +24993,7 @@
         <v>10.07999999999998</v>
       </c>
       <c r="K487" t="n">
-        <v>-5.263157894736744</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L487" t="n">
         <v>3.637999999999995</v>
@@ -25044,7 +25044,7 @@
         <v>10.10999999999999</v>
       </c>
       <c r="K488" t="n">
-        <v>-18.18181818181815</v>
+        <v>-7.692307692307823</v>
       </c>
       <c r="L488" t="n">
         <v>3.636999999999995</v>
@@ -25095,7 +25095,7 @@
         <v>10.13999999999999</v>
       </c>
       <c r="K489" t="n">
-        <v>-3.999999999999886</v>
+        <v>12.49999999999986</v>
       </c>
       <c r="L489" t="n">
         <v>3.638999999999994</v>
@@ -25146,7 +25146,7 @@
         <v>10.16999999999999</v>
       </c>
       <c r="K490" t="n">
-        <v>-14.28571428571415</v>
+        <v>-5.263157894736879</v>
       </c>
       <c r="L490" t="n">
         <v>3.637999999999995</v>
@@ -25197,7 +25197,7 @@
         <v>10.18999999999999</v>
       </c>
       <c r="K491" t="n">
-        <v>-6.666666666666618</v>
+        <v>9.999999999999867</v>
       </c>
       <c r="L491" t="n">
         <v>3.638999999999994</v>
@@ -25248,7 +25248,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K492" t="n">
-        <v>-6.666666666666618</v>
+        <v>9.999999999999867</v>
       </c>
       <c r="L492" t="n">
         <v>3.639999999999994</v>
@@ -25299,7 +25299,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K493" t="n">
-        <v>-3.44827586206886</v>
+        <v>-5.882352941176225</v>
       </c>
       <c r="L493" t="n">
         <v>3.641999999999995</v>
@@ -25350,7 +25350,7 @@
         <v>10.22999999999999</v>
       </c>
       <c r="K494" t="n">
-        <v>-16.12903225806448</v>
+        <v>-11.11111111111092</v>
       </c>
       <c r="L494" t="n">
         <v>3.637999999999995</v>
@@ -25401,7 +25401,7 @@
         <v>10.24999999999999</v>
       </c>
       <c r="K495" t="n">
-        <v>-9.090909090909115</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>3.637999999999995</v>
@@ -25452,7 +25452,7 @@
         <v>10.25999999999999</v>
       </c>
       <c r="K496" t="n">
-        <v>3.225806451612972</v>
+        <v>-11.11111111111103</v>
       </c>
       <c r="L496" t="n">
         <v>3.638999999999994</v>
@@ -25503,7 +25503,7 @@
         <v>10.29999999999999</v>
       </c>
       <c r="K497" t="n">
-        <v>-15.15151515151501</v>
+        <v>-15.78947368421032</v>
       </c>
       <c r="L497" t="n">
         <v>3.632999999999994</v>
@@ -25554,7 +25554,7 @@
         <v>10.32999999999999</v>
       </c>
       <c r="K498" t="n">
-        <v>-2.857142857142911</v>
+        <v>-15.7894736842107</v>
       </c>
       <c r="L498" t="n">
         <v>3.632999999999994</v>
@@ -25605,7 +25605,7 @@
         <v>10.34999999999999</v>
       </c>
       <c r="K499" t="n">
-        <v>2.702702702702638</v>
+        <v>11.11111111111125</v>
       </c>
       <c r="L499" t="n">
         <v>3.631999999999993</v>
@@ -25656,7 +25656,7 @@
         <v>10.35999999999999</v>
       </c>
       <c r="K500" t="n">
-        <v>5.263157894736836</v>
+        <v>5.88235294117667</v>
       </c>
       <c r="L500" t="n">
         <v>3.634999999999993</v>
@@ -25707,7 +25707,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K501" t="n">
-        <v>-4.761904761904767</v>
+        <v>-10.00000000000013</v>
       </c>
       <c r="L501" t="n">
         <v>3.631999999999993</v>
@@ -25758,7 +25758,7 @@
         <v>10.43999999999998</v>
       </c>
       <c r="K502" t="n">
-        <v>6.666666666666732</v>
+        <v>8.333333333333456</v>
       </c>
       <c r="L502" t="n">
         <v>3.633999999999993</v>
@@ -25809,7 +25809,7 @@
         <v>10.43999999999998</v>
       </c>
       <c r="K503" t="n">
-        <v>9.090909090909109</v>
+        <v>23.80952380952424</v>
       </c>
       <c r="L503" t="n">
         <v>3.635999999999993</v>
@@ -25860,7 +25860,7 @@
         <v>10.44999999999998</v>
       </c>
       <c r="K504" t="n">
-        <v>4.761904761904767</v>
+        <v>20.00000000000027</v>
       </c>
       <c r="L504" t="n">
         <v>3.641999999999993</v>
@@ -25911,7 +25911,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K505" t="n">
-        <v>-2.222222222222178</v>
+        <v>-8.333333333333456</v>
       </c>
       <c r="L505" t="n">
         <v>3.640999999999992</v>
@@ -25962,7 +25962,7 @@
         <v>10.51999999999998</v>
       </c>
       <c r="K506" t="n">
-        <v>2.12765957446814</v>
+        <v>18.18181818181858</v>
       </c>
       <c r="L506" t="n">
         <v>3.640999999999992</v>
@@ -26013,7 +26013,7 @@
         <v>10.52999999999998</v>
       </c>
       <c r="K507" t="n">
-        <v>-2.222222222222286</v>
+        <v>10.00000000000022</v>
       </c>
       <c r="L507" t="n">
         <v>3.645999999999992</v>
@@ -26064,7 +26064,7 @@
         <v>10.53999999999998</v>
       </c>
       <c r="K508" t="n">
-        <v>6.976744186046632</v>
+        <v>5.263157894737076</v>
       </c>
       <c r="L508" t="n">
         <v>3.648999999999992</v>
@@ -26166,7 +26166,7 @@
         <v>10.54999999999998</v>
       </c>
       <c r="K510" t="n">
-        <v>10.52631578947387</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L510" t="n">
         <v>3.650999999999992</v>
@@ -26217,7 +26217,7 @@
         <v>10.55999999999998</v>
       </c>
       <c r="K511" t="n">
-        <v>8.10810810810831</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L511" t="n">
         <v>3.656999999999992</v>
@@ -26268,7 +26268,7 @@
         <v>10.55999999999998</v>
       </c>
       <c r="K512" t="n">
-        <v>11.1111111111113</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L512" t="n">
         <v>3.658999999999992</v>
@@ -26319,7 +26319,7 @@
         <v>10.56999999999998</v>
       </c>
       <c r="K513" t="n">
-        <v>13.51351351351369</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L513" t="n">
         <v>3.661999999999992</v>
@@ -26370,7 +26370,7 @@
         <v>10.57999999999998</v>
       </c>
       <c r="K514" t="n">
-        <v>20.00000000000041</v>
+        <v>75.00000000000166</v>
       </c>
       <c r="L514" t="n">
         <v>3.662999999999992</v>
@@ -26421,7 +26421,7 @@
         <v>10.58999999999998</v>
       </c>
       <c r="K515" t="n">
-        <v>17.64705882352971</v>
+        <v>71.4285714285727</v>
       </c>
       <c r="L515" t="n">
         <v>3.669999999999992</v>
@@ -26472,7 +26472,7 @@
         <v>10.60999999999998</v>
       </c>
       <c r="K516" t="n">
-        <v>20.00000000000028</v>
+        <v>75.00000000000166</v>
       </c>
       <c r="L516" t="n">
         <v>3.676999999999992</v>
@@ -26523,7 +26523,7 @@
         <v>10.61999999999998</v>
       </c>
       <c r="K517" t="n">
-        <v>31.25000000000069</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L517" t="n">
         <v>3.681999999999992</v>
@@ -26574,7 +26574,7 @@
         <v>10.64999999999998</v>
       </c>
       <c r="K518" t="n">
-        <v>31.25000000000069</v>
+        <v>63.63636363636485</v>
       </c>
       <c r="L518" t="n">
         <v>3.688999999999992</v>
@@ -26625,7 +26625,7 @@
         <v>10.65999999999998</v>
       </c>
       <c r="K519" t="n">
-        <v>22.5806451612909</v>
+        <v>45.45454545454666</v>
       </c>
       <c r="L519" t="n">
         <v>3.694999999999992</v>
@@ -26676,7 +26676,7 @@
         <v>10.65999999999998</v>
       </c>
       <c r="K520" t="n">
-        <v>20.00000000000044</v>
+        <v>40.00000000000089</v>
       </c>
       <c r="L520" t="n">
         <v>3.699999999999991</v>
@@ -26727,7 +26727,7 @@
         <v>10.67999999999998</v>
       </c>
       <c r="K521" t="n">
-        <v>42.85714285714381</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L521" t="n">
         <v>3.705999999999992</v>
@@ -26778,7 +26778,7 @@
         <v>10.68999999999998</v>
       </c>
       <c r="K522" t="n">
-        <v>28.00000000000054</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L522" t="n">
         <v>3.710999999999991</v>
@@ -26829,7 +26829,7 @@
         <v>10.69999999999998</v>
       </c>
       <c r="K523" t="n">
-        <v>30.76923076923145</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L523" t="n">
         <v>3.715999999999992</v>
@@ -26880,7 +26880,7 @@
         <v>10.71999999999998</v>
       </c>
       <c r="K524" t="n">
-        <v>33.33333333333399</v>
+        <v>53.84615384615488</v>
       </c>
       <c r="L524" t="n">
         <v>3.723999999999992</v>
@@ -26931,7 +26931,7 @@
         <v>10.76999999999998</v>
       </c>
       <c r="K525" t="n">
-        <v>70.37037037037138</v>
+        <v>62.5000000000007</v>
       </c>
       <c r="L525" t="n">
         <v>3.735999999999992</v>
@@ -26982,7 +26982,7 @@
         <v>10.77999999999998</v>
       </c>
       <c r="K526" t="n">
-        <v>61.53846153846232</v>
+        <v>62.50000000000042</v>
       </c>
       <c r="L526" t="n">
         <v>3.744999999999992</v>
@@ -27033,7 +27033,7 @@
         <v>10.77999999999998</v>
       </c>
       <c r="K527" t="n">
-        <v>60.00000000000082</v>
+        <v>53.84615384615413</v>
       </c>
       <c r="L527" t="n">
         <v>3.754999999999991</v>
@@ -27084,7 +27084,7 @@
         <v>10.77999999999998</v>
       </c>
       <c r="K528" t="n">
-        <v>58.33333333333401</v>
+        <v>66.66666666666679</v>
       </c>
       <c r="L528" t="n">
         <v>3.761999999999991</v>
@@ -27135,7 +27135,7 @@
         <v>10.77999999999998</v>
       </c>
       <c r="K529" t="n">
-        <v>58.33333333333401</v>
+        <v>66.66666666666679</v>
       </c>
       <c r="L529" t="n">
         <v>3.769999999999991</v>
@@ -27186,7 +27186,7 @@
         <v>10.83999999999998</v>
       </c>
       <c r="K530" t="n">
-        <v>24.13793103448308</v>
+        <v>0</v>
       </c>
       <c r="L530" t="n">
         <v>3.771999999999991</v>
@@ -27237,7 +27237,7 @@
         <v>10.84999999999998</v>
       </c>
       <c r="K531" t="n">
-        <v>24.13793103448292</v>
+        <v>12.5</v>
       </c>
       <c r="L531" t="n">
         <v>3.772999999999991</v>
@@ -27288,7 +27288,7 @@
         <v>10.85999999999998</v>
       </c>
       <c r="K532" t="n">
-        <v>26.66666666666679</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L532" t="n">
         <v>3.775999999999991</v>
@@ -27339,7 +27339,7 @@
         <v>10.85999999999998</v>
       </c>
       <c r="K533" t="n">
-        <v>24.13793103448292</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>3.777999999999991</v>
@@ -27390,7 +27390,7 @@
         <v>10.87999999999998</v>
       </c>
       <c r="K534" t="n">
-        <v>20.00000000000021</v>
+        <v>-63.63636363636382</v>
       </c>
       <c r="L534" t="n">
         <v>3.775999999999991</v>
@@ -27441,7 +27441,7 @@
         <v>10.87999999999998</v>
       </c>
       <c r="K535" t="n">
-        <v>17.24137931034507</v>
+        <v>-59.99999999999982</v>
       </c>
       <c r="L535" t="n">
         <v>3.768999999999991</v>
@@ -27492,7 +27492,7 @@
         <v>10.91999999999998</v>
       </c>
       <c r="K536" t="n">
-        <v>-3.225806451612866</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L536" t="n">
         <v>3.758999999999992</v>
@@ -27543,7 +27543,7 @@
         <v>10.93999999999998</v>
       </c>
       <c r="K537" t="n">
-        <v>6.250000000000069</v>
+        <v>-50.00000000000028</v>
       </c>
       <c r="L537" t="n">
         <v>3.750999999999992</v>
@@ -27594,7 +27594,7 @@
         <v>10.98999999999998</v>
       </c>
       <c r="K538" t="n">
-        <v>-17.64705882352953</v>
+        <v>-61.90476190476213</v>
       </c>
       <c r="L538" t="n">
         <v>3.737999999999992</v>
@@ -27645,7 +27645,7 @@
         <v>11.02999999999998</v>
       </c>
       <c r="K539" t="n">
-        <v>-2.702702702702784</v>
+        <v>-15.78947368421085</v>
       </c>
       <c r="L539" t="n">
         <v>3.728999999999993</v>
@@ -27696,7 +27696,7 @@
         <v>11.05999999999998</v>
       </c>
       <c r="K540" t="n">
-        <v>-10.00000000000009</v>
+        <v>-33.33333333333368</v>
       </c>
       <c r="L540" t="n">
         <v>3.722999999999993</v>
@@ -27747,7 +27747,7 @@
         <v>11.07999999999998</v>
       </c>
       <c r="K541" t="n">
-        <v>-20.00000000000018</v>
+        <v>-45.45454545454589</v>
       </c>
       <c r="L541" t="n">
         <v>3.713999999999993</v>
@@ -27798,7 +27798,7 @@
         <v>11.08999999999997</v>
       </c>
       <c r="K542" t="n">
-        <v>-20.00000000000018</v>
+        <v>-47.82608695652233</v>
       </c>
       <c r="L542" t="n">
         <v>3.702999999999993</v>
@@ -27849,7 +27849,7 @@
         <v>11.08999999999997</v>
       </c>
       <c r="K543" t="n">
-        <v>-23.07692307692333</v>
+        <v>-42.85714285714356</v>
       </c>
       <c r="L543" t="n">
         <v>3.691999999999993</v>
@@ -27900,7 +27900,7 @@
         <v>11.09999999999997</v>
       </c>
       <c r="K544" t="n">
-        <v>-26.31578947368431</v>
+        <v>-36.36363636363688</v>
       </c>
       <c r="L544" t="n">
         <v>3.683999999999993</v>
@@ -27951,7 +27951,7 @@
         <v>11.10999999999997</v>
       </c>
       <c r="K545" t="n">
-        <v>-41.17647058823578</v>
+        <v>-15.78947368421085</v>
       </c>
       <c r="L545" t="n">
         <v>3.676999999999992</v>
@@ -28002,7 +28002,7 @@
         <v>11.14999999999997</v>
       </c>
       <c r="K546" t="n">
-        <v>-45.94594594594646</v>
+        <v>-42.85714285714356</v>
       </c>
       <c r="L546" t="n">
         <v>3.669999999999992</v>
@@ -28053,7 +28053,7 @@
         <v>11.16999999999997</v>
       </c>
       <c r="K547" t="n">
-        <v>-38.46153846153891</v>
+        <v>-11.11111111111136</v>
       </c>
       <c r="L547" t="n">
         <v>3.662999999999992</v>
@@ -28104,7 +28104,7 @@
         <v>11.16999999999997</v>
       </c>
       <c r="K548" t="n">
-        <v>-38.46153846153891</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L548" t="n">
         <v>3.660999999999992</v>
@@ -28155,7 +28155,7 @@
         <v>11.17999999999997</v>
       </c>
       <c r="K549" t="n">
-        <v>-40.00000000000043</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L549" t="n">
         <v>3.653999999999992</v>
@@ -28206,7 +28206,7 @@
         <v>11.18999999999997</v>
       </c>
       <c r="K550" t="n">
-        <v>-25.71428571428622</v>
+        <v>-9.090909090909495</v>
       </c>
       <c r="L550" t="n">
         <v>3.650999999999992</v>
@@ -28257,7 +28257,7 @@
         <v>11.24999999999997</v>
       </c>
       <c r="K551" t="n">
-        <v>-40.00000000000053</v>
+        <v>-37.50000000000042</v>
       </c>
       <c r="L551" t="n">
         <v>3.643999999999993</v>
@@ -28308,7 +28308,7 @@
         <v>11.30999999999997</v>
       </c>
       <c r="K552" t="n">
-        <v>-24.44444444444465</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>3.643999999999993</v>
@@ -28359,7 +28359,7 @@
         <v>11.36999999999997</v>
       </c>
       <c r="K553" t="n">
-        <v>-33.33333333333356</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L553" t="n">
         <v>3.637999999999993</v>
@@ -28410,7 +28410,7 @@
         <v>11.36999999999997</v>
       </c>
       <c r="K554" t="n">
-        <v>-30.61224489795947</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L554" t="n">
         <v>3.630999999999993</v>
@@ -28461,7 +28461,7 @@
         <v>11.37999999999997</v>
       </c>
       <c r="K555" t="n">
-        <v>-32.00000000000026</v>
+        <v>-21.73913043478249</v>
       </c>
       <c r="L555" t="n">
         <v>3.621999999999993</v>
@@ -28512,7 +28512,7 @@
         <v>11.38999999999997</v>
       </c>
       <c r="K556" t="n">
-        <v>-27.65957446808535</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L556" t="n">
         <v>3.615999999999993</v>
@@ -28563,7 +28563,7 @@
         <v>11.39999999999997</v>
       </c>
       <c r="K557" t="n">
-        <v>-30.43478260869586</v>
+        <v>-30.43478260869553</v>
       </c>
       <c r="L557" t="n">
         <v>3.608999999999992</v>
@@ -28614,7 +28614,7 @@
         <v>11.41999999999997</v>
       </c>
       <c r="K558" t="n">
-        <v>-16.27906976744197</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L558" t="n">
         <v>3.603999999999993</v>
@@ -28665,7 +28665,7 @@
         <v>11.44999999999997</v>
       </c>
       <c r="K559" t="n">
-        <v>-33.33333333333351</v>
+        <v>-30.76923076923061</v>
       </c>
       <c r="L559" t="n">
         <v>3.596999999999993</v>
@@ -28716,7 +28716,7 @@
         <v>11.47999999999998</v>
       </c>
       <c r="K560" t="n">
-        <v>-19.04761904761907</v>
+        <v>4.347826086956581</v>
       </c>
       <c r="L560" t="n">
         <v>3.591999999999993</v>
@@ -28767,7 +28767,7 @@
         <v>11.51999999999997</v>
       </c>
       <c r="K561" t="n">
-        <v>-22.72727272727277</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L561" t="n">
         <v>3.588999999999993</v>
@@ -28818,7 +28818,7 @@
         <v>11.51999999999997</v>
       </c>
       <c r="K562" t="n">
-        <v>-20.93023255813952</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L562" t="n">
         <v>3.579999999999993</v>
@@ -28869,7 +28869,7 @@
         <v>11.52999999999997</v>
       </c>
       <c r="K563" t="n">
-        <v>-22.72727272727277</v>
+        <v>-25</v>
       </c>
       <c r="L563" t="n">
         <v>3.575999999999993</v>
@@ -28920,7 +28920,7 @@
         <v>11.53999999999997</v>
       </c>
       <c r="K564" t="n">
-        <v>-27.27272727272733</v>
+        <v>-25</v>
       </c>
       <c r="L564" t="n">
         <v>3.570999999999994</v>
@@ -28971,7 +28971,7 @@
         <v>11.54999999999997</v>
       </c>
       <c r="K565" t="n">
-        <v>-27.27272727272733</v>
+        <v>-12.5</v>
       </c>
       <c r="L565" t="n">
         <v>3.567999999999993</v>
@@ -29022,7 +29022,7 @@
         <v>11.54999999999997</v>
       </c>
       <c r="K566" t="n">
-        <v>-20</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L566" t="n">
         <v>3.565999999999993</v>
@@ -29073,7 +29073,7 @@
         <v>11.56999999999997</v>
       </c>
       <c r="K567" t="n">
-        <v>-20</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L567" t="n">
         <v>3.564999999999993</v>
@@ -29124,7 +29124,7 @@
         <v>11.57999999999997</v>
       </c>
       <c r="K568" t="n">
-        <v>-17.07317073170727</v>
+        <v>7.692307692307929</v>
       </c>
       <c r="L568" t="n">
         <v>3.562999999999993</v>
@@ -29175,7 +29175,7 @@
         <v>11.57999999999997</v>
       </c>
       <c r="K569" t="n">
-        <v>-15</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L569" t="n">
         <v>3.563999999999993</v>
@@ -29226,7 +29226,7 @@
         <v>11.60999999999997</v>
       </c>
       <c r="K570" t="n">
-        <v>-9.523809523809534</v>
+        <v>55.55555555555654</v>
       </c>
       <c r="L570" t="n">
         <v>3.564999999999993</v>
@@ -29277,7 +29277,7 @@
         <v>11.62999999999997</v>
       </c>
       <c r="K571" t="n">
-        <v>10.52631578947372</v>
+        <v>63.63636363636485</v>
       </c>
       <c r="L571" t="n">
         <v>3.571999999999993</v>
@@ -29328,7 +29328,7 @@
         <v>11.65999999999997</v>
       </c>
       <c r="K572" t="n">
-        <v>-14.28571428571432</v>
+        <v>38.46153846153948</v>
       </c>
       <c r="L572" t="n">
         <v>3.575999999999993</v>
@@ -29379,7 +29379,7 @@
         <v>11.66999999999997</v>
       </c>
       <c r="K573" t="n">
-        <v>6.666666666666736</v>
+        <v>53.84615384615488</v>
       </c>
       <c r="L573" t="n">
         <v>3.581999999999993</v>
@@ -29430,7 +29430,7 @@
         <v>11.68999999999997</v>
       </c>
       <c r="K574" t="n">
-        <v>0</v>
+        <v>28.57142857142921</v>
       </c>
       <c r="L574" t="n">
         <v>3.586999999999993</v>
@@ -29481,7 +29481,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K575" t="n">
-        <v>6.250000000000069</v>
+        <v>33.33333333333422</v>
       </c>
       <c r="L575" t="n">
         <v>3.591999999999993</v>
@@ -29532,7 +29532,7 @@
         <v>11.71999999999997</v>
       </c>
       <c r="K576" t="n">
-        <v>15.15151515151539</v>
+        <v>33.33333333333422</v>
       </c>
       <c r="L576" t="n">
         <v>3.598999999999993</v>
@@ -29583,7 +29583,7 @@
         <v>11.71999999999997</v>
       </c>
       <c r="K577" t="n">
-        <v>12.50000000000014</v>
+        <v>28.57142857142921</v>
       </c>
       <c r="L577" t="n">
         <v>3.603999999999993</v>
@@ -29634,7 +29634,7 @@
         <v>11.71999999999997</v>
       </c>
       <c r="K578" t="n">
-        <v>6.666666666666736</v>
+        <v>28.57142857142921</v>
       </c>
       <c r="L578" t="n">
         <v>3.607999999999993</v>
@@ -29685,7 +29685,7 @@
         <v>11.76999999999997</v>
       </c>
       <c r="K579" t="n">
-        <v>0</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L579" t="n">
         <v>3.606999999999993</v>
@@ -29736,7 +29736,7 @@
         <v>11.76999999999997</v>
       </c>
       <c r="K580" t="n">
-        <v>-10.34482758620714</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L580" t="n">
         <v>3.602999999999993</v>
@@ -29787,7 +29787,7 @@
         <v>11.77999999999997</v>
       </c>
       <c r="K581" t="n">
-        <v>0</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L581" t="n">
         <v>3.595999999999993</v>
@@ -29838,7 +29838,7 @@
         <v>11.77999999999997</v>
       </c>
       <c r="K582" t="n">
-        <v>0</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L582" t="n">
         <v>3.591999999999993</v>
@@ -29889,7 +29889,7 @@
         <v>11.83999999999997</v>
       </c>
       <c r="K583" t="n">
-        <v>-16.12903225806462</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L583" t="n">
         <v>3.580999999999993</v>
@@ -29940,7 +29940,7 @@
         <v>11.83999999999997</v>
       </c>
       <c r="K584" t="n">
-        <v>-13.33333333333347</v>
+        <v>-71.4285714285712</v>
       </c>
       <c r="L584" t="n">
         <v>3.571999999999993</v>
@@ -29991,7 +29991,7 @@
         <v>11.90999999999997</v>
       </c>
       <c r="K585" t="n">
-        <v>5.555555555555597</v>
+        <v>-26.31578947368418</v>
       </c>
       <c r="L585" t="n">
         <v>3.568999999999993</v>
@@ -30042,7 +30042,7 @@
         <v>11.95999999999997</v>
       </c>
       <c r="K586" t="n">
-        <v>-7.317073170731689</v>
+        <v>-41.66666666666636</v>
       </c>
       <c r="L586" t="n">
         <v>3.558999999999993</v>
@@ -30093,7 +30093,7 @@
         <v>11.97999999999997</v>
       </c>
       <c r="K587" t="n">
-        <v>-17.07317073170735</v>
+        <v>-46.15384615384592</v>
       </c>
       <c r="L587" t="n">
         <v>3.546999999999993</v>
@@ -30144,7 +30144,7 @@
         <v>12.02999999999997</v>
       </c>
       <c r="K588" t="n">
-        <v>-6.666666666666732</v>
+        <v>-7.692307692307653</v>
       </c>
       <c r="L588" t="n">
         <v>3.539999999999993</v>
@@ -30195,7 +30195,7 @@
         <v>12.06999999999997</v>
       </c>
       <c r="K589" t="n">
-        <v>-14.28571428571439</v>
+        <v>-19.99999999999997</v>
       </c>
       <c r="L589" t="n">
         <v>3.533999999999993</v>
@@ -30246,7 +30246,7 @@
         <v>12.07999999999997</v>
       </c>
       <c r="K590" t="n">
-        <v>-19.14893617021278</v>
+        <v>-13.33333333333331</v>
       </c>
       <c r="L590" t="n">
         <v>3.528999999999994</v>
@@ -30297,7 +30297,7 @@
         <v>12.08999999999997</v>
       </c>
       <c r="K591" t="n">
-        <v>-21.73913043478267</v>
+        <v>-9.677419354838774</v>
       </c>
       <c r="L591" t="n">
         <v>3.525999999999994</v>
@@ -30348,7 +30348,7 @@
         <v>12.10999999999997</v>
       </c>
       <c r="K592" t="n">
-        <v>-20.0000000000001</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L592" t="n">
         <v>3.520999999999993</v>
@@ -30399,7 +30399,7 @@
         <v>12.14999999999997</v>
       </c>
       <c r="K593" t="n">
-        <v>-12.50000000000005</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L593" t="n">
         <v>3.525999999999993</v>
@@ -30450,7 +30450,7 @@
         <v>12.17999999999997</v>
       </c>
       <c r="K594" t="n">
-        <v>-14.2857142857143</v>
+        <v>-18.5185185185186</v>
       </c>
       <c r="L594" t="n">
         <v>3.527999999999993</v>
@@ -30501,7 +30501,7 @@
         <v>12.19999999999997</v>
       </c>
       <c r="K595" t="n">
-        <v>-20.00000000000009</v>
+        <v>-8.333333333333456</v>
       </c>
       <c r="L595" t="n">
         <v>3.520999999999993</v>
@@ -30552,7 +30552,7 @@
         <v>12.22999999999997</v>
       </c>
       <c r="K596" t="n">
-        <v>-17.64705882352954</v>
+        <v>12.00000000000009</v>
       </c>
       <c r="L596" t="n">
         <v>3.521999999999993</v>
@@ -30603,7 +30603,7 @@
         <v>12.25999999999997</v>
       </c>
       <c r="K597" t="n">
-        <v>-11.11111111111114</v>
+        <v>4.347826086956681</v>
       </c>
       <c r="L597" t="n">
         <v>3.527999999999993</v>
@@ -30654,7 +30654,7 @@
         <v>12.27999999999997</v>
       </c>
       <c r="K598" t="n">
-        <v>-14.28571428571433</v>
+        <v>14.28571428571459</v>
       </c>
       <c r="L598" t="n">
         <v>3.526999999999993</v>
@@ -30705,7 +30705,7 @@
         <v>12.30999999999997</v>
       </c>
       <c r="K599" t="n">
-        <v>0</v>
+        <v>21.73913043478283</v>
       </c>
       <c r="L599" t="n">
         <v>3.532999999999993</v>
@@ -30756,7 +30756,7 @@
         <v>12.31999999999997</v>
       </c>
       <c r="K600" t="n">
-        <v>-1.818181818181789</v>
+        <v>13.04347826086985</v>
       </c>
       <c r="L600" t="n">
         <v>3.536999999999993</v>
@@ -30807,7 +30807,7 @@
         <v>12.31999999999997</v>
       </c>
       <c r="K601" t="n">
-        <v>0</v>
+        <v>23.80952380952424</v>
       </c>
       <c r="L601" t="n">
         <v>3.539999999999993</v>
@@ -30858,7 +30858,7 @@
         <v>12.32999999999997</v>
       </c>
       <c r="K602" t="n">
-        <v>1.818181818181789</v>
+        <v>11.11111111111125</v>
       </c>
       <c r="L602" t="n">
         <v>3.545999999999994</v>
@@ -30909,7 +30909,7 @@
         <v>12.35999999999997</v>
       </c>
       <c r="K603" t="n">
-        <v>19.2307692307694</v>
+        <v>44.44444444444499</v>
       </c>
       <c r="L603" t="n">
         <v>3.550999999999994</v>
@@ -30960,7 +30960,7 @@
         <v>12.35999999999997</v>
       </c>
       <c r="K604" t="n">
-        <v>19.2307692307694</v>
+        <v>62.5000000000007</v>
       </c>
       <c r="L604" t="n">
         <v>3.558999999999994</v>
@@ -31011,7 +31011,7 @@
         <v>12.37999999999997</v>
       </c>
       <c r="K605" t="n">
-        <v>2.127659574468156</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L605" t="n">
         <v>3.566999999999994</v>
@@ -31062,7 +31062,7 @@
         <v>12.38999999999997</v>
       </c>
       <c r="K606" t="n">
-        <v>16.27906976744204</v>
+        <v>23.07692307692342</v>
       </c>
       <c r="L606" t="n">
         <v>3.572999999999993</v>
@@ -31113,7 +31113,7 @@
         <v>12.41999999999997</v>
       </c>
       <c r="K607" t="n">
-        <v>27.27272727272766</v>
+        <v>57.14285714285842</v>
       </c>
       <c r="L607" t="n">
         <v>3.578999999999993</v>
@@ -31164,7 +31164,7 @@
         <v>12.44999999999997</v>
       </c>
       <c r="K608" t="n">
-        <v>9.523809523809655</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L608" t="n">
         <v>3.583999999999993</v>
@@ -31215,7 +31215,7 @@
         <v>12.45999999999997</v>
       </c>
       <c r="K609" t="n">
-        <v>17.94871794871824</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L609" t="n">
         <v>3.584999999999992</v>
@@ -31266,7 +31266,7 @@
         <v>12.46999999999997</v>
       </c>
       <c r="K610" t="n">
-        <v>17.94871794871813</v>
+        <v>20.00000000000006</v>
       </c>
       <c r="L610" t="n">
         <v>3.587999999999993</v>
@@ -31317,7 +31317,7 @@
         <v>12.48999999999997</v>
       </c>
       <c r="K611" t="n">
-        <v>20.00000000000027</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L611" t="n">
         <v>3.592999999999992</v>
@@ -31368,7 +31368,7 @@
         <v>12.56999999999997</v>
       </c>
       <c r="K612" t="n">
-        <v>39.13043478260911</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L612" t="n">
         <v>3.604999999999992</v>
@@ -31419,7 +31419,7 @@
         <v>12.56999999999997</v>
       </c>
       <c r="K613" t="n">
-        <v>33.33333333333365</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L613" t="n">
         <v>3.613999999999991</v>
@@ -31470,7 +31470,7 @@
         <v>12.59999999999997</v>
       </c>
       <c r="K614" t="n">
-        <v>33.33333333333365</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L614" t="n">
         <v>3.619999999999991</v>
@@ -31521,7 +31521,7 @@
         <v>12.59999999999997</v>
       </c>
       <c r="K615" t="n">
-        <v>40.00000000000036</v>
+        <v>33.33333333333361</v>
       </c>
       <c r="L615" t="n">
         <v>3.627999999999992</v>
@@ -31572,7 +31572,7 @@
         <v>12.67999999999997</v>
       </c>
       <c r="K616" t="n">
-        <v>11.11111111111123</v>
+        <v>-15.38461538461541</v>
       </c>
       <c r="L616" t="n">
         <v>3.626999999999991</v>
@@ -31623,7 +31623,7 @@
         <v>12.71999999999997</v>
       </c>
       <c r="K617" t="n">
-        <v>13.04347826086965</v>
+        <v>11.11111111111122</v>
       </c>
       <c r="L617" t="n">
         <v>3.626999999999991</v>
@@ -31674,7 +31674,7 @@
         <v>12.74999999999997</v>
       </c>
       <c r="K618" t="n">
-        <v>10.63829787234041</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L618" t="n">
         <v>3.626999999999991</v>
@@ -31725,7 +31725,7 @@
         <v>12.74999999999997</v>
       </c>
       <c r="K619" t="n">
-        <v>4.545454545454555</v>
+        <v>0</v>
       </c>
       <c r="L619" t="n">
         <v>3.627999999999992</v>
@@ -31776,7 +31776,7 @@
         <v>12.77999999999997</v>
       </c>
       <c r="K620" t="n">
-        <v>13.04347826086955</v>
+        <v>3.448275862069013</v>
       </c>
       <c r="L620" t="n">
         <v>3.630999999999992</v>
@@ -31827,7 +31827,7 @@
         <v>12.78999999999997</v>
       </c>
       <c r="K621" t="n">
-        <v>10.63829787234037</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="L621" t="n">
         <v>3.630999999999992</v>
@@ -31878,7 +31878,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K622" t="n">
-        <v>10.63829787234047</v>
+        <v>-30.43478260869529</v>
       </c>
       <c r="L622" t="n">
         <v>3.623999999999992</v>
@@ -31929,7 +31929,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K623" t="n">
-        <v>4.545454545454537</v>
+        <v>-19.99999999999973</v>
       </c>
       <c r="L623" t="n">
         <v>3.616999999999992</v>
@@ -31980,7 +31980,7 @@
         <v>12.84999999999997</v>
       </c>
       <c r="K624" t="n">
-        <v>14.2857142857142</v>
+        <v>3.999999999999858</v>
       </c>
       <c r="L624" t="n">
         <v>3.617999999999992</v>
@@ -32031,7 +32031,7 @@
         <v>12.86999999999997</v>
       </c>
       <c r="K625" t="n">
-        <v>14.2857142857142</v>
+        <v>36.84210526315722</v>
       </c>
       <c r="L625" t="n">
         <v>3.616999999999992</v>
@@ -32082,7 +32082,7 @@
         <v>12.86999999999997</v>
       </c>
       <c r="K626" t="n">
-        <v>12.49999999999995</v>
+        <v>19.99999999999958</v>
       </c>
       <c r="L626" t="n">
         <v>3.623999999999992</v>
@@ -32133,7 +32133,7 @@
         <v>12.87999999999997</v>
       </c>
       <c r="K627" t="n">
-        <v>8.695652173913002</v>
+        <v>53.84615384615374</v>
       </c>
       <c r="L627" t="n">
         <v>3.627999999999992</v>
@@ -32184,7 +32184,7 @@
         <v>12.88999999999997</v>
       </c>
       <c r="K628" t="n">
-        <v>13.63636363636361</v>
+        <v>42.85714285714272</v>
       </c>
       <c r="L628" t="n">
         <v>3.633999999999992</v>
@@ -32235,7 +32235,7 @@
         <v>12.89999999999997</v>
       </c>
       <c r="K629" t="n">
-        <v>18.18181818181815</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L629" t="n">
         <v>3.640999999999991</v>
@@ -32286,7 +32286,7 @@
         <v>12.90999999999997</v>
       </c>
       <c r="K630" t="n">
-        <v>18.18181818181815</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L630" t="n">
         <v>3.645999999999991</v>
@@ -32337,7 +32337,7 @@
         <v>12.91999999999997</v>
       </c>
       <c r="K631" t="n">
-        <v>11.62790697674421</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L631" t="n">
         <v>3.650999999999992</v>
@@ -32388,7 +32388,7 @@
         <v>12.93999999999997</v>
       </c>
       <c r="K632" t="n">
-        <v>-2.702702702702638</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L632" t="n">
         <v>3.656999999999992</v>
@@ -32439,7 +32439,7 @@
         <v>12.95999999999997</v>
       </c>
       <c r="K633" t="n">
-        <v>-7.692307692307631</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L633" t="n">
         <v>3.660999999999992</v>
@@ -32490,7 +32490,7 @@
         <v>12.95999999999997</v>
       </c>
       <c r="K634" t="n">
-        <v>0</v>
+        <v>11.1111111111116</v>
       </c>
       <c r="L634" t="n">
         <v>3.659999999999992</v>
@@ -32541,7 +32541,7 @@
         <v>12.99999999999997</v>
       </c>
       <c r="K635" t="n">
-        <v>9.999999999999956</v>
+        <v>38.46153846153896</v>
       </c>
       <c r="L635" t="n">
         <v>3.664999999999993</v>
@@ -32592,7 +32592,7 @@
         <v>13.02999999999997</v>
       </c>
       <c r="K636" t="n">
-        <v>25.71428571428544</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L636" t="n">
         <v>3.666999999999993</v>
@@ -32643,7 +32643,7 @@
         <v>13.05999999999997</v>
       </c>
       <c r="K637" t="n">
-        <v>23.52941176470567</v>
+        <v>29.41176470588222</v>
       </c>
       <c r="L637" t="n">
         <v>3.670999999999994</v>
@@ -32694,7 +32694,7 @@
         <v>13.17999999999997</v>
       </c>
       <c r="K638" t="n">
-        <v>-2.32558139534877</v>
+        <v>-28.5714285714283</v>
       </c>
       <c r="L638" t="n">
         <v>3.663999999999993</v>
@@ -32745,7 +32745,7 @@
         <v>13.25999999999997</v>
       </c>
       <c r="K639" t="n">
-        <v>13.7254901960784</v>
+        <v>-2.85714285714277</v>
       </c>
       <c r="L639" t="n">
         <v>3.663999999999994</v>
@@ -32796,7 +32796,7 @@
         <v>13.27999999999997</v>
       </c>
       <c r="K640" t="n">
-        <v>11.99999999999997</v>
+        <v>5.555555555555515</v>
       </c>
       <c r="L640" t="n">
         <v>3.664999999999994</v>
@@ -32847,7 +32847,7 @@
         <v>13.33999999999997</v>
       </c>
       <c r="K641" t="n">
-        <v>1.818181818181852</v>
+        <v>-14.99999999999987</v>
       </c>
       <c r="L641" t="n">
         <v>3.660999999999994</v>
@@ -32898,7 +32898,7 @@
         <v>13.35999999999997</v>
       </c>
       <c r="K642" t="n">
-        <v>3.57142857142856</v>
+        <v>-4.999999999999956</v>
       </c>
       <c r="L642" t="n">
         <v>3.656999999999994</v>
@@ -32949,7 +32949,7 @@
         <v>13.37999999999997</v>
       </c>
       <c r="K643" t="n">
-        <v>6.896551724137916</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>3.656999999999995</v>
@@ -33000,7 +33000,7 @@
         <v>13.38999999999997</v>
       </c>
       <c r="K644" t="n">
-        <v>-3.703703703703701</v>
+        <v>-12.82051282051281</v>
       </c>
       <c r="L644" t="n">
         <v>3.655999999999994</v>
@@ -33051,7 +33051,7 @@
         <v>13.39999999999997</v>
       </c>
       <c r="K645" t="n">
-        <v>1.886792452830228</v>
+        <v>-2.702702702702638</v>
       </c>
       <c r="L645" t="n">
         <v>3.651999999999994</v>
@@ -33102,7 +33102,7 @@
         <v>13.42999999999997</v>
       </c>
       <c r="K646" t="n">
-        <v>-3.57142857142856</v>
+        <v>-18.91891891891894</v>
       </c>
       <c r="L646" t="n">
         <v>3.647999999999994</v>
@@ -33153,7 +33153,7 @@
         <v>13.44999999999997</v>
       </c>
       <c r="K647" t="n">
-        <v>-8.771929824561418</v>
+        <v>11.11111111111106</v>
       </c>
       <c r="L647" t="n">
         <v>3.638999999999994</v>
@@ -33204,7 +33204,7 @@
         <v>13.47999999999997</v>
       </c>
       <c r="K648" t="n">
-        <v>-1.694915254237242</v>
+        <v>-9.090909090909074</v>
       </c>
       <c r="L648" t="n">
         <v>3.644999999999994</v>
@@ -33255,7 +33255,7 @@
         <v>13.50999999999997</v>
       </c>
       <c r="K649" t="n">
-        <v>-8.19672131147539</v>
+        <v>-30.43478260869548</v>
       </c>
       <c r="L649" t="n">
         <v>3.639999999999993</v>
@@ -33306,7 +33306,7 @@
         <v>13.53999999999997</v>
       </c>
       <c r="K650" t="n">
-        <v>-14.28571428571417</v>
+        <v>-19.99999999999991</v>
       </c>
       <c r="L650" t="n">
         <v>3.629999999999993</v>
@@ -33357,7 +33357,7 @@
         <v>13.54999999999997</v>
       </c>
       <c r="K651" t="n">
-        <v>-14.28571428571423</v>
+        <v>-36.8421052631578</v>
       </c>
       <c r="L651" t="n">
         <v>3.624999999999994</v>
@@ -33408,7 +33408,7 @@
         <v>13.55999999999997</v>
       </c>
       <c r="K652" t="n">
-        <v>-19.3548387096773</v>
+        <v>-55.55555555555515</v>
       </c>
       <c r="L652" t="n">
         <v>3.616999999999994</v>
@@ -33459,7 +33459,7 @@
         <v>13.55999999999997</v>
       </c>
       <c r="K653" t="n">
-        <v>-16.66666666666654</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L653" t="n">
         <v>3.606999999999994</v>
@@ -33510,7 +33510,7 @@
         <v>13.64999999999997</v>
       </c>
       <c r="K654" t="n">
-        <v>-1.449275362318864</v>
+        <v>-4.000000000000064</v>
       </c>
       <c r="L654" t="n">
         <v>3.606999999999994</v>
@@ -33561,7 +33561,7 @@
         <v>13.70999999999997</v>
       </c>
       <c r="K655" t="n">
-        <v>-15.49295774647882</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L655" t="n">
         <v>3.599999999999994</v>
@@ -33612,7 +33612,7 @@
         <v>13.76999999999997</v>
       </c>
       <c r="K656" t="n">
-        <v>-2.702702702702692</v>
+        <v>12.49999999999993</v>
       </c>
       <c r="L656" t="n">
         <v>3.601999999999994</v>
@@ -33663,7 +33663,7 @@
         <v>13.78999999999997</v>
       </c>
       <c r="K657" t="n">
-        <v>-9.589041095890421</v>
+        <v>-3.225806451612972</v>
       </c>
       <c r="L657" t="n">
         <v>3.603999999999994</v>
@@ -33714,7 +33714,7 @@
         <v>13.82999999999997</v>
       </c>
       <c r="K658" t="n">
-        <v>13.84615384615378</v>
+        <v>18.75</v>
       </c>
       <c r="L658" t="n">
         <v>3.606999999999994</v>
@@ -33765,7 +33765,7 @@
         <v>13.83999999999997</v>
       </c>
       <c r="K659" t="n">
-        <v>0</v>
+        <v>26.66666666666663</v>
       </c>
       <c r="L659" t="n">
         <v>3.611999999999995</v>
@@ -33816,7 +33816,7 @@
         <v>13.84999999999997</v>
       </c>
       <c r="K660" t="n">
-        <v>-1.754385964912315</v>
+        <v>33.33333333333328</v>
       </c>
       <c r="L660" t="n">
         <v>3.620999999999995</v>
@@ -33867,7 +33867,7 @@
         <v>13.84999999999997</v>
       </c>
       <c r="K661" t="n">
-        <v>9.803921568627386</v>
+        <v>37.93103448275846</v>
       </c>
       <c r="L661" t="n">
         <v>3.630999999999995</v>
@@ -33918,7 +33918,7 @@
         <v>13.84999999999997</v>
       </c>
       <c r="K662" t="n">
-        <v>6.122448979591772</v>
+        <v>37.93103448275846</v>
       </c>
       <c r="L662" t="n">
         <v>3.641999999999995</v>
@@ -33969,7 +33969,7 @@
         <v>13.84999999999997</v>
       </c>
       <c r="K663" t="n">
-        <v>2.127659574468029</v>
+        <v>9.999999999999956</v>
       </c>
       <c r="L663" t="n">
         <v>3.652999999999995</v>
@@ -34020,7 +34020,7 @@
         <v>13.84999999999997</v>
       </c>
       <c r="K664" t="n">
-        <v>4.347826086956501</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L664" t="n">
         <v>3.654999999999995</v>
@@ -34071,7 +34071,7 @@
         <v>13.86999999999997</v>
       </c>
       <c r="K665" t="n">
-        <v>-2.127659574468123</v>
+        <v>0</v>
       </c>
       <c r="L665" t="n">
         <v>3.660999999999996</v>
@@ -34122,7 +34122,7 @@
         <v>13.89999999999997</v>
       </c>
       <c r="K666" t="n">
-        <v>-2.127659574468037</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L666" t="n">
         <v>3.657999999999995</v>
@@ -34173,7 +34173,7 @@
         <v>13.92999999999997</v>
       </c>
       <c r="K667" t="n">
-        <v>8.333333333333332</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L667" t="n">
         <v>3.659999999999995</v>
@@ -34224,7 +34224,7 @@
         <v>13.92999999999997</v>
       </c>
       <c r="K668" t="n">
-        <v>2.222222222222178</v>
+        <v>-11.1111111111116</v>
       </c>
       <c r="L668" t="n">
         <v>3.657999999999995</v>
@@ -34275,7 +34275,7 @@
         <v>13.96999999999997</v>
       </c>
       <c r="K669" t="n">
-        <v>17.39130434782621</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L669" t="n">
         <v>3.660999999999994</v>
@@ -34326,7 +34326,7 @@
         <v>13.98999999999997</v>
       </c>
       <c r="K670" t="n">
-        <v>20.00000000000008</v>
+        <v>0</v>
       </c>
       <c r="L670" t="n">
         <v>3.660999999999994</v>
@@ -34377,7 +34377,7 @@
         <v>13.98999999999997</v>
       </c>
       <c r="K671" t="n">
-        <v>22.72727272727287</v>
+        <v>0</v>
       </c>
       <c r="L671" t="n">
         <v>3.660999999999994</v>
@@ -34428,7 +34428,7 @@
         <v>13.98999999999997</v>
       </c>
       <c r="K672" t="n">
-        <v>25.5813953488373</v>
+        <v>0</v>
       </c>
       <c r="L672" t="n">
         <v>3.660999999999994</v>
@@ -34479,7 +34479,7 @@
         <v>14.03999999999997</v>
       </c>
       <c r="K673" t="n">
-        <v>12.50000000000005</v>
+        <v>-26.31578947368443</v>
       </c>
       <c r="L673" t="n">
         <v>3.655999999999994</v>
@@ -34530,7 +34530,7 @@
         <v>14.08999999999997</v>
       </c>
       <c r="K674" t="n">
-        <v>4.545454545454555</v>
+        <v>9.090909090909145</v>
       </c>
       <c r="L674" t="n">
         <v>3.655999999999994</v>
@@ -34581,7 +34581,7 @@
         <v>14.08999999999997</v>
       </c>
       <c r="K675" t="n">
-        <v>21.05263157894744</v>
+        <v>26.31578947368419</v>
       </c>
       <c r="L675" t="n">
         <v>3.657999999999994</v>
@@ -34632,7 +34632,7 @@
         <v>14.16999999999997</v>
       </c>
       <c r="K676" t="n">
-        <v>-15.00000000000007</v>
+        <v>-25</v>
       </c>
       <c r="L676" t="n">
         <v>3.654999999999995</v>
@@ -34683,7 +34683,7 @@
         <v>14.16999999999997</v>
       </c>
       <c r="K677" t="n">
-        <v>-10.52631578947372</v>
+        <v>-25</v>
       </c>
       <c r="L677" t="n">
         <v>3.648999999999995</v>
@@ -34734,7 +34734,7 @@
         <v>14.17999999999997</v>
       </c>
       <c r="K678" t="n">
-        <v>-25.71428571428583</v>
+        <v>-52.38095238095211</v>
       </c>
       <c r="L678" t="n">
         <v>3.641999999999995</v>
@@ -34785,7 +34785,7 @@
         <v>14.26999999999997</v>
       </c>
       <c r="K679" t="n">
-        <v>2.325581395348799</v>
+        <v>0</v>
       </c>
       <c r="L679" t="n">
         <v>3.639999999999995</v>
@@ -34836,7 +34836,7 @@
         <v>14.27999999999997</v>
       </c>
       <c r="K680" t="n">
-        <v>-2.325581395348799</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="L680" t="n">
         <v>3.638999999999994</v>
@@ -34887,7 +34887,7 @@
         <v>14.30999999999997</v>
       </c>
       <c r="K681" t="n">
-        <v>-8.695652173913103</v>
+        <v>-12.5</v>
       </c>
       <c r="L681" t="n">
         <v>3.634999999999994</v>
@@ -34938,7 +34938,7 @@
         <v>14.33999999999997</v>
       </c>
       <c r="K682" t="n">
-        <v>-2.040816326530575</v>
+        <v>13.33333333333331</v>
       </c>
       <c r="L682" t="n">
         <v>3.633999999999995</v>
@@ -34989,7 +34989,7 @@
         <v>14.35999999999997</v>
       </c>
       <c r="K683" t="n">
-        <v>-5.882352941176455</v>
+        <v>-11.11111111111106</v>
       </c>
       <c r="L683" t="n">
         <v>3.635999999999995</v>
@@ -35040,7 +35040,7 @@
         <v>14.35999999999997</v>
       </c>
       <c r="K684" t="n">
-        <v>-5.882352941176455</v>
+        <v>-11.11111111111106</v>
       </c>
       <c r="L684" t="n">
         <v>3.632999999999995</v>
@@ -35091,7 +35091,7 @@
         <v>14.38999999999997</v>
       </c>
       <c r="K685" t="n">
-        <v>3.846153846153866</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L685" t="n">
         <v>3.632999999999995</v>
@@ -35142,7 +35142,7 @@
         <v>14.39999999999997</v>
       </c>
       <c r="K686" t="n">
-        <v>8.000000000000036</v>
+        <v>30.43478260869595</v>
       </c>
       <c r="L686" t="n">
         <v>3.639999999999995</v>
@@ -35193,7 +35193,7 @@
         <v>14.39999999999997</v>
       </c>
       <c r="K687" t="n">
-        <v>2.12765957446814</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L687" t="n">
         <v>3.646999999999994</v>
@@ -35244,7 +35244,7 @@
         <v>14.43999999999997</v>
       </c>
       <c r="K688" t="n">
-        <v>-5.882352941176455</v>
+        <v>-29.41176470588257</v>
       </c>
       <c r="L688" t="n">
         <v>3.650999999999994</v>
@@ -35295,7 +35295,7 @@
         <v>14.44999999999997</v>
       </c>
       <c r="K689" t="n">
-        <v>-16.66666666666673</v>
+        <v>-29.41176470588283</v>
       </c>
       <c r="L689" t="n">
         <v>3.644999999999994</v>
@@ -35346,7 +35346,7 @@
         <v>14.45999999999997</v>
       </c>
       <c r="K690" t="n">
-        <v>-10.63829787234041</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L690" t="n">
         <v>3.640999999999994</v>
@@ -35397,7 +35397,7 @@
         <v>14.46999999999997</v>
       </c>
       <c r="K691" t="n">
-        <v>-8.333333333333364</v>
+        <v>-23.07692307692376</v>
       </c>
       <c r="L691" t="n">
         <v>3.640999999999994</v>
@@ -35448,7 +35448,7 @@
         <v>14.50999999999997</v>
       </c>
       <c r="K692" t="n">
-        <v>0</v>
+        <v>20.00000000000006</v>
       </c>
       <c r="L692" t="n">
         <v>3.641999999999995</v>
@@ -35499,7 +35499,7 @@
         <v>14.52999999999997</v>
       </c>
       <c r="K693" t="n">
-        <v>6.122448979591817</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L693" t="n">
         <v>3.642999999999994</v>
@@ -35550,7 +35550,7 @@
         <v>14.54999999999997</v>
       </c>
       <c r="K694" t="n">
-        <v>-8.695652173913103</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L694" t="n">
         <v>3.641999999999995</v>
@@ -35601,7 +35601,7 @@
         <v>14.55999999999997</v>
       </c>
       <c r="K695" t="n">
-        <v>-6.382978723404253</v>
+        <v>-12.50000000000014</v>
       </c>
       <c r="L695" t="n">
         <v>3.638999999999994</v>
@@ -35652,7 +35652,7 @@
         <v>14.55999999999997</v>
       </c>
       <c r="K696" t="n">
-        <v>12.82051282051299</v>
+        <v>-12.50000000000014</v>
       </c>
       <c r="L696" t="n">
         <v>3.636999999999995</v>
@@ -35703,7 +35703,7 @@
         <v>14.55999999999997</v>
       </c>
       <c r="K697" t="n">
-        <v>12.82051282051299</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L697" t="n">
         <v>3.634999999999995</v>
@@ -35754,7 +35754,7 @@
         <v>14.56999999999997</v>
       </c>
       <c r="K698" t="n">
-        <v>12.82051282051287</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L698" t="n">
         <v>3.635999999999996</v>
@@ -35805,7 +35805,7 @@
         <v>14.56999999999997</v>
       </c>
       <c r="K699" t="n">
-        <v>-13.33333333333347</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L699" t="n">
         <v>3.637999999999996</v>
@@ -35856,7 +35856,7 @@
         <v>14.56999999999997</v>
       </c>
       <c r="K700" t="n">
-        <v>-10.34482758620708</v>
+        <v>0</v>
       </c>
       <c r="L700" t="n">
         <v>3.638999999999997</v>
@@ -35907,7 +35907,7 @@
         <v>14.58999999999997</v>
       </c>
       <c r="K701" t="n">
-        <v>7.142857142857211</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L701" t="n">
         <v>3.640999999999996</v>
@@ -35958,7 +35958,7 @@
         <v>14.59999999999997</v>
       </c>
       <c r="K702" t="n">
-        <v>0</v>
+        <v>14.28571428571492</v>
       </c>
       <c r="L702" t="n">
         <v>3.639999999999996</v>
@@ -36009,7 +36009,7 @@
         <v>14.66999999999997</v>
       </c>
       <c r="K703" t="n">
-        <v>29.03225806451637</v>
+        <v>83.33333333333395</v>
       </c>
       <c r="L703" t="n">
         <v>3.647999999999996</v>
@@ -36060,7 +36060,7 @@
         <v>14.67999999999997</v>
       </c>
       <c r="K704" t="n">
-        <v>25.00000000000028</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L704" t="n">
         <v>3.656999999999996</v>
@@ -36111,7 +36111,7 @@
         <v>14.67999999999997</v>
       </c>
       <c r="K705" t="n">
-        <v>17.24137931034507</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L705" t="n">
         <v>3.664999999999996</v>
@@ -36162,7 +36162,7 @@
         <v>14.68999999999997</v>
       </c>
       <c r="K706" t="n">
-        <v>24.13793103448292</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L706" t="n">
         <v>3.673999999999995</v>
@@ -36213,7 +36213,7 @@
         <v>14.72999999999997</v>
       </c>
       <c r="K707" t="n">
-        <v>9.090909090909079</v>
+        <v>37.5</v>
       </c>
       <c r="L707" t="n">
         <v>3.678999999999995</v>
@@ -36264,7 +36264,7 @@
         <v>14.80999999999997</v>
       </c>
       <c r="K708" t="n">
-        <v>40.5405405405406</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L708" t="n">
         <v>3.692999999999995</v>
@@ -36315,7 +36315,7 @@
         <v>14.83999999999997</v>
       </c>
       <c r="K709" t="n">
-        <v>48.71794871794886</v>
+        <v>62.96296296296303</v>
       </c>
       <c r="L709" t="n">
         <v>3.709999999999995</v>
@@ -36366,7 +36366,7 @@
         <v>14.89999999999997</v>
       </c>
       <c r="K710" t="n">
-        <v>27.27272727272744</v>
+        <v>29.03225806451635</v>
       </c>
       <c r="L710" t="n">
         <v>3.720999999999994</v>
@@ -36417,7 +36417,7 @@
         <v>14.97999999999997</v>
       </c>
       <c r="K711" t="n">
-        <v>37.25490196078445</v>
+        <v>42.10526315789477</v>
       </c>
       <c r="L711" t="n">
         <v>3.737999999999995</v>
@@ -36468,7 +36468,7 @@
         <v>14.97999999999997</v>
       </c>
       <c r="K712" t="n">
-        <v>31.91489361702146</v>
+        <v>29.0322580645162</v>
       </c>
       <c r="L712" t="n">
         <v>3.753999999999995</v>
@@ -36519,7 +36519,7 @@
         <v>15.01999999999997</v>
       </c>
       <c r="K713" t="n">
-        <v>26.53061224489802</v>
+        <v>17.64705882352931</v>
       </c>
       <c r="L713" t="n">
         <v>3.758999999999995</v>
@@ -36570,7 +36570,7 @@
         <v>15.08999999999997</v>
       </c>
       <c r="K714" t="n">
-        <v>40.74074074074085</v>
+        <v>31.70731707317069</v>
       </c>
       <c r="L714" t="n">
         <v>3.771999999999996</v>
@@ -36621,7 +36621,7 @@
         <v>15.13999999999997</v>
       </c>
       <c r="K715" t="n">
-        <v>27.58620689655167</v>
+        <v>15.55555555555548</v>
       </c>
       <c r="L715" t="n">
         <v>3.779999999999995</v>
@@ -36672,7 +36672,7 @@
         <v>15.19999999999997</v>
       </c>
       <c r="K716" t="n">
-        <v>34.37499999999994</v>
+        <v>36.17021276595738</v>
       </c>
       <c r="L716" t="n">
         <v>3.792999999999996</v>
@@ -36723,7 +36723,7 @@
         <v>15.20999999999997</v>
       </c>
       <c r="K717" t="n">
-        <v>32.30769230769229</v>
+        <v>20</v>
       </c>
       <c r="L717" t="n">
         <v>3.808999999999996</v>
@@ -36774,7 +36774,7 @@
         <v>15.21999999999997</v>
       </c>
       <c r="K718" t="n">
-        <v>32.30769230769229</v>
+        <v>10.52631578947367</v>
       </c>
       <c r="L718" t="n">
         <v>3.815999999999996</v>
@@ -36825,7 +36825,7 @@
         <v>15.27999999999997</v>
       </c>
       <c r="K719" t="n">
-        <v>21.12676056338024</v>
+        <v>10.52631578947351</v>
       </c>
       <c r="L719" t="n">
         <v>3.813999999999997</v>
@@ -36876,7 +36876,7 @@
         <v>15.29999999999997</v>
       </c>
       <c r="K720" t="n">
-        <v>23.28767123287669</v>
+        <v>-6.249999999999965</v>
       </c>
       <c r="L720" t="n">
         <v>3.819999999999996</v>
@@ -36927,7 +36927,7 @@
         <v>15.30999999999997</v>
       </c>
       <c r="K721" t="n">
-        <v>19.44444444444445</v>
+        <v>-9.09090909090898</v>
       </c>
       <c r="L721" t="n">
         <v>3.816999999999996</v>
@@ -36978,7 +36978,7 @@
         <v>15.37999999999997</v>
       </c>
       <c r="K722" t="n">
-        <v>7.692307692307689</v>
+        <v>-16.6666666666665</v>
       </c>
       <c r="L722" t="n">
         <v>3.806999999999996</v>
@@ -37029,7 +37029,7 @@
         <v>15.42999999999997</v>
       </c>
       <c r="K723" t="n">
-        <v>5.263157894736848</v>
+        <v>-23.52941176470591</v>
       </c>
       <c r="L723" t="n">
         <v>3.805999999999996</v>
@@ -37080,7 +37080,7 @@
         <v>15.44999999999997</v>
       </c>
       <c r="K724" t="n">
-        <v>3.896103896103873</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L724" t="n">
         <v>3.795999999999996</v>
@@ -37131,7 +37131,7 @@
         <v>15.45999999999997</v>
       </c>
       <c r="K725" t="n">
-        <v>5.12820512820508</v>
+        <v>-38.46153846153879</v>
       </c>
       <c r="L725" t="n">
         <v>3.791999999999996</v>
@@ -37182,7 +37182,7 @@
         <v>15.48999999999997</v>
       </c>
       <c r="K726" t="n">
-        <v>7.500000000000016</v>
+        <v>-21.42857142857163</v>
       </c>
       <c r="L726" t="n">
         <v>3.784999999999996</v>
@@ -37233,7 +37233,7 @@
         <v>15.56999999999997</v>
       </c>
       <c r="K727" t="n">
-        <v>21.4285714285715</v>
+        <v>8.571428571428696</v>
       </c>
       <c r="L727" t="n">
         <v>3.786999999999995</v>
@@ -37284,7 +37284,7 @@
         <v>15.61999999999997</v>
       </c>
       <c r="K728" t="n">
-        <v>6.172839506172827</v>
+        <v>11.76470588235302</v>
       </c>
       <c r="L728" t="n">
         <v>3.784999999999995</v>
@@ -37335,7 +37335,7 @@
         <v>15.66999999999997</v>
       </c>
       <c r="K729" t="n">
-        <v>8.43373493975907</v>
+        <v>18.91891891891904</v>
       </c>
       <c r="L729" t="n">
         <v>3.793999999999995</v>
@@ -37386,7 +37386,7 @@
         <v>15.69999999999997</v>
       </c>
       <c r="K730" t="n">
-        <v>12.49999999999994</v>
+        <v>12.82051282051281</v>
       </c>
       <c r="L730" t="n">
         <v>3.797999999999995</v>
@@ -37437,7 +37437,7 @@
         <v>15.77999999999997</v>
       </c>
       <c r="K731" t="n">
-        <v>-7.5</v>
+        <v>9.999999999999934</v>
       </c>
       <c r="L731" t="n">
         <v>3.794999999999995</v>
@@ -37488,7 +37488,7 @@
         <v>15.80999999999997</v>
       </c>
       <c r="K732" t="n">
-        <v>-10.84337349397589</v>
+        <v>-10.52631578947372</v>
       </c>
       <c r="L732" t="n">
         <v>3.795999999999994</v>
@@ -37539,7 +37539,7 @@
         <v>15.84999999999997</v>
       </c>
       <c r="K733" t="n">
-        <v>-1.204819277108411</v>
+        <v>5.000000000000022</v>
       </c>
       <c r="L733" t="n">
         <v>3.795999999999994</v>
@@ -37590,7 +37590,7 @@
         <v>15.85999999999997</v>
       </c>
       <c r="K734" t="n">
-        <v>-11.68831168831176</v>
+        <v>0</v>
       </c>
       <c r="L734" t="n">
         <v>3.796999999999994</v>
@@ -37641,7 +37641,7 @@
         <v>15.86999999999997</v>
       </c>
       <c r="K735" t="n">
-        <v>-4.109589041095881</v>
+        <v>-5.26315789473686</v>
       </c>
       <c r="L735" t="n">
         <v>3.797999999999995</v>
@@ -37692,7 +37692,7 @@
         <v>15.90999999999996</v>
       </c>
       <c r="K736" t="n">
-        <v>-7.04225352112678</v>
+        <v>-17.64705882352953</v>
       </c>
       <c r="L736" t="n">
         <v>3.799999999999995</v>
@@ -37743,7 +37743,7 @@
         <v>15.92999999999996</v>
       </c>
       <c r="K737" t="n">
-        <v>-2.777777777777799</v>
+        <v>3.225806451613009</v>
       </c>
       <c r="L737" t="n">
         <v>3.795999999999995</v>
@@ -37794,7 +37794,7 @@
         <v>15.92999999999996</v>
       </c>
       <c r="K738" t="n">
-        <v>-1.408450704225331</v>
+        <v>-15.38461538461562</v>
       </c>
       <c r="L738" t="n">
         <v>3.796999999999995</v>
@@ -37845,7 +37845,7 @@
         <v>15.93999999999996</v>
       </c>
       <c r="K739" t="n">
-        <v>9.09090909090917</v>
+        <v>0</v>
       </c>
       <c r="L739" t="n">
         <v>3.793999999999995</v>
@@ -37896,7 +37896,7 @@
         <v>15.95999999999996</v>
       </c>
       <c r="K740" t="n">
-        <v>3.030303030303057</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L740" t="n">
         <v>3.791999999999994</v>
@@ -37947,7 +37947,7 @@
         <v>15.95999999999996</v>
       </c>
       <c r="K741" t="n">
-        <v>4.61538461538462</v>
+        <v>60.00000000000119</v>
       </c>
       <c r="L741" t="n">
         <v>3.797999999999995</v>
@@ -37998,7 +37998,7 @@
         <v>15.95999999999996</v>
       </c>
       <c r="K742" t="n">
-        <v>17.24137931034492</v>
+        <v>45.45454545454626</v>
       </c>
       <c r="L742" t="n">
         <v>3.806999999999995</v>
@@ -38049,7 +38049,7 @@
         <v>15.96999999999996</v>
       </c>
       <c r="K743" t="n">
-        <v>11.11111111111121</v>
+        <v>63.63636363636525</v>
       </c>
       <c r="L743" t="n">
         <v>3.812999999999994</v>
@@ -38100,7 +38100,7 @@
         <v>15.96999999999996</v>
       </c>
       <c r="K744" t="n">
-        <v>15.38461538461552</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L744" t="n">
         <v>3.819999999999995</v>
@@ -38151,7 +38151,7 @@
         <v>15.97999999999996</v>
       </c>
       <c r="K745" t="n">
-        <v>11.53846153846164</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L745" t="n">
         <v>3.824999999999994</v>
@@ -38202,7 +38202,7 @@
         <v>15.99999999999996</v>
       </c>
       <c r="K746" t="n">
-        <v>1.960784313725463</v>
+        <v>-42.85714285714413</v>
       </c>
       <c r="L746" t="n">
         <v>3.823999999999994</v>
@@ -38253,7 +38253,7 @@
         <v>16.00999999999996</v>
       </c>
       <c r="K747" t="n">
-        <v>-13.63636363636377</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L747" t="n">
         <v>3.821999999999994</v>
@@ -38304,7 +38304,7 @@
         <v>16.03999999999996</v>
       </c>
       <c r="K748" t="n">
-        <v>-9.523809523809614</v>
+        <v>-60.00000000000026</v>
       </c>
       <c r="L748" t="n">
         <v>3.816999999999994</v>
@@ -38355,7 +38355,7 @@
         <v>16.05999999999996</v>
       </c>
       <c r="K749" t="n">
-        <v>-28.20512820512863</v>
+        <v>-60.00000000000026</v>
       </c>
       <c r="L749" t="n">
         <v>3.808999999999995</v>
@@ -38406,7 +38406,7 @@
         <v>16.09999999999996</v>
       </c>
       <c r="K750" t="n">
-        <v>-30.00000000000029</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L750" t="n">
         <v>3.798999999999995</v>
@@ -38457,7 +38457,7 @@
         <v>16.10999999999996</v>
       </c>
       <c r="K751" t="n">
-        <v>-9.090909090909127</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L751" t="n">
         <v>3.789999999999994</v>
@@ -38508,7 +38508,7 @@
         <v>16.16999999999996</v>
       </c>
       <c r="K752" t="n">
-        <v>16.66666666666687</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L752" t="n">
         <v>3.786999999999994</v>
@@ -38559,7 +38559,7 @@
         <v>16.20999999999996</v>
       </c>
       <c r="K753" t="n">
-        <v>-5.555555555555624</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L753" t="n">
         <v>3.778999999999994</v>
@@ -38610,7 +38610,7 @@
         <v>16.21999999999996</v>
       </c>
       <c r="K754" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L754" t="n">
         <v>3.771999999999994</v>
@@ -38661,7 +38661,7 @@
         <v>16.22999999999996</v>
       </c>
       <c r="K755" t="n">
-        <v>0</v>
+        <v>-13.04347826086936</v>
       </c>
       <c r="L755" t="n">
         <v>3.766999999999995</v>
@@ -38712,7 +38712,7 @@
         <v>16.25999999999997</v>
       </c>
       <c r="K756" t="n">
-        <v>-2.857142857142911</v>
+        <v>-4.000000000000036</v>
       </c>
       <c r="L756" t="n">
         <v>3.766999999999995</v>
@@ -38763,7 +38763,7 @@
         <v>16.25999999999997</v>
       </c>
       <c r="K757" t="n">
-        <v>-9.090909090909115</v>
+        <v>9.090909090908999</v>
       </c>
       <c r="L757" t="n">
         <v>3.765999999999994</v>
@@ -38814,7 +38814,7 @@
         <v>16.26999999999997</v>
       </c>
       <c r="K758" t="n">
-        <v>-5.882352941176417</v>
+        <v>23.80952380952344</v>
       </c>
       <c r="L758" t="n">
         <v>3.768999999999994</v>
@@ -38865,7 +38865,7 @@
         <v>16.27999999999997</v>
       </c>
       <c r="K759" t="n">
-        <v>-5.882352941176448</v>
+        <v>55.55555555555435</v>
       </c>
       <c r="L759" t="n">
         <v>3.774999999999994</v>
@@ -38916,7 +38916,7 @@
         <v>16.28999999999997</v>
       </c>
       <c r="K760" t="n">
-        <v>3.030303030303067</v>
+        <v>55.55555555555459</v>
       </c>
       <c r="L760" t="n">
         <v>3.785999999999994</v>
@@ -38967,7 +38967,7 @@
         <v>16.31999999999997</v>
       </c>
       <c r="K761" t="n">
-        <v>11.11111111111097</v>
+        <v>46.66666666666479</v>
       </c>
       <c r="L761" t="n">
         <v>3.798999999999995</v>
@@ -39018,7 +39018,7 @@
         <v>16.40999999999997</v>
       </c>
       <c r="K762" t="n">
-        <v>28.88888888888867</v>
+        <v>99.99999999999689</v>
       </c>
       <c r="L762" t="n">
         <v>3.814999999999995</v>
@@ -39069,7 +39069,7 @@
         <v>16.48999999999997</v>
       </c>
       <c r="K763" t="n">
-        <v>7.692307692307653</v>
+        <v>40.74074074074039</v>
       </c>
       <c r="L763" t="n">
         <v>3.826999999999995</v>
@@ -39120,7 +39120,7 @@
         <v>16.51999999999997</v>
       </c>
       <c r="K764" t="n">
-        <v>1.818181818181765</v>
+        <v>24.13793103448248</v>
       </c>
       <c r="L764" t="n">
         <v>3.834999999999995</v>
@@ -39171,7 +39171,7 @@
         <v>16.55999999999997</v>
       </c>
       <c r="K765" t="n">
-        <v>10.34482758620684</v>
+        <v>26.66666666666663</v>
       </c>
       <c r="L765" t="n">
         <v>3.845999999999994</v>
@@ -39222,7 +39222,7 @@
         <v>16.57999999999997</v>
       </c>
       <c r="K766" t="n">
-        <v>10.34482758620684</v>
+        <v>18.75</v>
       </c>
       <c r="L766" t="n">
         <v>3.851999999999995</v>
@@ -39273,7 +39273,7 @@
         <v>16.58999999999997</v>
       </c>
       <c r="K767" t="n">
-        <v>10.34482758620681</v>
+        <v>18.75</v>
       </c>
       <c r="L767" t="n">
         <v>3.858999999999995</v>
@@ -39324,7 +39324,7 @@
         <v>16.58999999999997</v>
       </c>
       <c r="K768" t="n">
-        <v>16.36363636363629</v>
+        <v>16.12903225806448</v>
       </c>
       <c r="L768" t="n">
         <v>3.864999999999994</v>
@@ -39375,7 +39375,7 @@
         <v>16.60999999999997</v>
       </c>
       <c r="K769" t="n">
-        <v>23.63636363636351</v>
+        <v>18.75</v>
       </c>
       <c r="L769" t="n">
         <v>3.871999999999994</v>
@@ -39426,7 +39426,7 @@
         <v>16.63999999999997</v>
       </c>
       <c r="K770" t="n">
-        <v>25.92592592592557</v>
+        <v>0</v>
       </c>
       <c r="L770" t="n">
         <v>3.874999999999994</v>
@@ -39477,7 +39477,7 @@
         <v>16.66999999999997</v>
       </c>
       <c r="K771" t="n">
-        <v>28.5714285714283</v>
+        <v>-23.07692307692296</v>
       </c>
       <c r="L771" t="n">
         <v>3.877999999999994</v>
@@ -39528,7 +39528,7 @@
         <v>16.67999999999997</v>
       </c>
       <c r="K772" t="n">
-        <v>17.64705882352908</v>
+        <v>5.263157894736596</v>
       </c>
       <c r="L772" t="n">
         <v>3.870999999999994</v>
@@ -39579,7 +39579,7 @@
         <v>16.68999999999997</v>
       </c>
       <c r="K773" t="n">
-        <v>24.99999999999963</v>
+        <v>17.64705882352938</v>
       </c>
       <c r="L773" t="n">
         <v>3.870999999999994</v>
@@ -39630,7 +39630,7 @@
         <v>16.71999999999997</v>
       </c>
       <c r="K774" t="n">
-        <v>15.99999999999979</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L774" t="n">
         <v>3.870999999999994</v>
@@ -39681,7 +39681,7 @@
         <v>16.72999999999997</v>
       </c>
       <c r="K775" t="n">
-        <v>11.99999999999993</v>
+        <v>-19.99999999999958</v>
       </c>
       <c r="L775" t="n">
         <v>3.865999999999993</v>
@@ -39732,7 +39732,7 @@
         <v>16.75999999999997</v>
       </c>
       <c r="K776" t="n">
-        <v>0</v>
+        <v>-41.17647058823505</v>
       </c>
       <c r="L776" t="n">
         <v>3.859999999999993</v>
@@ -39783,7 +39783,7 @@
         <v>16.78999999999997</v>
       </c>
       <c r="K777" t="n">
-        <v>-5.660377358490479</v>
+        <v>-49.99999999999933</v>
       </c>
       <c r="L777" t="n">
         <v>3.849999999999993</v>
@@ -39834,7 +39834,7 @@
         <v>16.79999999999997</v>
       </c>
       <c r="K778" t="n">
-        <v>-5.660377358490601</v>
+        <v>-57.89473684210505</v>
       </c>
       <c r="L778" t="n">
         <v>3.840999999999994</v>
@@ -39885,7 +39885,7 @@
         <v>16.84999999999997</v>
       </c>
       <c r="K779" t="n">
-        <v>-15.78947368421039</v>
+        <v>-61.90476190476161</v>
       </c>
       <c r="L779" t="n">
         <v>3.824999999999994</v>
@@ -39936,7 +39936,7 @@
         <v>16.89999999999997</v>
       </c>
       <c r="K780" t="n">
-        <v>-8.196721311475413</v>
+        <v>-47.82608695652179</v>
       </c>
       <c r="L780" t="n">
         <v>3.816999999999994</v>
@@ -39987,7 +39987,7 @@
         <v>16.95999999999997</v>
       </c>
       <c r="K781" t="n">
-        <v>-3.125</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L781" t="n">
         <v>3.811999999999993</v>
@@ -40038,7 +40038,7 @@
         <v>16.97999999999997</v>
       </c>
       <c r="K782" t="n">
-        <v>-15.78947368421057</v>
+        <v>-3.448275862069055</v>
       </c>
       <c r="L782" t="n">
         <v>3.809999999999993</v>
@@ -40089,7 +40089,7 @@
         <v>17.00999999999997</v>
       </c>
       <c r="K783" t="n">
-        <v>-7.692307692307653</v>
+        <v>-3.448275862068902</v>
       </c>
       <c r="L783" t="n">
         <v>3.805999999999993</v>
@@ -40140,7 +40140,7 @@
         <v>17.00999999999997</v>
       </c>
       <c r="K784" t="n">
-        <v>-2.04081632653056</v>
+        <v>0</v>
       </c>
       <c r="L784" t="n">
         <v>3.804999999999993</v>
@@ -40191,7 +40191,7 @@
         <v>17.03999999999997</v>
       </c>
       <c r="K785" t="n">
-        <v>-4.166666666666636</v>
+        <v>21.42857142857136</v>
       </c>
       <c r="L785" t="n">
         <v>3.807999999999993</v>
@@ -40242,7 +40242,7 @@
         <v>17.05999999999997</v>
       </c>
       <c r="K786" t="n">
-        <v>-4.166666666666636</v>
+        <v>25.92592592592591</v>
       </c>
       <c r="L786" t="n">
         <v>3.811999999999993</v>
@@ -40293,7 +40293,7 @@
         <v>17.07999999999997</v>
       </c>
       <c r="K787" t="n">
-        <v>-2.040816326530651</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L787" t="n">
         <v>3.820999999999993</v>
@@ -40344,7 +40344,7 @@
         <v>17.08999999999997</v>
       </c>
       <c r="K788" t="n">
-        <v>-4.000000000000004</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L788" t="n">
         <v>3.827999999999993</v>
@@ -40395,7 +40395,7 @@
         <v>17.11999999999997</v>
       </c>
       <c r="K789" t="n">
-        <v>-13.72549019607844</v>
+        <v>18.18181818181829</v>
       </c>
       <c r="L789" t="n">
         <v>3.836999999999994</v>
@@ -40446,7 +40446,7 @@
         <v>17.11999999999997</v>
       </c>
       <c r="K790" t="n">
-        <v>-8.333333333333332</v>
+        <v>-12.5</v>
       </c>
       <c r="L790" t="n">
         <v>3.840999999999993</v>
@@ -40497,7 +40497,7 @@
         <v>17.16999999999997</v>
       </c>
       <c r="K791" t="n">
-        <v>-4.000000000000004</v>
+        <v>5.263157894736929</v>
       </c>
       <c r="L791" t="n">
         <v>3.843999999999993</v>
@@ -40548,7 +40548,7 @@
         <v>17.23999999999997</v>
       </c>
       <c r="K792" t="n">
-        <v>-14.28571428571433</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L792" t="n">
         <v>3.837999999999993</v>
@@ -40599,7 +40599,7 @@
         <v>17.25999999999997</v>
       </c>
       <c r="K793" t="n">
-        <v>-15.78947368421057</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L793" t="n">
         <v>3.832999999999993</v>
@@ -40650,7 +40650,7 @@
         <v>17.31999999999997</v>
       </c>
       <c r="K794" t="n">
-        <v>0</v>
+        <v>-7.142857142857211</v>
       </c>
       <c r="L794" t="n">
         <v>3.833999999999993</v>
@@ -40701,7 +40701,7 @@
         <v>17.35999999999997</v>
       </c>
       <c r="K795" t="n">
-        <v>7.936507936507921</v>
+        <v>13.33333333333347</v>
       </c>
       <c r="L795" t="n">
         <v>3.835999999999994</v>
@@ -40752,7 +40752,7 @@
         <v>17.35999999999997</v>
       </c>
       <c r="K796" t="n">
-        <v>13.33333333333339</v>
+        <v>7.142857142857211</v>
       </c>
       <c r="L796" t="n">
         <v>3.839999999999994</v>
@@ -40803,7 +40803,7 @@
         <v>17.37999999999997</v>
       </c>
       <c r="K797" t="n">
-        <v>15.25423728813566</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="L797" t="n">
         <v>3.839999999999994</v>
@@ -40854,7 +40854,7 @@
         <v>17.37999999999997</v>
       </c>
       <c r="K798" t="n">
-        <v>13.79310344827591</v>
+        <v>15.38461538461552</v>
       </c>
       <c r="L798" t="n">
         <v>3.840999999999993</v>
@@ -40905,7 +40905,7 @@
         <v>17.39999999999997</v>
       </c>
       <c r="K799" t="n">
-        <v>20.00000000000008</v>
+        <v>7.142857142857211</v>
       </c>
       <c r="L799" t="n">
         <v>3.842999999999993</v>
@@ -40956,7 +40956,7 @@
         <v>17.42999999999997</v>
       </c>
       <c r="K800" t="n">
-        <v>5.660377358490639</v>
+        <v>-23.07692307692328</v>
       </c>
       <c r="L800" t="n">
         <v>3.841999999999993</v>
@@ -41007,7 +41007,7 @@
         <v>17.47999999999997</v>
       </c>
       <c r="K801" t="n">
-        <v>3.846153846153852</v>
+        <v>25.00000000000018</v>
       </c>
       <c r="L801" t="n">
         <v>3.840999999999993</v>
@@ -41058,7 +41058,7 @@
         <v>17.49999999999997</v>
       </c>
       <c r="K802" t="n">
-        <v>-3.846153846153852</v>
+        <v>25.00000000000018</v>
       </c>
       <c r="L802" t="n">
         <v>3.844999999999993</v>
@@ -41109,7 +41109,7 @@
         <v>17.51999999999997</v>
       </c>
       <c r="K803" t="n">
-        <v>5.882352941176455</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L803" t="n">
         <v>3.852999999999993</v>
@@ -41160,7 +41160,7 @@
         <v>17.55999999999997</v>
       </c>
       <c r="K804" t="n">
-        <v>-1.818181818181869</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L804" t="n">
         <v>3.850999999999993</v>
@@ -41211,7 +41211,7 @@
         <v>17.57999999999997</v>
       </c>
       <c r="K805" t="n">
-        <v>-3.703703703703737</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L805" t="n">
         <v>3.846999999999993</v>
@@ -41262,7 +41262,7 @@
         <v>17.58999999999997</v>
       </c>
       <c r="K806" t="n">
-        <v>1.886792452830241</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L806" t="n">
         <v>3.843999999999993</v>
@@ -41364,7 +41364,7 @@
         <v>17.66999999999997</v>
       </c>
       <c r="K808" t="n">
-        <v>-10.34482758620694</v>
+        <v>-18.51851851851848</v>
       </c>
       <c r="L808" t="n">
         <v>3.836999999999994</v>
@@ -41415,7 +41415,7 @@
         <v>17.67999999999997</v>
       </c>
       <c r="K809" t="n">
-        <v>-7.142857142857166</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L809" t="n">
         <v>3.830999999999993</v>
@@ -41466,7 +41466,7 @@
         <v>17.68999999999997</v>
       </c>
       <c r="K810" t="n">
-        <v>-8.771929824561369</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L810" t="n">
         <v>3.826999999999993</v>
@@ -41517,7 +41517,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K811" t="n">
-        <v>-16.98113207547183</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L811" t="n">
         <v>3.818999999999993</v>
@@ -41568,7 +41568,7 @@
         <v>17.70999999999997</v>
       </c>
       <c r="K812" t="n">
-        <v>-6.382978723404277</v>
+        <v>-47.36842105263207</v>
       </c>
       <c r="L812" t="n">
         <v>3.811999999999993</v>
@@ -41619,7 +41619,7 @@
         <v>17.73999999999997</v>
       </c>
       <c r="K813" t="n">
-        <v>4.166666666666698</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L813" t="n">
         <v>3.805999999999993</v>
@@ -41670,7 +41670,7 @@
         <v>17.75999999999997</v>
       </c>
       <c r="K814" t="n">
-        <v>-4.545454545454573</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L814" t="n">
         <v>3.805999999999993</v>
@@ -41721,7 +41721,7 @@
         <v>17.77999999999997</v>
       </c>
       <c r="K815" t="n">
-        <v>-19.04761904761915</v>
+        <v>-26.31578947368466</v>
       </c>
       <c r="L815" t="n">
         <v>3.801999999999992</v>
@@ -41772,7 +41772,7 @@
         <v>17.80999999999997</v>
       </c>
       <c r="K816" t="n">
-        <v>-11.11111111111109</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L816" t="n">
         <v>3.799999999999992</v>
@@ -41823,7 +41823,7 @@
         <v>17.82999999999997</v>
       </c>
       <c r="K817" t="n">
-        <v>-2.222222222222178</v>
+        <v>37.5</v>
       </c>
       <c r="L817" t="n">
         <v>3.798999999999992</v>
@@ -41874,7 +41874,7 @@
         <v>17.82999999999997</v>
       </c>
       <c r="K818" t="n">
-        <v>-2.222222222222178</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L818" t="n">
         <v>3.804999999999993</v>
@@ -41925,7 +41925,7 @@
         <v>17.85999999999997</v>
       </c>
       <c r="K819" t="n">
-        <v>-4.347826086956517</v>
+        <v>29.41176470588257</v>
       </c>
       <c r="L819" t="n">
         <v>3.808999999999993</v>
@@ -41976,7 +41976,7 @@
         <v>17.90999999999997</v>
       </c>
       <c r="K820" t="n">
-        <v>-8.333333333333332</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L820" t="n">
         <v>3.808999999999993</v>
@@ -42027,7 +42027,7 @@
         <v>17.93999999999997</v>
       </c>
       <c r="K821" t="n">
-        <v>-13.04347826086955</v>
+        <v>13.04347826086925</v>
       </c>
       <c r="L821" t="n">
         <v>3.810999999999992</v>
@@ -42078,7 +42078,7 @@
         <v>17.93999999999997</v>
       </c>
       <c r="K822" t="n">
-        <v>-9.090909090909074</v>
+        <v>0</v>
       </c>
       <c r="L822" t="n">
         <v>3.813999999999992</v>
@@ -42129,7 +42129,7 @@
         <v>17.93999999999997</v>
       </c>
       <c r="K823" t="n">
-        <v>-14.28571428571424</v>
+        <v>-11.11111111111092</v>
       </c>
       <c r="L823" t="n">
         <v>3.813999999999992</v>
@@ -42180,7 +42180,7 @@
         <v>17.96999999999997</v>
       </c>
       <c r="K824" t="n">
-        <v>2.439024390243937</v>
+        <v>15.78947368421026</v>
       </c>
       <c r="L824" t="n">
         <v>3.814999999999992</v>
@@ -42231,7 +42231,7 @@
         <v>17.99999999999997</v>
       </c>
       <c r="K825" t="n">
-        <v>-9.523809523809414</v>
+        <v>-15.78947368421026</v>
       </c>
       <c r="L825" t="n">
         <v>3.814999999999992</v>
@@ -42282,7 +42282,7 @@
         <v>17.99999999999997</v>
       </c>
       <c r="K826" t="n">
-        <v>-12.19512195121947</v>
+        <v>-29.4117647058816</v>
       </c>
       <c r="L826" t="n">
         <v>3.811999999999991</v>
@@ -42333,7 +42333,7 @@
         <v>18.00999999999997</v>
       </c>
       <c r="K827" t="n">
-        <v>-17.07317073170712</v>
+        <v>-33.33333333333276</v>
       </c>
       <c r="L827" t="n">
         <v>3.805999999999991</v>
@@ -42384,7 +42384,7 @@
         <v>18.00999999999997</v>
       </c>
       <c r="K828" t="n">
-        <v>0</v>
+        <v>-19.99999999999958</v>
       </c>
       <c r="L828" t="n">
         <v>3.799999999999991</v>
@@ -42435,7 +42435,7 @@
         <v>18.01999999999997</v>
       </c>
       <c r="K829" t="n">
-        <v>0</v>
+        <v>9.090909090908649</v>
       </c>
       <c r="L829" t="n">
         <v>3.795999999999991</v>
@@ -42486,7 +42486,7 @@
         <v>18.04999999999997</v>
       </c>
       <c r="K830" t="n">
-        <v>11.11111111111103</v>
+        <v>9.090909090909054</v>
       </c>
       <c r="L830" t="n">
         <v>3.799999999999991</v>
@@ -42537,7 +42537,7 @@
         <v>18.06999999999997</v>
       </c>
       <c r="K831" t="n">
-        <v>2.702702702702732</v>
+        <v>-7.692307692307376</v>
       </c>
       <c r="L831" t="n">
         <v>3.798999999999991</v>
@@ -42588,7 +42588,7 @@
         <v>18.07999999999997</v>
       </c>
       <c r="K832" t="n">
-        <v>2.702702702702586</v>
+        <v>-14.28571428571388</v>
       </c>
       <c r="L832" t="n">
         <v>3.796999999999991</v>
@@ -42639,7 +42639,7 @@
         <v>18.13999999999997</v>
       </c>
       <c r="K833" t="n">
-        <v>-19.99999999999962</v>
+        <v>-64.70588235294046</v>
       </c>
       <c r="L833" t="n">
         <v>3.788999999999992</v>
@@ -42690,7 +42690,7 @@
         <v>18.13999999999997</v>
       </c>
       <c r="K834" t="n">
-        <v>-26.31578947368369</v>
+        <v>-57.14285714285664</v>
       </c>
       <c r="L834" t="n">
         <v>3.777999999999992</v>
@@ -42741,7 +42741,7 @@
         <v>18.14999999999997</v>
       </c>
       <c r="K835" t="n">
-        <v>-24.32432432432375</v>
+        <v>-59.99999999999905</v>
       </c>
       <c r="L835" t="n">
         <v>3.768999999999992</v>
@@ -42792,7 +42792,7 @@
         <v>18.16999999999997</v>
       </c>
       <c r="K836" t="n">
-        <v>-38.88888888888822</v>
+        <v>-62.49999999999861</v>
       </c>
       <c r="L836" t="n">
         <v>3.757999999999992</v>
@@ -42843,7 +42843,7 @@
         <v>18.16999999999997</v>
       </c>
       <c r="K837" t="n">
-        <v>-47.05882352941084</v>
+        <v>-62.49999999999861</v>
       </c>
       <c r="L837" t="n">
         <v>3.747999999999992</v>
@@ -42894,7 +42894,7 @@
         <v>18.29999999999997</v>
       </c>
       <c r="K838" t="n">
-        <v>-6.382978723404227</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L838" t="n">
         <v>3.750999999999992</v>
@@ -42945,7 +42945,7 @@
         <v>18.30999999999997</v>
       </c>
       <c r="K839" t="n">
-        <v>-2.222222222222143</v>
+        <v>0</v>
       </c>
       <c r="L839" t="n">
         <v>3.753999999999992</v>
@@ -42996,7 +42996,7 @@
         <v>18.30999999999997</v>
       </c>
       <c r="K840" t="n">
-        <v>9.999999999999867</v>
+        <v>8.333333333333272</v>
       </c>
       <c r="L840" t="n">
         <v>3.753999999999992</v>
@@ -43047,7 +43047,7 @@
         <v>18.31999999999998</v>
       </c>
       <c r="K841" t="n">
-        <v>0</v>
+        <v>8.333333333333272</v>
       </c>
       <c r="L841" t="n">
         <v>3.754999999999992</v>
@@ -43098,7 +43098,7 @@
         <v>18.33999999999997</v>
       </c>
       <c r="K842" t="n">
-        <v>4.999999999999933</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L842" t="n">
         <v>3.758999999999992</v>
@@ -43149,7 +43149,7 @@
         <v>18.38999999999998</v>
       </c>
       <c r="K843" t="n">
-        <v>-6.666666666666529</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L843" t="n">
         <v>3.763999999999992</v>
@@ -43200,7 +43200,7 @@
         <v>18.43999999999998</v>
       </c>
       <c r="K844" t="n">
-        <v>-2.127659574468107</v>
+        <v>37.93103448275822</v>
       </c>
       <c r="L844" t="n">
         <v>3.773999999999992</v>
@@ -43251,7 +43251,7 @@
         <v>18.47999999999998</v>
       </c>
       <c r="K845" t="n">
-        <v>12.49999999999991</v>
+        <v>54.83870967741893</v>
       </c>
       <c r="L845" t="n">
         <v>3.788999999999992</v>
@@ -43302,7 +43302,7 @@
         <v>18.51999999999997</v>
       </c>
       <c r="K846" t="n">
-        <v>3.846153846153826</v>
+        <v>37.14285714285696</v>
       </c>
       <c r="L846" t="n">
         <v>3.801999999999992</v>
@@ -43353,7 +43353,7 @@
         <v>18.56999999999998</v>
       </c>
       <c r="K847" t="n">
-        <v>-3.571428571428537</v>
+        <v>-18.51851851851824</v>
       </c>
       <c r="L847" t="n">
         <v>3.809999999999993</v>
@@ -43404,7 +43404,7 @@
         <v>18.59999999999998</v>
       </c>
       <c r="K848" t="n">
-        <v>1.694915254237232</v>
+        <v>-3.448275862069013</v>
       </c>
       <c r="L848" t="n">
         <v>3.807999999999993</v>
@@ -43455,7 +43455,7 @@
         <v>18.62999999999998</v>
       </c>
       <c r="K849" t="n">
-        <v>-1.639344262295029</v>
+        <v>-12.49999999999986</v>
       </c>
       <c r="L849" t="n">
         <v>3.803999999999993</v>
@@ -43506,7 +43506,7 @@
         <v>18.65999999999998</v>
       </c>
       <c r="K850" t="n">
-        <v>-1.639344262295102</v>
+        <v>0</v>
       </c>
       <c r="L850" t="n">
         <v>3.802999999999992</v>
@@ -43557,7 +43557,7 @@
         <v>18.66999999999998</v>
       </c>
       <c r="K851" t="n">
-        <v>0</v>
+        <v>-9.090909090908884</v>
       </c>
       <c r="L851" t="n">
         <v>3.801999999999992</v>
@@ -43608,7 +43608,7 @@
         <v>18.68999999999998</v>
       </c>
       <c r="K852" t="n">
-        <v>-1.639344262295029</v>
+        <v>0</v>
       </c>
       <c r="L852" t="n">
         <v>3.796999999999993</v>
@@ -43659,7 +43659,7 @@
         <v>18.68999999999998</v>
       </c>
       <c r="K853" t="n">
-        <v>9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L853" t="n">
         <v>3.796999999999993</v>
@@ -43710,7 +43710,7 @@
         <v>18.70999999999998</v>
       </c>
       <c r="K854" t="n">
-        <v>12.28070175438578</v>
+        <v>-30.43478260869506</v>
       </c>
       <c r="L854" t="n">
         <v>3.793999999999992</v>
@@ -43761,7 +43761,7 @@
         <v>18.71999999999998</v>
       </c>
       <c r="K855" t="n">
-        <v>12.28070175438578</v>
+        <v>-19.99999999999938</v>
       </c>
       <c r="L855" t="n">
         <v>3.785999999999993</v>
@@ -43812,7 +43812,7 @@
         <v>18.72999999999998</v>
       </c>
       <c r="K856" t="n">
-        <v>17.85714285714257</v>
+        <v>12.49999999999945</v>
       </c>
       <c r="L856" t="n">
         <v>3.782999999999993</v>
@@ -43863,7 +43863,7 @@
         <v>18.73999999999998</v>
       </c>
       <c r="K857" t="n">
-        <v>15.7894736842102</v>
+        <v>-14.28571428571352</v>
       </c>
       <c r="L857" t="n">
         <v>3.783999999999993</v>
@@ -43914,7 +43914,7 @@
         <v>18.74999999999999</v>
       </c>
       <c r="K858" t="n">
-        <v>-6.666666666666424</v>
+        <v>16.66666666666556</v>
       </c>
       <c r="L858" t="n">
         <v>3.782999999999993</v>
@@ -43965,7 +43965,7 @@
         <v>18.75999999999998</v>
       </c>
       <c r="K859" t="n">
-        <v>-2.222222222222225</v>
+        <v>0</v>
       </c>
       <c r="L859" t="n">
         <v>3.785999999999992</v>
@@ -44016,7 +44016,7 @@
         <v>18.80999999999998</v>
       </c>
       <c r="K860" t="n">
-        <v>-11.99999999999975</v>
+        <v>-28.57142857142775</v>
       </c>
       <c r="L860" t="n">
         <v>3.780999999999993</v>
@@ -44067,7 +44067,7 @@
         <v>18.81999999999999</v>
       </c>
       <c r="K861" t="n">
-        <v>-7.999999999999837</v>
+        <v>-7.692307692307508</v>
       </c>
       <c r="L861" t="n">
         <v>3.777999999999992</v>
@@ -44118,7 +44118,7 @@
         <v>18.86999999999999</v>
       </c>
       <c r="K862" t="n">
-        <v>-1.886792452830106</v>
+        <v>22.2222222222214</v>
       </c>
       <c r="L862" t="n">
         <v>3.781999999999992</v>
@@ -44169,7 +44169,7 @@
         <v>18.87999999999999</v>
       </c>
       <c r="K863" t="n">
-        <v>10.20408163265276</v>
+        <v>17.64705882352838</v>
       </c>
       <c r="L863" t="n">
         <v>3.786999999999992</v>
@@ -44220,7 +44220,7 @@
         <v>18.89999999999999</v>
       </c>
       <c r="K864" t="n">
-        <v>4.347826086956417</v>
+        <v>33.3333333333321</v>
       </c>
       <c r="L864" t="n">
         <v>3.791999999999992</v>
@@ -44271,7 +44271,7 @@
         <v>18.89999999999999</v>
       </c>
       <c r="K865" t="n">
-        <v>-4.761904761904626</v>
+        <v>29.41176470588134</v>
       </c>
       <c r="L865" t="n">
         <v>3.797999999999992</v>
@@ -44322,7 +44322,7 @@
         <v>18.93999999999999</v>
       </c>
       <c r="K866" t="n">
-        <v>-4.761904761904626</v>
+        <v>9.999999999999867</v>
       </c>
       <c r="L866" t="n">
         <v>3.798999999999991</v>
@@ -44373,7 +44373,7 @@
         <v>18.96999999999999</v>
       </c>
       <c r="K867" t="n">
-        <v>14.99999999999953</v>
+        <v>18.181818181818</v>
       </c>
       <c r="L867" t="n">
         <v>3.803999999999991</v>
@@ -44424,7 +44424,7 @@
         <v>18.97999999999999</v>
       </c>
       <c r="K868" t="n">
-        <v>5.263157894736663</v>
+        <v>9.090909090908852</v>
       </c>
       <c r="L868" t="n">
         <v>3.806999999999992</v>
@@ -44475,7 +44475,7 @@
         <v>19.00999999999999</v>
       </c>
       <c r="K869" t="n">
-        <v>5.263157894736663</v>
+        <v>19.99999999999938</v>
       </c>
       <c r="L869" t="n">
         <v>3.805999999999992</v>
@@ -44526,7 +44526,7 @@
         <v>19.04999999999999</v>
       </c>
       <c r="K870" t="n">
-        <v>7.692307692307534</v>
+        <v>30.43478260869525</v>
       </c>
       <c r="L870" t="n">
         <v>3.813999999999992</v>
@@ -44577,7 +44577,7 @@
         <v>19.08999999999999</v>
       </c>
       <c r="K871" t="n">
-        <v>0</v>
+        <v>-9.090909090908999</v>
       </c>
       <c r="L871" t="n">
         <v>3.816999999999992</v>
@@ -44628,7 +44628,7 @@
         <v>19.12999999999999</v>
       </c>
       <c r="K872" t="n">
-        <v>13.63636363636339</v>
+        <v>4.000000000000092</v>
       </c>
       <c r="L872" t="n">
         <v>3.818999999999991</v>
@@ -44679,7 +44679,7 @@
         <v>19.16999999999999</v>
       </c>
       <c r="K873" t="n">
-        <v>4.166666666666605</v>
+        <v>-18.51851851851848</v>
       </c>
       <c r="L873" t="n">
         <v>3.815999999999991</v>
@@ -44730,7 +44730,7 @@
         <v>19.19999999999999</v>
       </c>
       <c r="K874" t="n">
-        <v>6.122448979591684</v>
+        <v>-6.666666666666657</v>
       </c>
       <c r="L874" t="n">
         <v>3.813999999999992</v>
@@ -44781,7 +44781,7 @@
         <v>19.24999999999999</v>
       </c>
       <c r="K875" t="n">
-        <v>-1.886792452830119</v>
+        <v>-9.677419354838577</v>
       </c>
       <c r="L875" t="n">
         <v>3.806999999999992</v>
@@ -44832,7 +44832,7 @@
         <v>19.26999999999999</v>
       </c>
       <c r="K876" t="n">
-        <v>0</v>
+        <v>-13.33333333333331</v>
       </c>
       <c r="L876" t="n">
         <v>3.805999999999993</v>
@@ -44883,7 +44883,7 @@
         <v>19.29999999999999</v>
       </c>
       <c r="K877" t="n">
-        <v>-3.571428571428537</v>
+        <v>-18.75</v>
       </c>
       <c r="L877" t="n">
         <v>3.798999999999992</v>
@@ -44934,7 +44934,7 @@
         <v>19.30999999999999</v>
       </c>
       <c r="K878" t="n">
-        <v>-7.14285714285712</v>
+        <v>-13.33333333333347</v>
       </c>
       <c r="L878" t="n">
         <v>3.791999999999992</v>
@@ -44985,7 +44985,7 @@
         <v>19.32999999999999</v>
       </c>
       <c r="K879" t="n">
-        <v>-5.263157894736772</v>
+        <v>-21.42857142857163</v>
       </c>
       <c r="L879" t="n">
         <v>3.789999999999993</v>
@@ -45036,7 +45036,7 @@
         <v>19.33999999999999</v>
       </c>
       <c r="K880" t="n">
-        <v>5.660377358490479</v>
+        <v>-4.000000000000092</v>
       </c>
       <c r="L880" t="n">
         <v>3.784999999999993</v>
@@ -45087,7 +45087,7 @@
         <v>19.34999999999999</v>
       </c>
       <c r="K881" t="n">
-        <v>5.660377358490563</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="L881" t="n">
         <v>3.784999999999993</v>
@@ -45138,7 +45138,7 @@
         <v>19.36999999999999</v>
       </c>
       <c r="K882" t="n">
-        <v>-7.99999999999995</v>
+        <v>-9.999999999999867</v>
       </c>
       <c r="L882" t="n">
         <v>3.778999999999994</v>
@@ -45189,7 +45189,7 @@
         <v>19.36999999999999</v>
       </c>
       <c r="K883" t="n">
-        <v>-10.20408163265298</v>
+        <v>-29.41176470588195</v>
       </c>
       <c r="L883" t="n">
         <v>3.776999999999994</v>
@@ -45240,7 +45240,7 @@
         <v>19.36999999999999</v>
       </c>
       <c r="K884" t="n">
-        <v>-14.89361702127648</v>
+        <v>0</v>
       </c>
       <c r="L884" t="n">
         <v>3.771999999999994</v>
@@ -45291,7 +45291,7 @@
         <v>19.40999999999999</v>
       </c>
       <c r="K885" t="n">
-        <v>-5.882352941176414</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L885" t="n">
         <v>3.775999999999994</v>
@@ -45342,7 +45342,7 @@
         <v>19.41999999999999</v>
       </c>
       <c r="K886" t="n">
-        <v>0</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L886" t="n">
         <v>3.776999999999994</v>
@@ -45393,7 +45393,7 @@
         <v>19.42999999999999</v>
       </c>
       <c r="K887" t="n">
-        <v>-8.695652173912968</v>
+        <v>33.3333333333321</v>
       </c>
       <c r="L887" t="n">
         <v>3.779999999999994</v>
@@ -45444,7 +45444,7 @@
         <v>19.43999999999999</v>
       </c>
       <c r="K888" t="n">
-        <v>-4.347826086956517</v>
+        <v>27.27272727272635</v>
       </c>
       <c r="L888" t="n">
         <v>3.784999999999994</v>
@@ -45495,7 +45495,7 @@
         <v>19.43999999999999</v>
       </c>
       <c r="K889" t="n">
-        <v>2.325581395348789</v>
+        <v>19.99999999999973</v>
       </c>
       <c r="L889" t="n">
         <v>3.787999999999993</v>
@@ -45546,7 +45546,7 @@
         <v>19.43999999999999</v>
       </c>
       <c r="K890" t="n">
-        <v>-7.692307692307746</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L890" t="n">
         <v>3.789999999999993</v>
@@ -45597,7 +45597,7 @@
         <v>19.44999999999999</v>
       </c>
       <c r="K891" t="n">
-        <v>5.555555555555515</v>
+        <v>49.99999999999889</v>
       </c>
       <c r="L891" t="n">
         <v>3.791999999999993</v>
@@ -45648,7 +45648,7 @@
         <v>19.45999999999999</v>
       </c>
       <c r="K892" t="n">
-        <v>-3.030303030303051</v>
+        <v>55.55555555555325</v>
       </c>
       <c r="L892" t="n">
         <v>3.796999999999993</v>
@@ -45699,7 +45699,7 @@
         <v>19.47</v>
       </c>
       <c r="K893" t="n">
-        <v>13.333333333333</v>
+        <v>59.99999999999707</v>
       </c>
       <c r="L893" t="n">
         <v>3.802999999999992</v>
@@ -45750,7 +45750,7 @@
         <v>19.48</v>
       </c>
       <c r="K894" t="n">
-        <v>7.142857142856938</v>
+        <v>42.85714285713805</v>
       </c>
       <c r="L894" t="n">
         <v>3.809999999999992</v>
@@ -45801,7 +45801,7 @@
         <v>19.48</v>
       </c>
       <c r="K895" t="n">
-        <v>30.43478260869459</v>
+        <v>66.66666666666026</v>
       </c>
       <c r="L895" t="n">
         <v>3.812999999999991</v>
@@ -45852,7 +45852,7 @@
         <v>19.49</v>
       </c>
       <c r="K896" t="n">
-        <v>27.27272727272612</v>
+        <v>99.99999999999038</v>
       </c>
       <c r="L896" t="n">
         <v>3.817999999999992</v>
@@ -45903,7 +45903,7 @@
         <v>19.5</v>
       </c>
       <c r="K897" t="n">
-        <v>49.99999999999756</v>
+        <v>99.99999999998445</v>
       </c>
       <c r="L897" t="n">
         <v>3.824999999999991</v>
@@ -45954,7 +45954,7 @@
         <v>19.51</v>
       </c>
       <c r="K898" t="n">
-        <v>49.99999999999756</v>
+        <v>71.42857142856427</v>
       </c>
       <c r="L898" t="n">
         <v>3.829999999999992</v>
@@ -46005,7 +46005,7 @@
         <v>19.53</v>
       </c>
       <c r="K899" t="n">
-        <v>29.99999999999853</v>
+        <v>33.33333333333103</v>
       </c>
       <c r="L899" t="n">
         <v>3.832999999999992</v>
@@ -46056,7 +46056,7 @@
         <v>19.55</v>
       </c>
       <c r="K900" t="n">
-        <v>33.33333333333221</v>
+        <v>39.99999999999805</v>
       </c>
       <c r="L900" t="n">
         <v>3.837999999999993</v>
@@ -46107,7 +46107,7 @@
         <v>19.66</v>
       </c>
       <c r="K901" t="n">
-        <v>-16.12903225806415</v>
+        <v>-39.99999999999925</v>
       </c>
       <c r="L901" t="n">
         <v>3.830999999999992</v>
@@ -46158,7 +46158,7 @@
         <v>19.76</v>
       </c>
       <c r="K902" t="n">
-        <v>17.94871794871755</v>
+        <v>3.44827586206886</v>
       </c>
       <c r="L902" t="n">
         <v>3.832999999999992</v>
@@ -46209,7 +46209,7 @@
         <v>19.81</v>
       </c>
       <c r="K903" t="n">
-        <v>4.545454545454463</v>
+        <v>-15.15151515151501</v>
       </c>
       <c r="L903" t="n">
         <v>3.828999999999992</v>
@@ -46260,7 +46260,7 @@
         <v>19.82</v>
       </c>
       <c r="K904" t="n">
-        <v>6.666666666666476</v>
+        <v>-11.76470588235283</v>
       </c>
       <c r="L904" t="n">
         <v>3.824999999999991</v>
@@ -46311,7 +46311,7 @@
         <v>19.86</v>
       </c>
       <c r="K905" t="n">
-        <v>6.666666666666476</v>
+        <v>-2.702702702702758</v>
       </c>
       <c r="L905" t="n">
         <v>3.824999999999991</v>
@@ -46362,7 +46362,7 @@
         <v>19.88</v>
       </c>
       <c r="K906" t="n">
-        <v>4.34782608695645</v>
+        <v>-10.52631578947372</v>
       </c>
       <c r="L906" t="n">
         <v>3.821999999999991</v>
@@ -46413,7 +46413,7 @@
         <v>19.9</v>
       </c>
       <c r="K907" t="n">
-        <v>2.127659574468013</v>
+        <v>-12.82051282051287</v>
       </c>
       <c r="L907" t="n">
         <v>3.815999999999991</v>
@@ -46464,7 +46464,7 @@
         <v>19.93</v>
       </c>
       <c r="K908" t="n">
-        <v>-6.122448979591684</v>
+        <v>-14.99999999999993</v>
       </c>
       <c r="L908" t="n">
         <v>3.807999999999991</v>
@@ -46515,7 +46515,7 @@
         <v>19.97</v>
       </c>
       <c r="K909" t="n">
-        <v>1.886792452830203</v>
+        <v>-9.523809523809494</v>
       </c>
       <c r="L909" t="n">
         <v>3.805999999999992</v>
@@ -46566,7 +46566,7 @@
         <v>19.98</v>
       </c>
       <c r="K910" t="n">
-        <v>3.703703703703664</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L910" t="n">
         <v>3.802999999999991</v>
@@ -46617,7 +46617,7 @@
         <v>19.98</v>
       </c>
       <c r="K911" t="n">
-        <v>1.886792452830132</v>
+        <v>-9.090909090909145</v>
       </c>
       <c r="L911" t="n">
         <v>3.810999999999992</v>
@@ -46668,7 +46668,7 @@
         <v>19.98999999999999</v>
       </c>
       <c r="K912" t="n">
-        <v>-1.886792452830145</v>
+        <v>11.11111111111136</v>
       </c>
       <c r="L912" t="n">
         <v>3.807999999999991</v>
@@ -46719,7 +46719,7 @@
         <v>19.98999999999999</v>
       </c>
       <c r="K913" t="n">
-        <v>-3.846153846153852</v>
+        <v>5.882352941176793</v>
       </c>
       <c r="L913" t="n">
         <v>3.809999999999992</v>
@@ -46770,7 +46770,7 @@
         <v>20.02</v>
       </c>
       <c r="K914" t="n">
-        <v>-11.11111111111114</v>
+        <v>-37.50000000000083</v>
       </c>
       <c r="L914" t="n">
         <v>3.807999999999992</v>
@@ -46821,7 +46821,7 @@
         <v>20.02999999999999</v>
       </c>
       <c r="K915" t="n">
-        <v>-12.72727272727277</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L915" t="n">
         <v>3.800999999999992</v>
@@ -46872,7 +46872,7 @@
         <v>20.03999999999999</v>
       </c>
       <c r="K916" t="n">
-        <v>-12.72727272727293</v>
+        <v>-14.28571428571497</v>
       </c>
       <c r="L916" t="n">
         <v>3.796999999999992</v>
@@ -46923,7 +46923,7 @@
         <v>20.04999999999999</v>
       </c>
       <c r="K917" t="n">
-        <v>-16.36363636363663</v>
+        <v>0</v>
       </c>
       <c r="L917" t="n">
         <v>3.793999999999992</v>
@@ -46974,7 +46974,7 @@
         <v>20.07999999999999</v>
       </c>
       <c r="K918" t="n">
-        <v>-8.771929824561555</v>
+        <v>-9.090909090909935</v>
       </c>
       <c r="L918" t="n">
         <v>3.796999999999992</v>
@@ -47025,7 +47025,7 @@
         <v>20.09999999999999</v>
       </c>
       <c r="K919" t="n">
-        <v>-1.754385964912342</v>
+        <v>0</v>
       </c>
       <c r="L919" t="n">
         <v>3.797999999999992</v>
@@ -47076,7 +47076,7 @@
         <v>20.13999999999999</v>
       </c>
       <c r="K920" t="n">
-        <v>-11.86440677966121</v>
+        <v>-25.00000000000111</v>
       </c>
       <c r="L920" t="n">
         <v>3.793999999999992</v>
@@ -47127,7 +47127,7 @@
         <v>20.15999999999999</v>
       </c>
       <c r="K921" t="n">
-        <v>12.00000000000009</v>
+        <v>-5.882352941176793</v>
       </c>
       <c r="L921" t="n">
         <v>3.791999999999992</v>
@@ -47178,7 +47178,7 @@
         <v>20.15999999999999</v>
       </c>
       <c r="K922" t="n">
-        <v>-10.00000000000022</v>
+        <v>-5.882352941176793</v>
       </c>
       <c r="L922" t="n">
         <v>3.790999999999991</v>
@@ -47229,7 +47229,7 @@
         <v>20.15999999999999</v>
       </c>
       <c r="K923" t="n">
-        <v>2.857142857142871</v>
+        <v>14.28571428571497</v>
       </c>
       <c r="L923" t="n">
         <v>3.789999999999991</v>
@@ -47280,7 +47280,7 @@
         <v>20.18999999999999</v>
       </c>
       <c r="K924" t="n">
-        <v>-8.108108108108267</v>
+        <v>0</v>
       </c>
       <c r="L924" t="n">
         <v>3.788999999999991</v>
@@ -47331,7 +47331,7 @@
         <v>20.19999999999999</v>
       </c>
       <c r="K925" t="n">
-        <v>-23.5294117647064</v>
+        <v>-12.5</v>
       </c>
       <c r="L925" t="n">
         <v>3.78799999999999</v>
@@ -47382,7 +47382,7 @@
         <v>20.20999999999999</v>
       </c>
       <c r="K926" t="n">
-        <v>-21.2121212121215</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L926" t="n">
         <v>3.78499999999999</v>
@@ -47484,7 +47484,7 @@
         <v>20.27</v>
       </c>
       <c r="K928" t="n">
-        <v>5.88235294117654</v>
+        <v>-17.64705882352875</v>
       </c>
       <c r="L928" t="n">
         <v>3.78699999999999</v>
@@ -47535,7 +47535,7 @@
         <v>20.27</v>
       </c>
       <c r="K929" t="n">
-        <v>-6.666666666666736</v>
+        <v>7.692307692307508</v>
       </c>
       <c r="L929" t="n">
         <v>3.78399999999999</v>
@@ -47586,7 +47586,7 @@
         <v>20.31</v>
       </c>
       <c r="K930" t="n">
-        <v>-21.21212121212127</v>
+        <v>-33.33333333333195</v>
       </c>
       <c r="L930" t="n">
         <v>3.780999999999989</v>
@@ -47637,7 +47637,7 @@
         <v>20.32999999999999</v>
       </c>
       <c r="K931" t="n">
-        <v>-14.28571428571432</v>
+        <v>-17.64705882352875</v>
       </c>
       <c r="L931" t="n">
         <v>3.77799999999999</v>
@@ -47688,7 +47688,7 @@
         <v>20.36999999999999</v>
       </c>
       <c r="K932" t="n">
-        <v>-21.05263157894744</v>
+        <v>-33.33333333333256</v>
       </c>
       <c r="L932" t="n">
         <v>3.77099999999999</v>
@@ -47739,7 +47739,7 @@
         <v>20.38</v>
       </c>
       <c r="K933" t="n">
-        <v>-17.94871794871788</v>
+        <v>-15.78947368421002</v>
       </c>
       <c r="L933" t="n">
         <v>3.764999999999991</v>
@@ -47790,7 +47790,7 @@
         <v>20.48999999999999</v>
       </c>
       <c r="K934" t="n">
-        <v>-31.91489361702133</v>
+        <v>-44.8275862068961</v>
       </c>
       <c r="L934" t="n">
         <v>3.750999999999991</v>
@@ -47841,7 +47841,7 @@
         <v>20.59</v>
       </c>
       <c r="K935" t="n">
-        <v>-7.14285714285712</v>
+        <v>-5.263157894736811</v>
       </c>
       <c r="L935" t="n">
         <v>3.74799999999999</v>
@@ -47892,7 +47892,7 @@
         <v>20.62</v>
       </c>
       <c r="K936" t="n">
-        <v>-13.79310344827567</v>
+        <v>-27.77777777777745</v>
       </c>
       <c r="L936" t="n">
         <v>3.742999999999991</v>
@@ -47943,7 +47943,7 @@
         <v>20.66</v>
       </c>
       <c r="K937" t="n">
-        <v>-18.03278688524569</v>
+        <v>-33.33333333333326</v>
       </c>
       <c r="L937" t="n">
         <v>3.728999999999991</v>
@@ -47994,7 +47994,7 @@
         <v>20.73</v>
       </c>
       <c r="K938" t="n">
-        <v>-10.76923076923065</v>
+        <v>-13.04347826086955</v>
       </c>
       <c r="L938" t="n">
         <v>3.722999999999991</v>
@@ -48045,7 +48045,7 @@
         <v>20.8</v>
       </c>
       <c r="K939" t="n">
-        <v>-2.857142857142834</v>
+        <v>10.20408163265298</v>
       </c>
       <c r="L939" t="n">
         <v>3.72399999999999</v>
@@ -48096,7 +48096,7 @@
         <v>20.91</v>
       </c>
       <c r="K940" t="n">
-        <v>-11.68831168831157</v>
+        <v>-13.79310344827583</v>
       </c>
       <c r="L940" t="n">
         <v>3.71799999999999</v>
@@ -48147,7 +48147,7 @@
         <v>20.95</v>
       </c>
       <c r="K941" t="n">
-        <v>-8.860759493670797</v>
+        <v>0</v>
       </c>
       <c r="L941" t="n">
         <v>3.713999999999989</v>
@@ -48198,7 +48198,7 @@
         <v>21.02</v>
       </c>
       <c r="K942" t="n">
-        <v>0</v>
+        <v>9.374999999999931</v>
       </c>
       <c r="L942" t="n">
         <v>3.720999999999989</v>
@@ -48249,7 +48249,7 @@
         <v>21.02999999999999</v>
       </c>
       <c r="K943" t="n">
-        <v>-1.149425287356291</v>
+        <v>29.6296296296297</v>
       </c>
       <c r="L943" t="n">
         <v>3.725999999999989</v>
@@ -48300,7 +48300,7 @@
         <v>21.02999999999999</v>
       </c>
       <c r="K944" t="n">
-        <v>2.380952380952373</v>
+        <v>13.63636363636372</v>
       </c>
       <c r="L944" t="n">
         <v>3.741999999999989</v>
@@ -48351,7 +48351,7 @@
         <v>21.04999999999999</v>
       </c>
       <c r="K945" t="n">
-        <v>5.882352941176492</v>
+        <v>25.58139534883741</v>
       </c>
       <c r="L945" t="n">
         <v>3.749999999999989</v>
@@ -48402,7 +48402,7 @@
         <v>21.06</v>
       </c>
       <c r="K946" t="n">
-        <v>5.88235294117644</v>
+        <v>35.00000000000004</v>
       </c>
       <c r="L946" t="n">
         <v>3.759999999999989</v>
@@ -48453,7 +48453,7 @@
         <v>21.06</v>
       </c>
       <c r="K947" t="n">
-        <v>0</v>
+        <v>21.21212121212127</v>
       </c>
       <c r="L947" t="n">
         <v>3.773999999999988</v>
@@ -48504,7 +48504,7 @@
         <v>21.07999999999999</v>
       </c>
       <c r="K948" t="n">
-        <v>-1.234567901234598</v>
+        <v>-7.142857142857211</v>
       </c>
       <c r="L948" t="n">
         <v>3.778999999999988</v>
@@ -48555,7 +48555,7 @@
         <v>21.09</v>
       </c>
       <c r="K949" t="n">
-        <v>0</v>
+        <v>55.55555555555569</v>
       </c>
       <c r="L949" t="n">
         <v>3.777999999999989</v>
@@ -48606,7 +48606,7 @@
         <v>21.1</v>
       </c>
       <c r="K950" t="n">
-        <v>3.797468354430342</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L950" t="n">
         <v>3.786999999999989</v>
@@ -48657,7 +48657,7 @@
         <v>21.15</v>
       </c>
       <c r="K951" t="n">
-        <v>-4.878048780487786</v>
+        <v>-53.84615384615267</v>
       </c>
       <c r="L951" t="n">
         <v>3.786999999999989</v>
@@ -48708,7 +48708,7 @@
         <v>21.17</v>
       </c>
       <c r="K952" t="n">
-        <v>2.499999999999989</v>
+        <v>-28.57142857142775</v>
       </c>
       <c r="L952" t="n">
         <v>3.781999999999989</v>
@@ -48759,7 +48759,7 @@
         <v>21.18</v>
       </c>
       <c r="K953" t="n">
-        <v>2.499999999999933</v>
+        <v>-19.99999999999941</v>
       </c>
       <c r="L953" t="n">
         <v>3.778999999999989</v>
@@ -48810,7 +48810,7 @@
         <v>21.2</v>
       </c>
       <c r="K954" t="n">
-        <v>21.12676056338014</v>
+        <v>-19.99999999999941</v>
       </c>
       <c r="L954" t="n">
         <v>3.777999999999989</v>
@@ -48861,7 +48861,7 @@
         <v>21.22</v>
       </c>
       <c r="K955" t="n">
-        <v>11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L955" t="n">
         <v>3.776999999999989</v>
@@ -48912,7 +48912,7 @@
         <v>21.24</v>
       </c>
       <c r="K956" t="n">
-        <v>12.90322580645153</v>
+        <v>-11.11111111111092</v>
       </c>
       <c r="L956" t="n">
         <v>3.774999999999989</v>
@@ -48963,7 +48963,7 @@
         <v>21.26</v>
       </c>
       <c r="K957" t="n">
-        <v>23.33333333333323</v>
+        <v>11.11111111111092</v>
       </c>
       <c r="L957" t="n">
         <v>3.774999999999989</v>
@@ -49014,7 +49014,7 @@
         <v>21.28</v>
       </c>
       <c r="K958" t="n">
-        <v>9.090909090909047</v>
+        <v>-5.263157894736929</v>
       </c>
       <c r="L958" t="n">
         <v>3.774999999999989</v>
@@ -49065,7 +49065,7 @@
         <v>21.28</v>
       </c>
       <c r="K959" t="n">
-        <v>-4.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="L959" t="n">
         <v>3.773999999999989</v>
@@ -49116,7 +49116,7 @@
         <v>21.28</v>
       </c>
       <c r="K960" t="n">
-        <v>24.32432432432422</v>
+        <v>38.46153846153862</v>
       </c>
       <c r="L960" t="n">
         <v>3.773999999999989</v>

--- a/BackTest/2019-11-01 BackTest DAC.xlsx
+++ b/BackTest/2019-11-01 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,10 +960,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +997,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,10 +1079,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1116,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1157,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,10 +1198,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1111,11 +1235,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1276,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,10 +1317,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1210,11 +1354,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1395,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,10 +1436,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1309,11 +1473,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1514,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,10 +1555,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1408,11 +1592,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1633,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,10 +1674,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1507,11 +1711,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1752,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,10 +1793,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1606,11 +1830,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1871,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,10 +1912,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1705,11 +1949,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1990,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,10 +2031,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1804,11 +2068,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2109,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,10 +2150,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1903,11 +2187,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2228,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,10 +2269,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2002,11 +2306,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2347,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,10 +2388,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2425,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2466,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,10 +2507,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2200,11 +2544,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2585,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,10 +2626,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2299,11 +2663,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2704,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,10 +2745,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2398,11 +2782,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2823,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,10 +2864,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2497,11 +2901,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2942,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,10 +2983,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +3020,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3061,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,10 +3102,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +3139,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3180,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,10 +3221,14 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,11 +3258,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3299,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3340,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3381,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3422,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3463,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3504,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3545,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3586,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3627,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3668,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3709,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3750,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3791,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3832,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3873,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3914,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3955,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3996,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +4037,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +4078,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +4119,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +4160,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +4201,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4242,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4283,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4324,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4365,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4406,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4447,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4488,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4529,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4570,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4611,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4652,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4693,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4734,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4775,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4816,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4857,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4898,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4939,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4980,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +5021,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +5062,19 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +5103,19 @@
         <v>-1342772.3681</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +5144,19 @@
         <v>-1364211.0323</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +5185,19 @@
         <v>-1413024.4142</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +5226,19 @@
         <v>-1133532.3472</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.3</v>
       </c>
       <c r="J121" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>3.34</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,15 +5267,17 @@
         <v>-1395055.0392</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.34</v>
+      </c>
       <c r="J122" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4454,15 +5308,17 @@
         <v>-1150780.2632</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.33</v>
+      </c>
       <c r="J123" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4493,17 +5349,17 @@
         <v>-1461602.6062</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>3.34</v>
       </c>
       <c r="J124" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4534,13 +5390,13 @@
         <v>-1187689.2482</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>3.32</v>
       </c>
       <c r="J125" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4575,11 +5431,13 @@
         <v>-1187689.2482</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.33</v>
+      </c>
       <c r="J126" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4614,13 +5472,13 @@
         <v>-1410703.5632</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3.33</v>
       </c>
       <c r="J127" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4655,13 +5513,13 @@
         <v>-1141580.6752</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3.32</v>
       </c>
       <c r="J128" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4696,13 +5554,13 @@
         <v>-1399729.3432</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>3.34</v>
       </c>
       <c r="J129" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4737,13 +5595,13 @@
         <v>-1399729.3432</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3.32</v>
       </c>
       <c r="J130" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4778,13 +5636,13 @@
         <v>-1399729.3432</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>3.32</v>
       </c>
       <c r="J131" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4819,13 +5677,13 @@
         <v>-1692712.9442</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>3.32</v>
       </c>
       <c r="J132" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4860,13 +5718,13 @@
         <v>-1692712.9442</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>3.31</v>
       </c>
       <c r="J133" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4901,13 +5759,13 @@
         <v>-1322208.9912</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>3.31</v>
       </c>
       <c r="J134" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4942,13 +5800,13 @@
         <v>-1322208.9912</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>3.32</v>
       </c>
       <c r="J135" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4983,13 +5841,13 @@
         <v>-1473608.6902</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>3.32</v>
       </c>
       <c r="J136" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5024,13 +5882,13 @@
         <v>-1134106.2672</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3.31</v>
       </c>
       <c r="J137" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5065,13 +5923,13 @@
         <v>-1431320.5202</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>3.34</v>
       </c>
       <c r="J138" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5106,13 +5964,13 @@
         <v>-1431320.5202</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.33</v>
       </c>
       <c r="J139" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5147,13 +6005,13 @@
         <v>-1686178.7792</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3.33</v>
       </c>
       <c r="J140" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5188,13 +6046,13 @@
         <v>-1686178.7792</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>3.32</v>
       </c>
       <c r="J141" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5229,13 +6087,13 @@
         <v>-1367463.2212</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>3.32</v>
       </c>
       <c r="J142" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5270,13 +6128,13 @@
         <v>-1637935.612200001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3.33</v>
       </c>
       <c r="J143" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5311,13 +6169,13 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.32</v>
       </c>
       <c r="J144" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5352,13 +6210,13 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>3.33</v>
       </c>
       <c r="J145" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5393,13 +6251,13 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3.33</v>
       </c>
       <c r="J146" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5434,13 +6292,13 @@
         <v>-1308117.881200001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>3.33</v>
       </c>
       <c r="J147" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5475,13 +6333,13 @@
         <v>-1453690.591200001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>3.33</v>
       </c>
       <c r="J148" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5516,13 +6374,13 @@
         <v>-1157372.7922</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>3.32</v>
       </c>
       <c r="J149" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5557,13 +6415,13 @@
         <v>-1157372.7922</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>3.33</v>
       </c>
       <c r="J150" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5598,13 +6456,13 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>3.33</v>
       </c>
       <c r="J151" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5639,13 +6497,13 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>3.32</v>
       </c>
       <c r="J152" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5680,13 +6538,13 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.32</v>
       </c>
       <c r="J153" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5721,13 +6579,13 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.32</v>
       </c>
       <c r="J154" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5762,13 +6620,13 @@
         <v>-1466133.9782</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.32</v>
       </c>
       <c r="J155" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5803,13 +6661,13 @@
         <v>-1231478.858200001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>3.32</v>
       </c>
       <c r="J156" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5844,13 +6702,13 @@
         <v>-1231478.858200001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>3.33</v>
       </c>
       <c r="J157" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5885,13 +6743,13 @@
         <v>-1415879.199200001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>3.33</v>
       </c>
       <c r="J158" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5926,13 +6784,13 @@
         <v>-1126249.561200001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>3.32</v>
       </c>
       <c r="J159" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5967,13 +6825,13 @@
         <v>-1126249.561200001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.33</v>
       </c>
       <c r="J160" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6008,13 +6866,13 @@
         <v>-1380208.648200001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.33</v>
       </c>
       <c r="J161" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6049,13 +6907,13 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>3.32</v>
       </c>
       <c r="J162" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6090,13 +6948,13 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>3.33</v>
       </c>
       <c r="J163" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6131,13 +6989,13 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>3.33</v>
       </c>
       <c r="J164" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6172,13 +7030,13 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>3.33</v>
       </c>
       <c r="J165" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6213,13 +7071,13 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.33</v>
       </c>
       <c r="J166" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6254,13 +7112,13 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>3.33</v>
       </c>
       <c r="J167" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6295,13 +7153,13 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.32</v>
       </c>
       <c r="J168" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6336,13 +7194,13 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>3.32</v>
       </c>
       <c r="J169" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6377,13 +7235,13 @@
         <v>-1264983.541200001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.32</v>
       </c>
       <c r="J170" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6418,13 +7276,13 @@
         <v>-1264983.541200001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>3.33</v>
       </c>
       <c r="J171" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6459,13 +7317,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>3.33</v>
       </c>
       <c r="J172" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6500,13 +7358,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>3.32</v>
       </c>
       <c r="J173" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6541,13 +7399,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>3.32</v>
       </c>
       <c r="J174" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6582,13 +7440,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>3.32</v>
       </c>
       <c r="J175" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6623,13 +7481,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>3.32</v>
       </c>
       <c r="J176" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6664,13 +7522,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>3.32</v>
       </c>
       <c r="J177" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6705,13 +7563,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>3.32</v>
       </c>
       <c r="J178" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6746,13 +7604,13 @@
         <v>-1397052.661700001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3.32</v>
       </c>
       <c r="J179" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6787,13 +7645,13 @@
         <v>-1534159.903200001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>3.32</v>
       </c>
       <c r="J180" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6828,13 +7686,13 @@
         <v>-1553053.175800001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>3.31</v>
       </c>
       <c r="J181" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6869,13 +7727,13 @@
         <v>-1553053.175800001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>3.3</v>
       </c>
       <c r="J182" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6910,13 +7768,13 @@
         <v>-1553053.175800001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>3.3</v>
       </c>
       <c r="J183" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6951,13 +7809,13 @@
         <v>-1553053.175800001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>3.3</v>
       </c>
       <c r="J184" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6992,13 +7850,13 @@
         <v>-1622535.539300001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>3.3</v>
       </c>
       <c r="J185" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7033,13 +7891,13 @@
         <v>-1951512.651600001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>3.29</v>
       </c>
       <c r="J186" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7074,13 +7932,13 @@
         <v>-1951512.651600001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>3.26</v>
       </c>
       <c r="J187" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7115,13 +7973,13 @@
         <v>-1951512.651600001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>3.26</v>
       </c>
       <c r="J188" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7156,13 +8014,13 @@
         <v>-1951512.651600001</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>3.26</v>
       </c>
       <c r="J189" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7197,13 +8055,13 @@
         <v>-1951512.651600001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>3.26</v>
       </c>
       <c r="J190" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7238,13 +8096,13 @@
         <v>-1951512.651600001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>3.26</v>
       </c>
       <c r="J191" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7279,13 +8137,13 @@
         <v>-1588691.922600001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>3.26</v>
       </c>
       <c r="J192" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7320,13 +8178,13 @@
         <v>-1136258.656600001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>3.28</v>
       </c>
       <c r="J193" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7361,13 +8219,13 @@
         <v>-1136258.656600001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>3.29</v>
       </c>
       <c r="J194" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7402,13 +8260,13 @@
         <v>-1349736.161600001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>3.29</v>
       </c>
       <c r="J195" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7443,13 +8301,13 @@
         <v>-1349736.161600001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>3.27</v>
       </c>
       <c r="J196" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7484,13 +8342,13 @@
         <v>-1197924.446600001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>3.27</v>
       </c>
       <c r="J197" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7525,13 +8383,13 @@
         <v>-1197924.446600001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>3.29</v>
       </c>
       <c r="J198" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7566,13 +8424,13 @@
         <v>-1540036.898600001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>3.29</v>
       </c>
       <c r="J199" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7607,13 +8465,13 @@
         <v>-1237759.238600001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>3.27</v>
       </c>
       <c r="J200" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7648,13 +8506,13 @@
         <v>-1449966.123600001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>3.29</v>
       </c>
       <c r="J201" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7689,13 +8547,13 @@
         <v>-1762995.301600001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>3.28</v>
       </c>
       <c r="J202" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7730,13 +8588,13 @@
         <v>-1762995.301600001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>3.27</v>
       </c>
       <c r="J203" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7771,13 +8629,13 @@
         <v>-1305280.726600001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>3.27</v>
       </c>
       <c r="J204" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7812,13 +8670,13 @@
         <v>-1455987.118600001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>3.31</v>
       </c>
       <c r="J205" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7853,13 +8711,13 @@
         <v>-1455987.118600001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>3.29</v>
       </c>
       <c r="J206" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7894,13 +8752,13 @@
         <v>839012.8813999991</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>3.29</v>
       </c>
       <c r="J207" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7935,13 +8793,13 @@
         <v>889012.8813999991</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>3.31</v>
       </c>
       <c r="J208" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7976,13 +8834,13 @@
         <v>889012.8813999991</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>3.33</v>
       </c>
       <c r="J209" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8017,13 +8875,13 @@
         <v>787764.2672999991</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>3.33</v>
       </c>
       <c r="J210" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8058,13 +8916,13 @@
         <v>1081354.520299999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>3.32</v>
       </c>
       <c r="J211" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8099,13 +8957,13 @@
         <v>1141354.520299999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>3.33</v>
       </c>
       <c r="J212" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8140,13 +8998,13 @@
         <v>1535257.019299999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>3.35</v>
       </c>
       <c r="J213" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8181,13 +9039,13 @@
         <v>1535257.019299999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>3.36</v>
       </c>
       <c r="J214" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8222,11 +9080,13 @@
         <v>1535257.019299999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J215" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8261,11 +9121,13 @@
         <v>1693832.983599999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J216" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8300,11 +9162,13 @@
         <v>2311892.276199999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3.37</v>
+      </c>
       <c r="J217" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8339,11 +9203,13 @@
         <v>2311892.276199999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J218" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8378,11 +9244,13 @@
         <v>2311892.276199999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J219" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8421,7 +9289,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8460,7 +9328,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8499,7 +9367,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8538,7 +9406,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8577,7 +9445,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8616,7 +9484,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8655,7 +9523,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8694,7 +9562,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8733,7 +9601,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8772,7 +9640,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8811,7 +9679,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8850,7 +9718,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8889,7 +9757,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8928,7 +9796,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8967,7 +9835,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9006,7 +9874,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9045,7 +9913,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9084,7 +9952,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9123,7 +9991,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9162,7 +10030,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9201,7 +10069,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9240,7 +10108,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9279,7 +10147,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9318,7 +10186,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9357,7 +10225,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9396,7 +10264,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9435,7 +10303,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9474,7 +10342,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9513,7 +10381,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9552,7 +10420,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9591,7 +10459,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9630,7 +10498,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9669,7 +10537,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9708,7 +10576,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9747,7 +10615,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9786,7 +10654,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9825,7 +10693,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9864,7 +10732,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9903,7 +10771,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9942,7 +10810,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9981,7 +10849,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10020,7 +10888,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10059,7 +10927,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10094,11 +10962,11 @@
         <v>3350160.394758142</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10137,7 +11005,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10176,7 +11044,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10215,7 +11083,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10254,7 +11122,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10293,7 +11161,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10328,11 +11196,11 @@
         <v>2851116.934258142</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10371,7 +11239,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10406,11 +11274,11 @@
         <v>3258673.611243152</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10449,7 +11317,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10488,7 +11356,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10527,7 +11395,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10566,7 +11434,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10605,7 +11473,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10644,7 +11512,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10683,7 +11551,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10722,7 +11590,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10761,7 +11629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10800,7 +11668,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10839,7 +11707,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10878,7 +11746,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10917,7 +11785,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10956,7 +11824,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10995,7 +11863,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11034,7 +11902,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11073,7 +11941,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11112,7 +11980,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11151,7 +12019,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11190,7 +12058,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11229,7 +12097,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11268,7 +12136,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11307,7 +12175,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11346,7 +12214,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11381,11 +12249,11 @@
         <v>17080392.5404567</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11393,10 +12261,10 @@
         </is>
       </c>
       <c r="L296" t="n">
-        <v>1.322272727272727</v>
+        <v>1.306377245508982</v>
       </c>
       <c r="M296" t="n">
-        <v>1.015151515151515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -11422,7 +12290,7 @@
         <v>14692425.8327567</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11455,7 +12323,7 @@
         <v>15295148.3869567</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11488,7 +12356,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11521,7 +12389,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11554,7 +12422,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11587,7 +12455,7 @@
         <v>14519559.1187567</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11620,7 +12488,7 @@
         <v>13749732.2753567</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11653,7 +12521,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11686,7 +12554,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11719,7 +12587,7 @@
         <v>13796467.6635567</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11752,7 +12620,7 @@
         <v>13330819.8236567</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11785,7 +12653,7 @@
         <v>12848591.8920567</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11818,7 +12686,7 @@
         <v>13181755.4045567</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11851,7 +12719,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11884,7 +12752,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11917,7 +12785,7 @@
         <v>12320256.4741567</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11950,7 +12818,7 @@
         <v>12925432.41397887</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11983,7 +12851,7 @@
         <v>12925432.41397887</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12016,7 +12884,7 @@
         <v>12600896.62537887</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12049,7 +12917,7 @@
         <v>12847467.63217887</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12082,7 +12950,7 @@
         <v>12630492.34867886</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12115,7 +12983,7 @@
         <v>12912670.68377887</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12148,7 +13016,7 @@
         <v>13129815.06937887</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12181,7 +13049,7 @@
         <v>13129815.06937887</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12214,7 +13082,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12247,7 +13115,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12280,7 +13148,7 @@
         <v>12994923.24627887</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12313,7 +13181,7 @@
         <v>12798715.09487887</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12346,7 +13214,7 @@
         <v>12798715.09487887</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12379,7 +13247,7 @@
         <v>12819126.00097886</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12412,7 +13280,7 @@
         <v>12592126.12757886</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12445,7 +13313,7 @@
         <v>12851985.81167886</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12478,7 +13346,7 @@
         <v>13249274.71077886</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12511,7 +13379,7 @@
         <v>13031274.71077886</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12544,7 +13412,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12577,7 +13445,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12610,7 +13478,7 @@
         <v>12987511.79907886</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12643,7 +13511,7 @@
         <v>12696336.76907887</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12676,7 +13544,7 @@
         <v>12696336.76907887</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12709,7 +13577,7 @@
         <v>12260104.05297887</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12742,7 +13610,7 @@
         <v>11375920.18347887</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12775,7 +13643,7 @@
         <v>11072584.25647887</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12808,7 +13676,7 @@
         <v>11072584.25647887</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12841,7 +13709,7 @@
         <v>10863595.12107887</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12874,7 +13742,7 @@
         <v>10776544.20317887</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12907,7 +13775,7 @@
         <v>11041639.04367887</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12940,7 +13808,7 @@
         <v>10707286.38247887</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12973,7 +13841,7 @@
         <v>10707286.38247887</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13006,7 +13874,7 @@
         <v>10341560.56557887</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13039,7 +13907,7 @@
         <v>10020002.51827887</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13072,7 +13940,7 @@
         <v>10020002.51827887</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13105,7 +13973,7 @@
         <v>10228666.10927887</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13138,7 +14006,7 @@
         <v>9781625.169478869</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13171,7 +14039,7 @@
         <v>9317019.828878868</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13204,7 +14072,7 @@
         <v>8322928.640778868</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13237,7 +14105,7 @@
         <v>8793312.062478868</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13270,7 +14138,7 @@
         <v>11120658.44147887</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13303,7 +14171,7 @@
         <v>10168521.23317887</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13336,7 +14204,7 @@
         <v>10274704.24417887</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13369,7 +14237,7 @@
         <v>10591210.85057887</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13402,7 +14270,7 @@
         <v>11819234.83207887</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13435,7 +14303,7 @@
         <v>10587829.42727887</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13468,7 +14336,7 @@
         <v>10587829.42727887</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13501,7 +14369,7 @@
         <v>10304162.03727887</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13534,7 +14402,7 @@
         <v>10602851.19527887</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13567,7 +14435,7 @@
         <v>10360927.99807887</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13600,7 +14468,7 @@
         <v>10987935.00867887</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13633,7 +14501,7 @@
         <v>10987935.00867887</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13666,7 +14534,7 @@
         <v>10987935.00867887</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13699,7 +14567,7 @@
         <v>10987935.00867887</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -17230,7 +18098,7 @@
         <v>10347689.57817887</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17263,7 +18131,7 @@
         <v>9965907.965978872</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17296,7 +18164,7 @@
         <v>8108150.740978872</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17329,7 +18197,7 @@
         <v>7857782.095578873</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17791,7 +18659,7 @@
         <v>7111175.447178873</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17890,7 +18758,7 @@
         <v>7312779.346878873</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17923,7 +18791,7 @@
         <v>7148230.032878873</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17956,7 +18824,7 @@
         <v>7339199.813878873</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -20728,7 +21596,7 @@
         <v>7025750.812167884</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20761,7 +21629,7 @@
         <v>7636026.061667884</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20794,7 +21662,7 @@
         <v>7497062.555167884</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20827,7 +21695,7 @@
         <v>7649008.936167884</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20860,7 +21728,7 @@
         <v>8339751.216449134</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20893,7 +21761,7 @@
         <v>8392561.074449133</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20926,7 +21794,7 @@
         <v>8351926.547049133</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20959,7 +21827,7 @@
         <v>8351926.547049133</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20992,7 +21860,7 @@
         <v>8351926.547049133</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21025,7 +21893,7 @@
         <v>8351926.547049133</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21058,7 +21926,7 @@
         <v>8007326.221049133</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21091,7 +21959,7 @@
         <v>8277854.049049133</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21124,7 +21992,7 @@
         <v>8555598.862049133</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21157,7 +22025,7 @@
         <v>8555598.862049133</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -27031,7 +27899,7 @@
         <v>5736545.566048149</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27163,7 +28031,7 @@
         <v>5470270.645699593</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27196,7 +28064,7 @@
         <v>5598604.623599594</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27295,7 +28163,7 @@
         <v>4420452.382460372</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -30232,7 +31100,7 @@
         <v>10204695.71519976</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30265,7 +31133,7 @@
         <v>10071292.85729976</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -33367,7 +34235,7 @@
         <v>7656298.429399755</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34896,6 +35764,6 @@
       <c r="M1008" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest DAC.xlsx
+++ b/BackTest/2019-11-01 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,335 +517,287 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>317897.819</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>320619.404</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>272637.723</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F8" t="n">
+        <v>321767.299</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F9" t="n">
+        <v>278955.731</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F10" t="n">
+        <v>292417.088</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>297313.692</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>304998.777</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F5" t="n">
-        <v>317897.819</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F6" t="n">
-        <v>320619.404</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F7" t="n">
-        <v>272637.723</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F8" t="n">
-        <v>321767.299</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F9" t="n">
-        <v>278955.731</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F10" t="n">
-        <v>292417.088</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>297313.692</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F12" t="n">
-        <v>304998.777</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -927,48 +875,48 @@
       <c r="J14" t="n">
         <v>3.34</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F15" t="n">
+        <v>304986.523</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F15" t="n">
-        <v>304986.523</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1046,48 +994,48 @@
       <c r="J17" t="n">
         <v>3.34</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F18" t="n">
+        <v>301550.828</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F18" t="n">
-        <v>301550.828</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1165,48 +1113,48 @@
       <c r="J20" t="n">
         <v>3.34</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F21" t="n">
+        <v>262192.855</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F21" t="n">
-        <v>262192.855</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1284,48 +1232,48 @@
       <c r="J23" t="n">
         <v>3.34</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F24" t="n">
+        <v>242774.816</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F24" t="n">
-        <v>242774.816</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1403,48 +1351,48 @@
       <c r="J26" t="n">
         <v>3.34</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F27" t="n">
+        <v>338646.871</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F27" t="n">
-        <v>338646.871</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1522,48 +1470,48 @@
       <c r="J29" t="n">
         <v>3.34</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>270783.436</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F30" t="n">
-        <v>270783.436</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1641,48 +1589,48 @@
       <c r="J32" t="n">
         <v>3.34</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F33" t="n">
+        <v>145401.647</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F33" t="n">
-        <v>145401.647</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1760,48 +1708,48 @@
       <c r="J35" t="n">
         <v>3.34</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F36" t="n">
+        <v>216123.32</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F36" t="n">
-        <v>216123.32</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1879,48 +1827,48 @@
       <c r="J38" t="n">
         <v>3.34</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F39" t="n">
+        <v>429719.967</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F39" t="n">
-        <v>429719.967</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1998,48 +1946,48 @@
       <c r="J41" t="n">
         <v>3.34</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F42" t="n">
+        <v>284497.781</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F42" t="n">
-        <v>284497.781</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2117,48 +2065,48 @@
       <c r="J44" t="n">
         <v>3.34</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F45" t="n">
+        <v>120480.868</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F45" t="n">
-        <v>120480.868</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2236,48 +2184,48 @@
       <c r="J47" t="n">
         <v>3.34</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F48" t="n">
+        <v>223919.233</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F48" t="n">
-        <v>223919.233</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2355,48 +2303,48 @@
       <c r="J50" t="n">
         <v>3.34</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F51" t="n">
+        <v>349120.447</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F51" t="n">
-        <v>349120.447</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2474,48 +2422,48 @@
       <c r="J53" t="n">
         <v>3.34</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F54" t="n">
+        <v>336600.965</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F54" t="n">
-        <v>336600.965</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2593,48 +2541,48 @@
       <c r="J56" t="n">
         <v>3.34</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F57" t="n">
+        <v>342099.945</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F57" t="n">
-        <v>342099.945</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2712,48 +2660,48 @@
       <c r="J59" t="n">
         <v>3.34</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F60" t="n">
+        <v>269756.732</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F60" t="n">
-        <v>269756.732</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2831,48 +2779,48 @@
       <c r="J62" t="n">
         <v>3.34</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F63" t="n">
+        <v>308868.238</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F63" t="n">
-        <v>308868.238</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2950,48 +2898,48 @@
       <c r="J65" t="n">
         <v>3.34</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F66" t="n">
+        <v>276122.448</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F66" t="n">
-        <v>276122.448</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3069,48 +3017,48 @@
       <c r="J68" t="n">
         <v>3.34</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F69" t="n">
+        <v>250041.773</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F69" t="n">
-        <v>250041.773</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3188,48 +3136,48 @@
       <c r="J71" t="n">
         <v>3.34</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F72" t="n">
+        <v>247609.976</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F72" t="n">
-        <v>247609.976</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -8793,11 +8741,9 @@
         <v>889012.8813999991</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>3.34</v>
       </c>
@@ -8834,11 +8780,9 @@
         <v>889012.8813999991</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>3.34</v>
       </c>
@@ -8875,11 +8819,9 @@
         <v>787764.2672999991</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>3.34</v>
       </c>
@@ -8916,11 +8858,9 @@
         <v>1081354.520299999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>3.34</v>
       </c>
@@ -8957,11 +8897,9 @@
         <v>1141354.520299999</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>3.34</v>
       </c>
@@ -8998,11 +8936,9 @@
         <v>1535257.019299999</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
         <v>3.34</v>
       </c>
@@ -9039,11 +8975,9 @@
         <v>1535257.019299999</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
         <v>3.34</v>
       </c>
@@ -9080,11 +9014,9 @@
         <v>1535257.019299999</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>3.34</v>
       </c>
@@ -9121,11 +9053,9 @@
         <v>1693832.983599999</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>3.34</v>
       </c>
@@ -9162,11 +9092,9 @@
         <v>2311892.276199999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
         <v>3.34</v>
       </c>
@@ -9203,11 +9131,9 @@
         <v>2311892.276199999</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>3.34</v>
       </c>
@@ -9244,11 +9170,9 @@
         <v>2311892.276199999</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>3.34</v>
       </c>
@@ -10143,7 +10067,7 @@
         <v>-78787.89224401105</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
@@ -10151,13 +10075,15 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>1.198592814371257</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10182,17 +10108,11 @@
         <v>-498720.8141440111</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10221,17 +10141,11 @@
         <v>183213.5654559889</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10260,17 +10174,11 @@
         <v>-1183626.740044011</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10299,17 +10207,11 @@
         <v>-785726.4476440111</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10341,14 +10243,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10380,14 +10276,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10416,17 +10306,11 @@
         <v>5056844.991658142</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10455,17 +10339,11 @@
         <v>4344995.369658142</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10497,14 +10375,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10536,14 +10408,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10575,14 +10441,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10614,14 +10474,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10653,14 +10507,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10692,14 +10540,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10731,14 +10573,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10770,14 +10606,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10809,14 +10639,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10848,14 +10672,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10887,14 +10705,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10926,14 +10738,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10965,14 +10771,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -11004,14 +10804,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -11043,14 +10837,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -11082,14 +10870,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -11121,14 +10903,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11160,14 +10936,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11199,14 +10969,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11238,14 +11002,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11277,14 +11035,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11316,14 +11068,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11352,17 +11098,11 @@
         <v>3554267.068243152</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11391,17 +11131,11 @@
         <v>3523893.384043152</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11430,17 +11164,11 @@
         <v>4983828.817343152</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11469,17 +11197,11 @@
         <v>6315634.996143152</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11511,14 +11233,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11550,14 +11266,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11589,14 +11299,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11628,14 +11332,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11667,14 +11365,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11706,14 +11398,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11745,14 +11431,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11784,14 +11464,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11823,14 +11497,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11862,14 +11530,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11901,14 +11563,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11940,14 +11596,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11979,14 +11629,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -12018,14 +11662,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -12057,14 +11695,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -12096,14 +11728,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12135,14 +11761,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12174,14 +11794,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12213,14 +11827,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12249,23 +11857,15 @@
         <v>17080392.5404567</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
-        <v>1.306377245508982</v>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12323,7 +11923,7 @@
         <v>15295148.3869567</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -12356,7 +11956,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12389,7 +11989,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12422,7 +12022,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12455,7 +12055,7 @@
         <v>14519559.1187567</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12488,7 +12088,7 @@
         <v>13749732.2753567</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12521,7 +12121,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12554,7 +12154,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12587,7 +12187,7 @@
         <v>13796467.6635567</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12620,7 +12220,7 @@
         <v>13330819.8236567</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12653,7 +12253,7 @@
         <v>12848591.8920567</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12686,7 +12286,7 @@
         <v>13181755.4045567</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12719,7 +12319,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12752,7 +12352,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12785,7 +12385,7 @@
         <v>12320256.4741567</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12818,7 +12418,7 @@
         <v>12925432.41397887</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12851,7 +12451,7 @@
         <v>12925432.41397887</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12884,7 +12484,7 @@
         <v>12600896.62537887</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12917,7 +12517,7 @@
         <v>12847467.63217887</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12950,7 +12550,7 @@
         <v>12630492.34867886</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12983,7 +12583,7 @@
         <v>12912670.68377887</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -13016,7 +12616,7 @@
         <v>13129815.06937887</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -13049,7 +12649,7 @@
         <v>13129815.06937887</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -13082,7 +12682,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -13115,7 +12715,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -13148,7 +12748,7 @@
         <v>12994923.24627887</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -13181,7 +12781,7 @@
         <v>12798715.09487887</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -13214,7 +12814,7 @@
         <v>12798715.09487887</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -13247,7 +12847,7 @@
         <v>12819126.00097886</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13280,7 +12880,7 @@
         <v>12592126.12757886</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13313,7 +12913,7 @@
         <v>12851985.81167886</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13346,7 +12946,7 @@
         <v>13249274.71077886</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13379,7 +12979,7 @@
         <v>13031274.71077886</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13412,7 +13012,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13445,7 +13045,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13478,7 +13078,7 @@
         <v>12987511.79907886</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13511,7 +13111,7 @@
         <v>12696336.76907887</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13544,7 +13144,7 @@
         <v>12696336.76907887</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13577,7 +13177,7 @@
         <v>12260104.05297887</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13610,7 +13210,7 @@
         <v>11375920.18347887</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13643,7 +13243,7 @@
         <v>11072584.25647887</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13676,7 +13276,7 @@
         <v>11072584.25647887</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13709,7 +13309,7 @@
         <v>10863595.12107887</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13742,7 +13342,7 @@
         <v>10776544.20317887</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13775,7 +13375,7 @@
         <v>11041639.04367887</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13808,7 +13408,7 @@
         <v>10707286.38247887</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13841,7 +13441,7 @@
         <v>10707286.38247887</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13874,7 +13474,7 @@
         <v>10341560.56557887</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13907,7 +13507,7 @@
         <v>10020002.51827887</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13940,7 +13540,7 @@
         <v>10020002.51827887</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13973,7 +13573,7 @@
         <v>10228666.10927887</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -14006,7 +13606,7 @@
         <v>9781625.169478869</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -14039,7 +13639,7 @@
         <v>9317019.828878868</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14072,7 +13672,7 @@
         <v>8322928.640778868</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -14105,7 +13705,7 @@
         <v>8793312.062478868</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14138,7 +13738,7 @@
         <v>11120658.44147887</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14171,7 +13771,7 @@
         <v>10168521.23317887</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14204,7 +13804,7 @@
         <v>10274704.24417887</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14237,7 +13837,7 @@
         <v>10591210.85057887</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14270,7 +13870,7 @@
         <v>11819234.83207887</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14303,7 +13903,7 @@
         <v>10587829.42727887</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14336,7 +13936,7 @@
         <v>10587829.42727887</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14369,7 +13969,7 @@
         <v>10304162.03727887</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14402,7 +14002,7 @@
         <v>10602851.19527887</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -35764,6 +35364,6 @@
       <c r="M1008" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest DAC.xlsx
+++ b/BackTest/2019-11-01 BackTest DAC.xlsx
@@ -748,14 +748,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,19 +781,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -826,19 +814,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,14 +847,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -904,19 +880,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -945,19 +913,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -986,14 +946,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1023,19 +979,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1064,19 +1012,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1105,14 +1045,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1142,19 +1078,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1183,19 +1111,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1224,14 +1144,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1261,19 +1177,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,19 +1210,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1343,14 +1243,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1380,19 +1276,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1421,19 +1309,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1462,14 +1342,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1499,19 +1375,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1540,19 +1408,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1581,14 +1441,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1618,19 +1474,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1659,19 +1507,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1540,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1737,19 +1573,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1778,19 +1606,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1819,14 +1639,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1856,19 +1672,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1897,19 +1705,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1938,14 +1738,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1983,11 +1779,7 @@
       <c r="J42" t="n">
         <v>3.34</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2065,7 +1857,11 @@
       <c r="J44" t="n">
         <v>3.34</v>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2094,97 +1890,87 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F46" t="n">
+        <v>435943.103</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F47" t="n">
+        <v>160056.385</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F46" t="n">
-        <v>435943.103</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F47" t="n">
-        <v>160056.385</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2213,11 +1999,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>3.34</v>
       </c>
@@ -2262,48 +2046,48 @@
       <c r="J49" t="n">
         <v>3.34</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F50" t="n">
+        <v>224720.25</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F50" t="n">
-        <v>224720.25</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2116,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>3.34</v>
       </c>
@@ -2373,19 +2155,11 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2414,14 +2188,10 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2459,11 +2229,7 @@
       <c r="J54" t="n">
         <v>3.34</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2258,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>3.34</v>
       </c>
@@ -2533,15 +2297,17 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>3.34</v>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2570,1188 +2336,1000 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F58" t="n">
+        <v>262677.304</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F59" t="n">
+        <v>288171.838</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F60" t="n">
+        <v>269756.732</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F61" t="n">
+        <v>334452.278</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F62" t="n">
+        <v>307365.36</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F63" t="n">
+        <v>308868.238</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F64" t="n">
+        <v>246031.209</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F65" t="n">
+        <v>316530.316</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F66" t="n">
+        <v>276122.448</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F67" t="n">
+        <v>313355.641</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F68" t="n">
+        <v>267510.78</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F69" t="n">
+        <v>250041.773</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F70" t="n">
+        <v>334482.597</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F71" t="n">
+        <v>326459.18</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F72" t="n">
+        <v>247609.976</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F73" t="n">
+        <v>266507.925</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F74" t="n">
+        <v>266352.477</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F75" t="n">
+        <v>278490.613</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F76" t="n">
+        <v>293445.841</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F77" t="n">
+        <v>333291.323</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F78" t="n">
+        <v>219599.233</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F79" t="n">
+        <v>140855.471</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F80" t="n">
+        <v>192167.589</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F81" t="n">
+        <v>294273.463</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F82" t="n">
+        <v>329969.444</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1226686.6502</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F58" t="n">
-        <v>262677.304</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100896.284</v>
+      </c>
+      <c r="G83" t="n">
         <v>-1226686.6502</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K58" t="inlineStr">
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F59" t="n">
-        <v>288171.838</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F84" t="n">
+        <v>275068.315</v>
+      </c>
+      <c r="G84" t="n">
         <v>-1226686.6502</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F60" t="n">
-        <v>269756.732</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F85" t="n">
+        <v>444119.315</v>
+      </c>
+      <c r="G85" t="n">
         <v>-1226686.6502</v>
       </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K60" t="inlineStr">
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F61" t="n">
-        <v>334452.278</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F86" t="n">
+        <v>300817.116</v>
+      </c>
+      <c r="G86" t="n">
         <v>-1226686.6502</v>
       </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E62" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F62" t="n">
-        <v>307365.36</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F63" t="n">
-        <v>308868.238</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F64" t="n">
-        <v>246031.209</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F65" t="n">
-        <v>316530.316</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F66" t="n">
-        <v>276122.448</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F67" t="n">
-        <v>313355.641</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F68" t="n">
-        <v>267510.78</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F69" t="n">
-        <v>250041.773</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F70" t="n">
-        <v>334482.597</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F71" t="n">
-        <v>326459.18</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F72" t="n">
-        <v>247609.976</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F73" t="n">
-        <v>266507.925</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D74" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E74" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F74" t="n">
-        <v>266352.477</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K74" t="inlineStr">
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F75" t="n">
-        <v>278490.613</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F76" t="n">
-        <v>293445.841</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D77" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E77" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F77" t="n">
-        <v>333291.323</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C78" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D78" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F78" t="n">
-        <v>219599.233</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D79" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E79" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F79" t="n">
-        <v>140855.471</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F80" t="n">
-        <v>192167.589</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E81" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F81" t="n">
-        <v>294273.463</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F82" t="n">
-        <v>329969.444</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D83" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E83" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F83" t="n">
-        <v>100896.284</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E84" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F84" t="n">
-        <v>275068.315</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C85" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D85" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F85" t="n">
-        <v>444119.315</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="C86" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E86" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F86" t="n">
-        <v>300817.116</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1226686.6502</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3780,11 +3358,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>3.34</v>
       </c>
@@ -3821,11 +3397,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>3.34</v>
       </c>
@@ -3862,11 +3436,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>3.34</v>
       </c>
@@ -3903,11 +3475,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>3.34</v>
       </c>
@@ -3944,11 +3514,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>3.34</v>
       </c>
@@ -3985,11 +3553,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>3.34</v>
       </c>
@@ -4026,11 +3592,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>3.34</v>
       </c>
@@ -4067,11 +3631,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>3.34</v>
       </c>
@@ -4108,11 +3670,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>3.34</v>
       </c>
@@ -4149,11 +3709,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>3.34</v>
       </c>
@@ -4190,11 +3748,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>3.34</v>
       </c>
@@ -4231,11 +3787,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>3.34</v>
       </c>
@@ -4272,11 +3826,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>3.34</v>
       </c>
@@ -4313,11 +3865,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>3.34</v>
       </c>
@@ -4354,11 +3904,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>3.34</v>
       </c>
@@ -4395,11 +3943,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>3.34</v>
       </c>
@@ -4436,11 +3982,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>3.34</v>
       </c>
@@ -4477,11 +4021,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>3.34</v>
       </c>
@@ -4518,11 +4060,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>3.34</v>
       </c>
@@ -4600,11 +4140,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>3.34</v>
       </c>
@@ -4641,11 +4179,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>3.34</v>
       </c>
@@ -4682,11 +4218,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>3.34</v>
       </c>
@@ -4764,11 +4298,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>3.34</v>
       </c>
@@ -4805,11 +4337,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>3.34</v>
       </c>
@@ -4846,11 +4376,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>3.34</v>
       </c>
@@ -4887,11 +4415,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>3.34</v>
       </c>
@@ -4928,11 +4454,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>3.34</v>
       </c>
@@ -4969,11 +4493,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>3.34</v>
       </c>
@@ -5010,11 +4532,9 @@
         <v>-1226686.6502</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>3.34</v>
       </c>
@@ -7019,11 +6539,9 @@
         <v>-1230163.557200001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>3.34</v>
       </c>
@@ -7101,11 +6619,9 @@
         <v>-1631331.698200001</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>3.34</v>
       </c>
@@ -8741,9 +8257,11 @@
         <v>889012.8813999991</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3.31</v>
+      </c>
       <c r="J208" t="n">
         <v>3.34</v>
       </c>
@@ -10067,1772 +9585,2090 @@
         <v>-78787.89224401105</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>3.34</v>
       </c>
       <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F243" t="n">
+        <v>419932.9219</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-498720.8141440111</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F244" t="n">
+        <v>681934.3796</v>
+      </c>
+      <c r="G244" t="n">
+        <v>183213.5654559889</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E245" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1366840.3055</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1183626.740044011</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>397900.2924</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-785726.4476440111</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F247" t="n">
+        <v>279315.3018</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-506411.1458440111</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1436419.3896</v>
+      </c>
+      <c r="G248" t="n">
+        <v>930008.243755989</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4126836.747902153</v>
+      </c>
+      <c r="G249" t="n">
+        <v>5056844.991658142</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>711849.622</v>
+      </c>
+      <c r="G250" t="n">
+        <v>4344995.369658142</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1009864.9999</v>
+      </c>
+      <c r="G251" t="n">
+        <v>4344995.369658142</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F252" t="n">
+        <v>806480.5818</v>
+      </c>
+      <c r="G252" t="n">
+        <v>5151475.951458142</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D253" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F253" t="n">
+        <v>247288.5721</v>
+      </c>
+      <c r="G253" t="n">
+        <v>4904187.379358143</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E254" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F254" t="n">
+        <v>365799.8286</v>
+      </c>
+      <c r="G254" t="n">
+        <v>4904187.379358143</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D255" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F255" t="n">
+        <v>365555.687</v>
+      </c>
+      <c r="G255" t="n">
+        <v>4538631.692358143</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F256" t="n">
+        <v>500353.8187</v>
+      </c>
+      <c r="G256" t="n">
+        <v>4038277.873658143</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D257" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F257" t="n">
+        <v>313429.225</v>
+      </c>
+      <c r="G257" t="n">
+        <v>4351707.098658143</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D258" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F258" t="n">
+        <v>341169.7551</v>
+      </c>
+      <c r="G258" t="n">
+        <v>4010537.343558142</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="D259" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F259" t="n">
+        <v>332069.6173</v>
+      </c>
+      <c r="G259" t="n">
+        <v>3678467.726258142</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F260" t="n">
+        <v>143426.3553</v>
+      </c>
+      <c r="G260" t="n">
+        <v>3821894.081558142</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C261" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D261" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1028740.6237</v>
+      </c>
+      <c r="G261" t="n">
+        <v>3821894.081558142</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4</v>
+      </c>
+      <c r="C262" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="D262" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E262" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F262" t="n">
+        <v>468212.5624</v>
+      </c>
+      <c r="G262" t="n">
+        <v>3353681.519158142</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4</v>
+      </c>
+      <c r="D263" t="n">
+        <v>4</v>
+      </c>
+      <c r="E263" t="n">
+        <v>4</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3521.1244</v>
+      </c>
+      <c r="G263" t="n">
+        <v>3350160.394758142</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E264" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F264" t="n">
+        <v>579194.2633</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2770966.131458142</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E265" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F265" t="n">
+        <v>315674.3132</v>
+      </c>
+      <c r="G265" t="n">
+        <v>3086640.444658142</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3405.9225</v>
+      </c>
+      <c r="G266" t="n">
+        <v>3086640.444658142</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F267" t="n">
+        <v>250394.4651</v>
+      </c>
+      <c r="G267" t="n">
+        <v>2836245.979558141</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F268" t="n">
+        <v>276169.7859</v>
+      </c>
+      <c r="G268" t="n">
+        <v>2560076.193658141</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E269" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F269" t="n">
+        <v>291040.7406</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2851116.934258142</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E270" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F270" t="n">
+        <v>422393.4407659148</v>
+      </c>
+      <c r="G270" t="n">
+        <v>3273510.375024057</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F271" t="n">
+        <v>14836.76378090452</v>
+      </c>
+      <c r="G271" t="n">
+        <v>3258673.611243152</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="D272" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F272" t="n">
+        <v>295593.457</v>
+      </c>
+      <c r="G272" t="n">
+        <v>3554267.068243152</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F273" t="n">
+        <v>30670.1754</v>
+      </c>
+      <c r="G273" t="n">
+        <v>3554267.068243152</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F274" t="n">
+        <v>30373.6842</v>
+      </c>
+      <c r="G274" t="n">
+        <v>3523893.384043152</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="D275" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1459935.4333</v>
+      </c>
+      <c r="G275" t="n">
+        <v>4983828.817343152</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C276" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D276" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E276" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1331806.1788</v>
+      </c>
+      <c r="G276" t="n">
+        <v>6315634.996143152</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D277" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E277" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1167525.2589</v>
+      </c>
+      <c r="G277" t="n">
+        <v>7483160.255043152</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C278" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D278" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E278" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1097986.329</v>
+      </c>
+      <c r="G278" t="n">
+        <v>8581146.584043153</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C279" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D279" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F279" t="n">
+        <v>527850.8019</v>
+      </c>
+      <c r="G279" t="n">
+        <v>8581146.584043153</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C280" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D280" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E280" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F280" t="n">
+        <v>167835.0677</v>
+      </c>
+      <c r="G280" t="n">
+        <v>8413311.516343152</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C281" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E281" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F281" t="n">
+        <v>268460.6505</v>
+      </c>
+      <c r="G281" t="n">
+        <v>8681772.166843152</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C282" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1877230.463</v>
+      </c>
+      <c r="G282" t="n">
+        <v>10559002.62984315</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C283" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D283" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E283" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F283" t="n">
+        <v>5835905.847104378</v>
+      </c>
+      <c r="G283" t="n">
+        <v>16394908.47694753</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C284" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D284" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E284" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1405712.0177</v>
+      </c>
+      <c r="G284" t="n">
+        <v>14989196.45924753</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C285" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D285" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E285" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3033011.952389838</v>
+      </c>
+      <c r="G285" t="n">
+        <v>18022208.41163737</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C286" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D286" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E286" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F286" t="n">
+        <v>4205943.259795622</v>
+      </c>
+      <c r="G286" t="n">
+        <v>13816265.15184174</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C287" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D287" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E287" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F287" t="n">
+        <v>573888.0631</v>
+      </c>
+      <c r="G287" t="n">
+        <v>13816265.15184174</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C288" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D288" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E288" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F288" t="n">
+        <v>416285.9612</v>
+      </c>
+      <c r="G288" t="n">
+        <v>13816265.15184174</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C289" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D289" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E289" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F289" t="n">
+        <v>402930.0691850467</v>
+      </c>
+      <c r="G289" t="n">
+        <v>13413335.0826567</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D290" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E290" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F290" t="n">
+        <v>810577.0599</v>
+      </c>
+      <c r="G290" t="n">
+        <v>14223912.1425567</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C291" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D291" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E291" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F291" t="n">
+        <v>52421.44581495327</v>
+      </c>
+      <c r="G291" t="n">
+        <v>14223912.1425567</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C292" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D292" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E292" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F292" t="n">
+        <v>247559.4616</v>
+      </c>
+      <c r="G292" t="n">
+        <v>14471471.6041567</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C293" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D293" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E293" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F293" t="n">
+        <v>313409.4532166282</v>
+      </c>
+      <c r="G293" t="n">
+        <v>14784881.05737333</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C294" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D294" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E294" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2617351.214483372</v>
+      </c>
+      <c r="G294" t="n">
+        <v>17402232.2718567</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C295" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D295" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1216937.5076</v>
+      </c>
+      <c r="G295" t="n">
+        <v>16185294.7642567</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1.198592814371257</v>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C243" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D243" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E243" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F243" t="n">
-        <v>419932.9219</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-498720.8141440111</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C244" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="D244" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E244" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F244" t="n">
-        <v>681934.3796</v>
-      </c>
-      <c r="G244" t="n">
-        <v>183213.5654559889</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D245" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E245" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1366840.3055</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1183626.740044011</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C246" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D246" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E246" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F246" t="n">
-        <v>397900.2924</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-785726.4476440111</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="D247" t="n">
-        <v>4</v>
-      </c>
-      <c r="E247" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F247" t="n">
-        <v>279315.3018</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-506411.1458440111</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="C248" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D248" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E248" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1436419.3896</v>
-      </c>
-      <c r="G248" t="n">
-        <v>930008.243755989</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C249" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D249" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="E249" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F249" t="n">
-        <v>4126836.747902153</v>
-      </c>
-      <c r="G249" t="n">
-        <v>5056844.991658142</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C250" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D250" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E250" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F250" t="n">
-        <v>711849.622</v>
-      </c>
-      <c r="G250" t="n">
-        <v>4344995.369658142</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C251" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D251" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E251" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1009864.9999</v>
-      </c>
-      <c r="G251" t="n">
-        <v>4344995.369658142</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C252" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="D252" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="E252" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F252" t="n">
-        <v>806480.5818</v>
-      </c>
-      <c r="G252" t="n">
-        <v>5151475.951458142</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C253" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D253" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E253" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F253" t="n">
-        <v>247288.5721</v>
-      </c>
-      <c r="G253" t="n">
-        <v>4904187.379358143</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C254" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D254" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E254" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F254" t="n">
-        <v>365799.8286</v>
-      </c>
-      <c r="G254" t="n">
-        <v>4904187.379358143</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C255" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="D255" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E255" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F255" t="n">
-        <v>365555.687</v>
-      </c>
-      <c r="G255" t="n">
-        <v>4538631.692358143</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="C256" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D256" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="E256" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F256" t="n">
-        <v>500353.8187</v>
-      </c>
-      <c r="G256" t="n">
-        <v>4038277.873658143</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C257" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D257" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E257" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F257" t="n">
-        <v>313429.225</v>
-      </c>
-      <c r="G257" t="n">
-        <v>4351707.098658143</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C258" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D258" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="E258" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F258" t="n">
-        <v>341169.7551</v>
-      </c>
-      <c r="G258" t="n">
-        <v>4010537.343558142</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="C259" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="D259" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E259" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F259" t="n">
-        <v>332069.6173</v>
-      </c>
-      <c r="G259" t="n">
-        <v>3678467.726258142</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="C260" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D260" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E260" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F260" t="n">
-        <v>143426.3553</v>
-      </c>
-      <c r="G260" t="n">
-        <v>3821894.081558142</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C261" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D261" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E261" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1028740.6237</v>
-      </c>
-      <c r="G261" t="n">
-        <v>3821894.081558142</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>4</v>
-      </c>
-      <c r="C262" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="D262" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="E262" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F262" t="n">
-        <v>468212.5624</v>
-      </c>
-      <c r="G262" t="n">
-        <v>3353681.519158142</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>4</v>
-      </c>
-      <c r="C263" t="n">
-        <v>4</v>
-      </c>
-      <c r="D263" t="n">
-        <v>4</v>
-      </c>
-      <c r="E263" t="n">
-        <v>4</v>
-      </c>
-      <c r="F263" t="n">
-        <v>3521.1244</v>
-      </c>
-      <c r="G263" t="n">
-        <v>3350160.394758142</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="C264" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D264" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E264" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F264" t="n">
-        <v>579194.2633</v>
-      </c>
-      <c r="G264" t="n">
-        <v>2770966.131458142</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C265" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="D265" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E265" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F265" t="n">
-        <v>315674.3132</v>
-      </c>
-      <c r="G265" t="n">
-        <v>3086640.444658142</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="D266" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E266" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F266" t="n">
-        <v>3405.9225</v>
-      </c>
-      <c r="G266" t="n">
-        <v>3086640.444658142</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C267" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D267" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E267" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F267" t="n">
-        <v>250394.4651</v>
-      </c>
-      <c r="G267" t="n">
-        <v>2836245.979558141</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C268" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D268" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E268" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F268" t="n">
-        <v>276169.7859</v>
-      </c>
-      <c r="G268" t="n">
-        <v>2560076.193658141</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C269" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D269" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E269" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F269" t="n">
-        <v>291040.7406</v>
-      </c>
-      <c r="G269" t="n">
-        <v>2851116.934258142</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="C270" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="D270" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E270" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F270" t="n">
-        <v>422393.4407659148</v>
-      </c>
-      <c r="G270" t="n">
-        <v>3273510.375024057</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C271" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D271" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E271" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F271" t="n">
-        <v>14836.76378090452</v>
-      </c>
-      <c r="G271" t="n">
-        <v>3258673.611243152</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="C272" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="D272" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E272" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F272" t="n">
-        <v>295593.457</v>
-      </c>
-      <c r="G272" t="n">
-        <v>3554267.068243152</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="C273" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="D273" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E273" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F273" t="n">
-        <v>30670.1754</v>
-      </c>
-      <c r="G273" t="n">
-        <v>3554267.068243152</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="C274" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D274" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E274" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F274" t="n">
-        <v>30373.6842</v>
-      </c>
-      <c r="G274" t="n">
-        <v>3523893.384043152</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="C275" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="D275" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="E275" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1459935.4333</v>
-      </c>
-      <c r="G275" t="n">
-        <v>4983828.817343152</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C276" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D276" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="E276" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1331806.1788</v>
-      </c>
-      <c r="G276" t="n">
-        <v>6315634.996143152</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C277" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D277" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E277" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F277" t="n">
-        <v>1167525.2589</v>
-      </c>
-      <c r="G277" t="n">
-        <v>7483160.255043152</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C278" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D278" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E278" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1097986.329</v>
-      </c>
-      <c r="G278" t="n">
-        <v>8581146.584043153</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C279" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D279" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E279" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F279" t="n">
-        <v>527850.8019</v>
-      </c>
-      <c r="G279" t="n">
-        <v>8581146.584043153</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C280" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D280" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E280" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F280" t="n">
-        <v>167835.0677</v>
-      </c>
-      <c r="G280" t="n">
-        <v>8413311.516343152</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C281" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D281" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E281" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F281" t="n">
-        <v>268460.6505</v>
-      </c>
-      <c r="G281" t="n">
-        <v>8681772.166843152</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C282" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D282" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E282" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1877230.463</v>
-      </c>
-      <c r="G282" t="n">
-        <v>10559002.62984315</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C283" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D283" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E283" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F283" t="n">
-        <v>5835905.847104378</v>
-      </c>
-      <c r="G283" t="n">
-        <v>16394908.47694753</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C284" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D284" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E284" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1405712.0177</v>
-      </c>
-      <c r="G284" t="n">
-        <v>14989196.45924753</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C285" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D285" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E285" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F285" t="n">
-        <v>3033011.952389838</v>
-      </c>
-      <c r="G285" t="n">
-        <v>18022208.41163737</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C286" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D286" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E286" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F286" t="n">
-        <v>4205943.259795622</v>
-      </c>
-      <c r="G286" t="n">
-        <v>13816265.15184174</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C287" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D287" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E287" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F287" t="n">
-        <v>573888.0631</v>
-      </c>
-      <c r="G287" t="n">
-        <v>13816265.15184174</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C288" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D288" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E288" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F288" t="n">
-        <v>416285.9612</v>
-      </c>
-      <c r="G288" t="n">
-        <v>13816265.15184174</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C289" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D289" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E289" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F289" t="n">
-        <v>402930.0691850467</v>
-      </c>
-      <c r="G289" t="n">
-        <v>13413335.0826567</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C290" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D290" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E290" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F290" t="n">
-        <v>810577.0599</v>
-      </c>
-      <c r="G290" t="n">
-        <v>14223912.1425567</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C291" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D291" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E291" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F291" t="n">
-        <v>52421.44581495327</v>
-      </c>
-      <c r="G291" t="n">
-        <v>14223912.1425567</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C292" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D292" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E292" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F292" t="n">
-        <v>247559.4616</v>
-      </c>
-      <c r="G292" t="n">
-        <v>14471471.6041567</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C293" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D293" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E293" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F293" t="n">
-        <v>313409.4532166282</v>
-      </c>
-      <c r="G293" t="n">
-        <v>14784881.05737333</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C294" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D294" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E294" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F294" t="n">
-        <v>2617351.214483372</v>
-      </c>
-      <c r="G294" t="n">
-        <v>17402232.2718567</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C295" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D295" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="E295" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F295" t="n">
-        <v>1216937.5076</v>
-      </c>
-      <c r="G295" t="n">
-        <v>16185294.7642567</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>1.297395209580838</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1.003003003003003</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11857,7 +11693,7 @@
         <v>17080392.5404567</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11890,7 +11726,7 @@
         <v>14692425.8327567</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11923,7 +11759,7 @@
         <v>15295148.3869567</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11956,7 +11792,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11989,7 +11825,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12022,7 +11858,7 @@
         <v>14256706.4522567</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12055,7 +11891,7 @@
         <v>14519559.1187567</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12088,7 +11924,7 @@
         <v>13749732.2753567</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12121,7 +11957,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12154,7 +11990,7 @@
         <v>13609493.3095567</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12187,7 +12023,7 @@
         <v>13796467.6635567</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12220,7 +12056,7 @@
         <v>13330819.8236567</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12253,7 +12089,7 @@
         <v>12848591.8920567</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12286,7 +12122,7 @@
         <v>13181755.4045567</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12352,7 +12188,7 @@
         <v>13084641.6895567</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12385,7 +12221,7 @@
         <v>12320256.4741567</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12484,7 +12320,7 @@
         <v>12600896.62537887</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12682,7 +12518,7 @@
         <v>12996995.91937887</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12748,7 +12584,7 @@
         <v>12994923.24627887</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -13012,7 +12848,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13045,7 +12881,7 @@
         <v>13147099.73127886</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
